--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/50/Output_11_15.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/50/Output_11_15.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-924890.1681351309</v>
+        <v>-925688.4131687887</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>504792.0292736556</v>
+        <v>504792.0292736554</v>
       </c>
     </row>
     <row r="9">
@@ -1130,76 +1130,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>135.7293992974318</v>
       </c>
       <c r="C8" t="n">
-        <v>7.865925798787496</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>10.00967878293136</v>
+        <v>107.607508220824</v>
       </c>
       <c r="G8" t="n">
         <v>11.94294668035388</v>
       </c>
       <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0</v>
+      </c>
+      <c r="S8" t="n">
+        <v>0</v>
+      </c>
+      <c r="T8" t="n">
+        <v>0</v>
+      </c>
+      <c r="U8" t="n">
+        <v>0</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="n">
+        <v>0</v>
+      </c>
+      <c r="X8" t="n">
         <v>135.7293992974318</v>
       </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>0</v>
-      </c>
-      <c r="R8" t="n">
-        <v>89.73190363910518</v>
-      </c>
-      <c r="S8" t="n">
+      <c r="Y8" t="n">
         <v>135.7293992974318</v>
-      </c>
-      <c r="T8" t="n">
-        <v>0</v>
-      </c>
-      <c r="U8" t="n">
-        <v>0</v>
-      </c>
-      <c r="V8" t="n">
-        <v>0</v>
-      </c>
-      <c r="W8" t="n">
-        <v>0</v>
-      </c>
-      <c r="X8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1221,7 +1221,7 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>133.3468600696244</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
         <v>127.4412149769483</v>
@@ -1230,7 +1230,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1263,16 +1263,16 @@
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>135.7293992974318</v>
       </c>
       <c r="U9" t="n">
         <v>135.7293992974318</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>60.14017676482181</v>
       </c>
       <c r="W9" t="n">
-        <v>130.2211784494688</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
@@ -1294,16 +1294,16 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>135.7293992974318</v>
       </c>
       <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
         <v>135.7293992974318</v>
-      </c>
-      <c r="F10" t="n">
-        <v>0</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1312,7 +1312,7 @@
         <v>135.7293992974318</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>59.456666199969</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1336,7 +1336,7 @@
         <v>38.15196793284785</v>
       </c>
       <c r="R10" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1348,13 +1348,13 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>81.39848696832993</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>21.94182076836087</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>306.9184284283104</v>
+        <v>18.90679044367022</v>
       </c>
       <c r="C11" t="n">
         <v>294.9297453859921</v>
@@ -1376,7 +1376,7 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>64.24190672648805</v>
+        <v>307.6531870004256</v>
       </c>
       <c r="F11" t="n">
         <v>326.8250030884028</v>
@@ -1385,10 +1385,10 @@
         <v>328.2706518781364</v>
       </c>
       <c r="H11" t="n">
-        <v>241.3145567775166</v>
+        <v>241.3145567775165</v>
       </c>
       <c r="I11" t="n">
-        <v>69.10541545958804</v>
+        <v>69.10541545958802</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>91.06038950496078</v>
+        <v>91.06038950496074</v>
       </c>
       <c r="T11" t="n">
         <v>136.7961284678623</v>
@@ -1427,16 +1427,16 @@
         <v>169.1127977000022</v>
       </c>
       <c r="V11" t="n">
-        <v>250.4248056684895</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>295.025163379193</v>
       </c>
       <c r="Y11" t="n">
-        <v>306.4217611753918</v>
+        <v>306.4217611753917</v>
       </c>
     </row>
     <row r="12">
@@ -1464,10 +1464,10 @@
         <v>127.1803157534334</v>
       </c>
       <c r="H12" t="n">
-        <v>96.41874164113862</v>
+        <v>96.41874164113864</v>
       </c>
       <c r="I12" t="n">
-        <v>58.71574796301677</v>
+        <v>58.71574796301679</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>42.98778846128316</v>
+        <v>42.98778846128317</v>
       </c>
       <c r="S12" t="n">
         <v>146.4254034700827</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>98.53513930300747</v>
+        <v>98.53513930300741</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>68.35649854598634</v>
+        <v>68.35649854598628</v>
       </c>
       <c r="E13" t="n">
-        <v>67.30424840176579</v>
+        <v>67.30424840176573</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>83.82714630647801</v>
+        <v>83.82714630647797</v>
       </c>
       <c r="H13" t="n">
-        <v>72.64954213184642</v>
+        <v>72.64954213184637</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>52.99855633999331</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>55.0070301473352</v>
       </c>
       <c r="S13" t="n">
-        <v>124.5761368156061</v>
+        <v>124.576136815606</v>
       </c>
       <c r="T13" t="n">
-        <v>146.7279179755285</v>
+        <v>146.7279179755284</v>
       </c>
       <c r="U13" t="n">
-        <v>201.1217307406359</v>
+        <v>201.1217307406358</v>
       </c>
       <c r="V13" t="n">
-        <v>174.9432757026331</v>
+        <v>174.943275702633</v>
       </c>
       <c r="W13" t="n">
-        <v>200.1101617732463</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>145.7552637690494</v>
       </c>
       <c r="Y13" t="n">
-        <v>57.68003996243897</v>
+        <v>4.029351479308104</v>
       </c>
     </row>
     <row r="14">
@@ -1604,19 +1604,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>306.9184284283103</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>294.9297453859921</v>
+        <v>248.138382041101</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>285.9110494305201</v>
       </c>
       <c r="E14" t="n">
         <v>307.6531870004256</v>
       </c>
       <c r="F14" t="n">
-        <v>326.8250030884028</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>328.2706518781364</v>
@@ -1625,7 +1625,7 @@
         <v>241.3145567775165</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>69.10541545958799</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,25 +1655,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>91.06038950496072</v>
+        <v>91.06038950496074</v>
       </c>
       <c r="T14" t="n">
-        <v>136.7961284678622</v>
+        <v>136.7961284678623</v>
       </c>
       <c r="U14" t="n">
-        <v>169.1127977000021</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>250.4248056684895</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>275.7249051464464</v>
       </c>
       <c r="X14" t="n">
-        <v>132.1158963610436</v>
+        <v>295.025163379193</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>306.4217611753917</v>
       </c>
     </row>
     <row r="15">
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>98.5351393030074</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>84.73513414840788</v>
+        <v>84.73513414840789</v>
       </c>
       <c r="D16" t="n">
-        <v>68.35649854598627</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>67.30424840176572</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>83.82714630647794</v>
+        <v>83.82714630647797</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>72.64954213184637</v>
       </c>
       <c r="I16" t="n">
-        <v>52.99855633999331</v>
+        <v>16.4762845988178</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>55.00703014733519</v>
+        <v>55.0070301473352</v>
       </c>
       <c r="S16" t="n">
         <v>124.576136815606</v>
@@ -1828,10 +1828,10 @@
         <v>200.1101617732463</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>145.7552637690494</v>
       </c>
       <c r="Y16" t="n">
-        <v>84.31677943407827</v>
+        <v>136.6301315251171</v>
       </c>
     </row>
     <row r="17">
@@ -2002,7 +2002,7 @@
         <v>24.89464053368545</v>
       </c>
       <c r="C19" t="n">
-        <v>11.09463537908593</v>
+        <v>56.69372275367227</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2065,7 +2065,7 @@
         <v>126.4696630039243</v>
       </c>
       <c r="X19" t="n">
-        <v>117.7138523743137</v>
+        <v>72.11476499972741</v>
       </c>
       <c r="Y19" t="n">
         <v>62.9896327557951</v>
@@ -2078,25 +2078,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>233.2779296589883</v>
+        <v>233.2779296589882</v>
       </c>
       <c r="C20" t="n">
-        <v>221.2892466166701</v>
+        <v>221.28924661667</v>
       </c>
       <c r="D20" t="n">
-        <v>212.270550661198</v>
+        <v>212.2705506611993</v>
       </c>
       <c r="E20" t="n">
-        <v>234.0126882311036</v>
+        <v>234.0126882311035</v>
       </c>
       <c r="F20" t="n">
-        <v>253.1845043190807</v>
+        <v>253.1845043190806</v>
       </c>
       <c r="G20" t="n">
-        <v>254.6301531088152</v>
+        <v>254.6301531088143</v>
       </c>
       <c r="H20" t="n">
-        <v>167.6740580081945</v>
+        <v>167.6740580081944</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,25 +2129,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>17.41989073563871</v>
+        <v>17.41989073563863</v>
       </c>
       <c r="T20" t="n">
-        <v>63.15562969854025</v>
+        <v>63.15562969854017</v>
       </c>
       <c r="U20" t="n">
-        <v>95.47229893068015</v>
+        <v>95.47229893068007</v>
       </c>
       <c r="V20" t="n">
-        <v>176.7843068991674</v>
+        <v>176.7843068991673</v>
       </c>
       <c r="W20" t="n">
         <v>202.0844063771243</v>
       </c>
       <c r="X20" t="n">
-        <v>221.384664609871</v>
+        <v>221.3846646098709</v>
       </c>
       <c r="Y20" t="n">
-        <v>232.7812624060697</v>
+        <v>232.7812624060696</v>
       </c>
     </row>
     <row r="21">
@@ -2205,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>42.98778846128316</v>
+        <v>42.98778846128317</v>
       </c>
       <c r="S21" t="n">
         <v>146.4254034700827</v>
@@ -2236,22 +2236,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>24.89464053368539</v>
+        <v>24.8946405336853</v>
       </c>
       <c r="C22" t="n">
-        <v>11.09463537908587</v>
+        <v>56.69372275367351</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>45.59908737458711</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>10.18664753715594</v>
+        <v>10.18664753715585</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2287,25 +2287,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>50.93563804628403</v>
+        <v>50.93563804628395</v>
       </c>
       <c r="T22" t="n">
-        <v>73.08741920620641</v>
+        <v>73.08741920620632</v>
       </c>
       <c r="U22" t="n">
-        <v>127.4812319713138</v>
+        <v>127.4812319713137</v>
       </c>
       <c r="V22" t="n">
-        <v>101.302776933311</v>
+        <v>101.3027769333109</v>
       </c>
       <c r="W22" t="n">
         <v>126.4696630039242</v>
       </c>
       <c r="X22" t="n">
-        <v>72.11476499972736</v>
+        <v>72.11476499972727</v>
       </c>
       <c r="Y22" t="n">
-        <v>62.98963275579504</v>
+        <v>62.98963275579496</v>
       </c>
     </row>
     <row r="23">
@@ -2318,19 +2318,19 @@
         <v>233.2779296589883</v>
       </c>
       <c r="C23" t="n">
-        <v>221.2892466166701</v>
+        <v>221.28924661667</v>
       </c>
       <c r="D23" t="n">
         <v>212.270550661198</v>
       </c>
       <c r="E23" t="n">
-        <v>234.0126882311036</v>
+        <v>234.0126882311035</v>
       </c>
       <c r="F23" t="n">
         <v>253.1845043190807</v>
       </c>
       <c r="G23" t="n">
-        <v>254.6301531088144</v>
+        <v>254.6301531088143</v>
       </c>
       <c r="H23" t="n">
         <v>167.6740580081945</v>
@@ -2366,13 +2366,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>17.41989073563871</v>
+        <v>17.41989073563866</v>
       </c>
       <c r="T23" t="n">
-        <v>63.15562969854025</v>
+        <v>63.1556296985402</v>
       </c>
       <c r="U23" t="n">
-        <v>95.47229893068015</v>
+        <v>95.4722989306801</v>
       </c>
       <c r="V23" t="n">
         <v>176.7843068991674</v>
@@ -2381,7 +2381,7 @@
         <v>202.0844063771243</v>
       </c>
       <c r="X23" t="n">
-        <v>221.384664609871</v>
+        <v>221.3846646098709</v>
       </c>
       <c r="Y23" t="n">
         <v>232.7812624060697</v>
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>42.98778846128316</v>
+        <v>42.98778846128317</v>
       </c>
       <c r="S24" t="n">
         <v>146.4254034700827</v>
@@ -2473,10 +2473,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>24.89464053368539</v>
+        <v>24.89464053368533</v>
       </c>
       <c r="C25" t="n">
-        <v>11.09463537908587</v>
+        <v>11.09463537908582</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2488,7 +2488,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>55.78573491174306</v>
+        <v>10.18664753715588</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2524,25 +2524,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>50.93563804628403</v>
+        <v>96.5347254208715</v>
       </c>
       <c r="T25" t="n">
-        <v>73.08741920620641</v>
+        <v>73.08741920620635</v>
       </c>
       <c r="U25" t="n">
         <v>127.4812319713138</v>
       </c>
       <c r="V25" t="n">
-        <v>101.302776933311</v>
+        <v>101.3027769333109</v>
       </c>
       <c r="W25" t="n">
         <v>126.4696630039242</v>
       </c>
       <c r="X25" t="n">
-        <v>72.11476499972736</v>
+        <v>72.1147649997273</v>
       </c>
       <c r="Y25" t="n">
-        <v>62.98963275579504</v>
+        <v>62.98963275579499</v>
       </c>
     </row>
     <row r="26">
@@ -2552,19 +2552,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>286.5660388819271</v>
+        <v>286.566038881927</v>
       </c>
       <c r="C26" t="n">
-        <v>274.5773558396088</v>
+        <v>274.5773558396087</v>
       </c>
       <c r="D26" t="n">
-        <v>265.5586598841368</v>
+        <v>265.5586598841367</v>
       </c>
       <c r="E26" t="n">
         <v>287.3007974540423</v>
       </c>
       <c r="F26" t="n">
-        <v>306.4726135420195</v>
+        <v>306.4726135420194</v>
       </c>
       <c r="G26" t="n">
         <v>307.9182623317531</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>70.70799995857743</v>
+        <v>70.70799995857742</v>
       </c>
       <c r="T26" t="n">
         <v>116.443738921479</v>
@@ -2612,16 +2612,16 @@
         <v>148.7604081536189</v>
       </c>
       <c r="V26" t="n">
-        <v>230.0724161221062</v>
+        <v>230.0724161221061</v>
       </c>
       <c r="W26" t="n">
-        <v>255.3725156000631</v>
+        <v>255.372515600063</v>
       </c>
       <c r="X26" t="n">
-        <v>274.6727738328097</v>
+        <v>274.6727738328096</v>
       </c>
       <c r="Y26" t="n">
-        <v>286.0693716290085</v>
+        <v>286.0693716290084</v>
       </c>
     </row>
     <row r="27">
@@ -2649,10 +2649,10 @@
         <v>127.1803157534334</v>
       </c>
       <c r="H27" t="n">
-        <v>96.41874164113862</v>
+        <v>96.41874164113864</v>
       </c>
       <c r="I27" t="n">
-        <v>58.71574796301677</v>
+        <v>58.71574796301678</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2679,7 +2679,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>42.98778846128315</v>
+        <v>42.98778846128317</v>
       </c>
       <c r="S27" t="n">
         <v>146.4254034700827</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>78.18274975662412</v>
+        <v>78.18274975662409</v>
       </c>
       <c r="C28" t="n">
-        <v>64.3827446020246</v>
+        <v>64.38274460202457</v>
       </c>
       <c r="D28" t="n">
-        <v>48.00410899960299</v>
+        <v>48.00410899960296</v>
       </c>
       <c r="E28" t="n">
-        <v>46.95185885538244</v>
+        <v>46.95185885538241</v>
       </c>
       <c r="F28" t="n">
-        <v>47.41878318356875</v>
+        <v>47.41878318356872</v>
       </c>
       <c r="G28" t="n">
-        <v>63.47475676009468</v>
+        <v>63.47475676009464</v>
       </c>
       <c r="H28" t="n">
-        <v>52.29715258546307</v>
+        <v>52.29715258546304</v>
       </c>
       <c r="I28" t="n">
-        <v>32.64616679361002</v>
+        <v>32.64616679361</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,10 +2758,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>34.6546406009519</v>
+        <v>34.65464060095189</v>
       </c>
       <c r="S28" t="n">
-        <v>104.2237472692228</v>
+        <v>104.2237472692227</v>
       </c>
       <c r="T28" t="n">
         <v>126.3755284291451</v>
@@ -2773,13 +2773,13 @@
         <v>154.5908861562497</v>
       </c>
       <c r="W28" t="n">
-        <v>179.757772226863</v>
+        <v>179.7577722268629</v>
       </c>
       <c r="X28" t="n">
         <v>125.4028742226661</v>
       </c>
       <c r="Y28" t="n">
-        <v>116.2777419787338</v>
+        <v>116.2777419787337</v>
       </c>
     </row>
     <row r="29">
@@ -2789,19 +2789,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>286.5660388819271</v>
+        <v>286.566038881927</v>
       </c>
       <c r="C29" t="n">
-        <v>274.5773558396088</v>
+        <v>274.5773558396087</v>
       </c>
       <c r="D29" t="n">
-        <v>265.5586598841368</v>
+        <v>265.5586598841367</v>
       </c>
       <c r="E29" t="n">
         <v>287.3007974540423</v>
       </c>
       <c r="F29" t="n">
-        <v>306.4726135420195</v>
+        <v>306.4726135420194</v>
       </c>
       <c r="G29" t="n">
         <v>307.9182623317531</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>70.70799995857743</v>
+        <v>70.70799995857742</v>
       </c>
       <c r="T29" t="n">
         <v>116.443738921479</v>
@@ -2849,16 +2849,16 @@
         <v>148.7604081536189</v>
       </c>
       <c r="V29" t="n">
-        <v>230.0724161221062</v>
+        <v>230.0724161221061</v>
       </c>
       <c r="W29" t="n">
-        <v>255.3725156000631</v>
+        <v>255.372515600063</v>
       </c>
       <c r="X29" t="n">
-        <v>274.6727738328097</v>
+        <v>274.6727738328096</v>
       </c>
       <c r="Y29" t="n">
-        <v>286.0693716290085</v>
+        <v>286.0693716290084</v>
       </c>
     </row>
     <row r="30">
@@ -2886,10 +2886,10 @@
         <v>127.1803157534334</v>
       </c>
       <c r="H30" t="n">
-        <v>96.41874164113862</v>
+        <v>96.41874164113864</v>
       </c>
       <c r="I30" t="n">
-        <v>58.71574796301677</v>
+        <v>58.71574796301678</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2916,7 +2916,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>42.98778846128315</v>
+        <v>42.98778846128317</v>
       </c>
       <c r="S30" t="n">
         <v>146.4254034700827</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>78.18274975662412</v>
+        <v>78.18274975662409</v>
       </c>
       <c r="C31" t="n">
-        <v>64.3827446020246</v>
+        <v>64.38274460202457</v>
       </c>
       <c r="D31" t="n">
-        <v>48.00410899960299</v>
+        <v>48.00410899960296</v>
       </c>
       <c r="E31" t="n">
-        <v>46.95185885538244</v>
+        <v>46.95185885538241</v>
       </c>
       <c r="F31" t="n">
-        <v>47.41878318356875</v>
+        <v>47.41878318356872</v>
       </c>
       <c r="G31" t="n">
-        <v>63.47475676009468</v>
+        <v>63.47475676009465</v>
       </c>
       <c r="H31" t="n">
-        <v>52.29715258546307</v>
+        <v>52.29715258546305</v>
       </c>
       <c r="I31" t="n">
-        <v>32.64616679361002</v>
+        <v>32.64616679360999</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,10 +2995,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>34.6546406009519</v>
+        <v>34.65464060095188</v>
       </c>
       <c r="S31" t="n">
-        <v>104.2237472692228</v>
+        <v>104.2237472692227</v>
       </c>
       <c r="T31" t="n">
         <v>126.3755284291451</v>
@@ -3010,13 +3010,13 @@
         <v>154.5908861562497</v>
       </c>
       <c r="W31" t="n">
-        <v>179.757772226863</v>
+        <v>179.7577722268629</v>
       </c>
       <c r="X31" t="n">
         <v>125.4028742226661</v>
       </c>
       <c r="Y31" t="n">
-        <v>116.2777419787338</v>
+        <v>116.2777419787337</v>
       </c>
     </row>
     <row r="32">
@@ -3153,7 +3153,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>42.98778846128316</v>
+        <v>42.98778846128317</v>
       </c>
       <c r="S33" t="n">
         <v>146.4254034700827</v>
@@ -3269,13 +3269,13 @@
         <v>221.2892466166701</v>
       </c>
       <c r="D35" t="n">
-        <v>212.2705506611981</v>
+        <v>212.270550661198</v>
       </c>
       <c r="E35" t="n">
         <v>234.0126882311036</v>
       </c>
       <c r="F35" t="n">
-        <v>253.1845043190808</v>
+        <v>253.1845043190807</v>
       </c>
       <c r="G35" t="n">
         <v>254.6301531088144</v>
@@ -3314,19 +3314,19 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>17.41989073563875</v>
+        <v>17.41989073563872</v>
       </c>
       <c r="T35" t="n">
-        <v>63.15562969854028</v>
+        <v>63.15562969854025</v>
       </c>
       <c r="U35" t="n">
-        <v>95.47229893068018</v>
+        <v>95.47229893068015</v>
       </c>
       <c r="V35" t="n">
-        <v>176.7843068991675</v>
+        <v>176.7843068991674</v>
       </c>
       <c r="W35" t="n">
-        <v>202.0844063771244</v>
+        <v>202.0844063771243</v>
       </c>
       <c r="X35" t="n">
         <v>221.384664609871</v>
@@ -3390,7 +3390,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>42.98778846128316</v>
+        <v>42.98778846128317</v>
       </c>
       <c r="S36" t="n">
         <v>146.4254034700827</v>
@@ -3421,10 +3421,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.89464053368542</v>
+        <v>24.89464053368539</v>
       </c>
       <c r="C37" t="n">
-        <v>11.0946353790859</v>
+        <v>11.09463537908587</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3436,13 +3436,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>10.18664753715597</v>
+        <v>10.18664753715594</v>
       </c>
       <c r="H37" t="n">
-        <v>45.59908737458665</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>25.76270265041787</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3466,31 +3466,31 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>19.83638472416912</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>50.93563804628405</v>
+        <v>50.93563804628403</v>
       </c>
       <c r="T37" t="n">
-        <v>73.08741920620643</v>
+        <v>73.08741920620641</v>
       </c>
       <c r="U37" t="n">
-        <v>127.4812319713139</v>
+        <v>127.4812319713138</v>
       </c>
       <c r="V37" t="n">
         <v>101.302776933311</v>
       </c>
       <c r="W37" t="n">
-        <v>126.4696630039243</v>
+        <v>126.4696630039242</v>
       </c>
       <c r="X37" t="n">
-        <v>72.11476499972738</v>
+        <v>72.11476499972736</v>
       </c>
       <c r="Y37" t="n">
-        <v>62.98963275579507</v>
+        <v>62.98963275579504</v>
       </c>
     </row>
     <row r="38">
@@ -3500,25 +3500,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>233.2779296589884</v>
+        <v>233.2779296589883</v>
       </c>
       <c r="C38" t="n">
-        <v>221.2892466166702</v>
+        <v>221.2892466166701</v>
       </c>
       <c r="D38" t="n">
         <v>212.2705506611981</v>
       </c>
       <c r="E38" t="n">
-        <v>234.0126882311037</v>
+        <v>234.0126882311036</v>
       </c>
       <c r="F38" t="n">
         <v>253.1845043190808</v>
       </c>
       <c r="G38" t="n">
-        <v>254.6301531088145</v>
+        <v>254.6301531088144</v>
       </c>
       <c r="H38" t="n">
-        <v>167.6740580081946</v>
+        <v>167.6740580081945</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,25 +3551,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>17.41989073563883</v>
+        <v>17.41989073563875</v>
       </c>
       <c r="T38" t="n">
-        <v>63.15562969854037</v>
+        <v>63.15562969854028</v>
       </c>
       <c r="U38" t="n">
-        <v>95.47229893068027</v>
+        <v>95.47229893068018</v>
       </c>
       <c r="V38" t="n">
         <v>176.7843068991675</v>
       </c>
       <c r="W38" t="n">
-        <v>202.0844063771245</v>
+        <v>202.0844063771244</v>
       </c>
       <c r="X38" t="n">
-        <v>221.3846646098711</v>
+        <v>221.384664609871</v>
       </c>
       <c r="Y38" t="n">
-        <v>232.7812624060698</v>
+        <v>232.7812624060697</v>
       </c>
     </row>
     <row r="39">
@@ -3627,7 +3627,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>42.98778846128316</v>
+        <v>42.98778846128317</v>
       </c>
       <c r="S39" t="n">
         <v>146.4254034700827</v>
@@ -3658,10 +3658,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.8946405336855</v>
+        <v>24.89464053368542</v>
       </c>
       <c r="C40" t="n">
-        <v>11.09463537908599</v>
+        <v>11.0946353790859</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3673,7 +3673,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>10.18664753715605</v>
+        <v>10.18664753715597</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3709,25 +3709,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>50.93563804628414</v>
+        <v>50.93563804628406</v>
       </c>
       <c r="T40" t="n">
-        <v>118.6865065807924</v>
+        <v>118.6865065807932</v>
       </c>
       <c r="U40" t="n">
         <v>127.4812319713139</v>
       </c>
       <c r="V40" t="n">
-        <v>101.3027769333111</v>
+        <v>101.302776933311</v>
       </c>
       <c r="W40" t="n">
-        <v>126.4696630039244</v>
+        <v>126.4696630039243</v>
       </c>
       <c r="X40" t="n">
-        <v>72.11476499972747</v>
+        <v>72.11476499972738</v>
       </c>
       <c r="Y40" t="n">
-        <v>62.98963275579516</v>
+        <v>62.98963275579507</v>
       </c>
     </row>
     <row r="41">
@@ -3740,19 +3740,19 @@
         <v>233.2779296589883</v>
       </c>
       <c r="C41" t="n">
-        <v>221.2892466166701</v>
+        <v>221.28924661667</v>
       </c>
       <c r="D41" t="n">
         <v>212.270550661198</v>
       </c>
       <c r="E41" t="n">
-        <v>234.0126882311036</v>
+        <v>234.0126882311035</v>
       </c>
       <c r="F41" t="n">
         <v>253.1845043190807</v>
       </c>
       <c r="G41" t="n">
-        <v>254.6301531088144</v>
+        <v>254.6301531088143</v>
       </c>
       <c r="H41" t="n">
         <v>167.6740580081945</v>
@@ -3788,13 +3788,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>17.41989073563871</v>
+        <v>17.41989073563869</v>
       </c>
       <c r="T41" t="n">
-        <v>63.15562969854025</v>
+        <v>63.15562969854022</v>
       </c>
       <c r="U41" t="n">
-        <v>95.47229893068015</v>
+        <v>95.47229893068013</v>
       </c>
       <c r="V41" t="n">
         <v>176.7843068991674</v>
@@ -3803,7 +3803,7 @@
         <v>202.0844063771243</v>
       </c>
       <c r="X41" t="n">
-        <v>221.384664609871</v>
+        <v>221.3846646098709</v>
       </c>
       <c r="Y41" t="n">
         <v>232.7812624060697</v>
@@ -3864,7 +3864,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>42.98778846128316</v>
+        <v>42.98778846128317</v>
       </c>
       <c r="S42" t="n">
         <v>146.4254034700827</v>
@@ -3895,10 +3895,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.89464053368539</v>
+        <v>24.89464053368536</v>
       </c>
       <c r="C43" t="n">
-        <v>56.69372275367299</v>
+        <v>11.09463537908584</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3910,7 +3910,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>10.18664753715594</v>
+        <v>10.18664753715591</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3943,13 +3943,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>45.59908737458726</v>
       </c>
       <c r="S43" t="n">
-        <v>50.93563804628403</v>
+        <v>50.93563804628401</v>
       </c>
       <c r="T43" t="n">
-        <v>73.08741920620641</v>
+        <v>73.08741920620638</v>
       </c>
       <c r="U43" t="n">
         <v>127.4812319713138</v>
@@ -3961,10 +3961,10 @@
         <v>126.4696630039242</v>
       </c>
       <c r="X43" t="n">
-        <v>72.11476499972736</v>
+        <v>72.11476499972733</v>
       </c>
       <c r="Y43" t="n">
-        <v>62.98963275579504</v>
+        <v>62.98963275579501</v>
       </c>
     </row>
     <row r="44">
@@ -3992,7 +3992,7 @@
         <v>254.6301531088144</v>
       </c>
       <c r="H44" t="n">
-        <v>167.6740580081945</v>
+        <v>167.6740580081946</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4028,7 +4028,7 @@
         <v>17.41989073563877</v>
       </c>
       <c r="T44" t="n">
-        <v>63.15562969854031</v>
+        <v>63.15562969854032</v>
       </c>
       <c r="U44" t="n">
         <v>95.47229893068021</v>
@@ -4101,7 +4101,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>42.98778846128316</v>
+        <v>42.98778846128317</v>
       </c>
       <c r="S45" t="n">
         <v>146.4254034700827</v>
@@ -4150,7 +4150,7 @@
         <v>10.186647537156</v>
       </c>
       <c r="H46" t="n">
-        <v>45.59908737458632</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4183,7 +4183,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>50.93563804628408</v>
+        <v>50.93563804628409</v>
       </c>
       <c r="T46" t="n">
         <v>73.08741920620646</v>
@@ -4198,7 +4198,7 @@
         <v>126.4696630039243</v>
       </c>
       <c r="X46" t="n">
-        <v>72.11476499972741</v>
+        <v>117.7138523743137</v>
       </c>
       <c r="Y46" t="n">
         <v>62.9896327557951</v>
@@ -4778,22 +4778,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>315.1789073548413</v>
+        <v>131.6163871975096</v>
       </c>
       <c r="C8" t="n">
-        <v>307.2335277601064</v>
+        <v>131.6163871975096</v>
       </c>
       <c r="D8" t="n">
-        <v>170.1331244293673</v>
+        <v>131.6163871975096</v>
       </c>
       <c r="E8" t="n">
-        <v>170.1331244293673</v>
+        <v>131.6163871975096</v>
       </c>
       <c r="F8" t="n">
-        <v>160.0223377799417</v>
+        <v>22.92193444920251</v>
       </c>
       <c r="G8" t="n">
-        <v>147.9587552745337</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="H8" t="n">
         <v>10.85835194379454</v>
@@ -4802,19 +4802,19 @@
         <v>10.85835194379454</v>
       </c>
       <c r="J8" t="n">
-        <v>82.85689621660021</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="K8" t="n">
-        <v>82.85689621660021</v>
+        <v>145.230457248252</v>
       </c>
       <c r="L8" t="n">
-        <v>217.2290015210577</v>
+        <v>279.6025625527094</v>
       </c>
       <c r="M8" t="n">
-        <v>274.1733865808121</v>
+        <v>413.9746678571669</v>
       </c>
       <c r="N8" t="n">
-        <v>408.5454918852696</v>
+        <v>542.9175971897271</v>
       </c>
       <c r="O8" t="n">
         <v>542.9175971897271</v>
@@ -4826,28 +4826,28 @@
         <v>542.9175971897271</v>
       </c>
       <c r="R8" t="n">
-        <v>452.2793106855804</v>
+        <v>542.9175971897271</v>
       </c>
       <c r="S8" t="n">
-        <v>315.1789073548413</v>
+        <v>542.9175971897271</v>
       </c>
       <c r="T8" t="n">
-        <v>315.1789073548413</v>
+        <v>542.9175971897271</v>
       </c>
       <c r="U8" t="n">
-        <v>315.1789073548413</v>
+        <v>542.9175971897271</v>
       </c>
       <c r="V8" t="n">
-        <v>315.1789073548413</v>
+        <v>542.9175971897271</v>
       </c>
       <c r="W8" t="n">
-        <v>315.1789073548413</v>
+        <v>542.9175971897271</v>
       </c>
       <c r="X8" t="n">
-        <v>315.1789073548413</v>
+        <v>405.8171938589879</v>
       </c>
       <c r="Y8" t="n">
-        <v>315.1789073548413</v>
+        <v>268.7167905282488</v>
       </c>
     </row>
     <row r="9">
@@ -4857,49 +4857,49 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>274.2806499706356</v>
+        <v>207.969137230449</v>
       </c>
       <c r="C9" t="n">
-        <v>274.2806499706356</v>
+        <v>207.969137230449</v>
       </c>
       <c r="D9" t="n">
-        <v>274.2806499706356</v>
+        <v>207.969137230449</v>
       </c>
       <c r="E9" t="n">
-        <v>274.2806499706356</v>
+        <v>207.969137230449</v>
       </c>
       <c r="F9" t="n">
-        <v>139.58685192051</v>
+        <v>207.969137230449</v>
       </c>
       <c r="G9" t="n">
-        <v>10.85835194379454</v>
+        <v>79.24063725373355</v>
       </c>
       <c r="H9" t="n">
-        <v>10.85835194379454</v>
+        <v>79.24063725373355</v>
       </c>
       <c r="I9" t="n">
         <v>10.85835194379454</v>
       </c>
       <c r="J9" t="n">
-        <v>10.85835194379454</v>
+        <v>71.11249847690068</v>
       </c>
       <c r="K9" t="n">
-        <v>145.230457248252</v>
+        <v>205.4846037813581</v>
       </c>
       <c r="L9" t="n">
-        <v>279.6025625527094</v>
+        <v>205.4846037813581</v>
       </c>
       <c r="M9" t="n">
-        <v>413.9746678571669</v>
+        <v>205.4846037813581</v>
       </c>
       <c r="N9" t="n">
-        <v>413.9746678571669</v>
+        <v>205.4846037813581</v>
       </c>
       <c r="O9" t="n">
-        <v>413.9746678571669</v>
+        <v>274.1733865808121</v>
       </c>
       <c r="P9" t="n">
-        <v>413.9746678571669</v>
+        <v>408.5454918852696</v>
       </c>
       <c r="Q9" t="n">
         <v>542.9175971897271</v>
@@ -4911,22 +4911,22 @@
         <v>542.9175971897271</v>
       </c>
       <c r="T9" t="n">
-        <v>542.9175971897271</v>
+        <v>405.8171938589879</v>
       </c>
       <c r="U9" t="n">
-        <v>405.8171938589879</v>
+        <v>268.7167905282488</v>
       </c>
       <c r="V9" t="n">
-        <v>405.8171938589879</v>
+        <v>207.969137230449</v>
       </c>
       <c r="W9" t="n">
-        <v>274.2806499706356</v>
+        <v>207.969137230449</v>
       </c>
       <c r="X9" t="n">
-        <v>274.2806499706356</v>
+        <v>207.969137230449</v>
       </c>
       <c r="Y9" t="n">
-        <v>274.2806499706356</v>
+        <v>207.969137230449</v>
       </c>
     </row>
     <row r="10">
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>285.0591586052728</v>
+        <v>482.2168005218393</v>
       </c>
       <c r="C10" t="n">
-        <v>285.0591586052728</v>
+        <v>482.2168005218393</v>
       </c>
       <c r="D10" t="n">
-        <v>285.0591586052728</v>
+        <v>345.1163971911002</v>
       </c>
       <c r="E10" t="n">
-        <v>147.9587552745337</v>
+        <v>345.1163971911002</v>
       </c>
       <c r="F10" t="n">
-        <v>147.9587552745337</v>
+        <v>345.1163971911002</v>
       </c>
       <c r="G10" t="n">
-        <v>147.9587552745337</v>
+        <v>208.015993860361</v>
       </c>
       <c r="H10" t="n">
-        <v>147.9587552745337</v>
+        <v>208.015993860361</v>
       </c>
       <c r="I10" t="n">
-        <v>10.85835194379454</v>
+        <v>70.91559052962182</v>
       </c>
       <c r="J10" t="n">
         <v>10.85835194379454</v>
@@ -4984,28 +4984,28 @@
         <v>504.380255843416</v>
       </c>
       <c r="R10" t="n">
-        <v>367.2798525126768</v>
+        <v>504.380255843416</v>
       </c>
       <c r="S10" t="n">
-        <v>367.2798525126768</v>
+        <v>504.380255843416</v>
       </c>
       <c r="T10" t="n">
-        <v>367.2798525126768</v>
+        <v>504.380255843416</v>
       </c>
       <c r="U10" t="n">
-        <v>367.2798525126768</v>
+        <v>504.380255843416</v>
       </c>
       <c r="V10" t="n">
-        <v>285.0591586052728</v>
+        <v>504.380255843416</v>
       </c>
       <c r="W10" t="n">
-        <v>285.0591586052728</v>
+        <v>504.380255843416</v>
       </c>
       <c r="X10" t="n">
-        <v>285.0591586052728</v>
+        <v>482.2168005218393</v>
       </c>
       <c r="Y10" t="n">
-        <v>285.0591586052728</v>
+        <v>482.2168005218393</v>
       </c>
     </row>
     <row r="11">
@@ -5015,19 +5015,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1391.364631555376</v>
+        <v>1637.234611630058</v>
       </c>
       <c r="C11" t="n">
-        <v>1093.455797832151</v>
+        <v>1339.325777906834</v>
       </c>
       <c r="D11" t="n">
-        <v>1093.455797832151</v>
+        <v>1339.325777906834</v>
       </c>
       <c r="E11" t="n">
-        <v>1028.56498295691</v>
+        <v>1028.564982956909</v>
       </c>
       <c r="F11" t="n">
-        <v>698.4387172110482</v>
+        <v>698.4387172110481</v>
       </c>
       <c r="G11" t="n">
         <v>366.8522001624256</v>
@@ -5036,16 +5036,16 @@
         <v>123.1001226093786</v>
       </c>
       <c r="I11" t="n">
-        <v>53.29667265019877</v>
+        <v>53.29667265019875</v>
       </c>
       <c r="J11" t="n">
         <v>166.2674185418009</v>
       </c>
       <c r="K11" t="n">
-        <v>467.8144998655655</v>
+        <v>467.8144998655653</v>
       </c>
       <c r="L11" t="n">
-        <v>891.880325763758</v>
+        <v>891.8803257637576</v>
       </c>
       <c r="M11" t="n">
         <v>1369.88492417339</v>
@@ -5054,7 +5054,7 @@
         <v>1834.353308329474</v>
       </c>
       <c r="O11" t="n">
-        <v>2220.694643393616</v>
+        <v>2220.694643393615</v>
       </c>
       <c r="P11" t="n">
         <v>2518.270574687118</v>
@@ -5069,22 +5069,22 @@
         <v>2572.853441090786</v>
       </c>
       <c r="T11" t="n">
-        <v>2434.675533547491</v>
+        <v>2434.67553354749</v>
       </c>
       <c r="U11" t="n">
-        <v>2263.854525769711</v>
+        <v>2263.85452576971</v>
       </c>
       <c r="V11" t="n">
-        <v>2010.90017660962</v>
+        <v>2263.85452576971</v>
       </c>
       <c r="W11" t="n">
-        <v>2010.90017660962</v>
+        <v>2263.85452576971</v>
       </c>
       <c r="X11" t="n">
-        <v>2010.90017660962</v>
+        <v>1965.849310235172</v>
       </c>
       <c r="Y11" t="n">
-        <v>1701.383246129427</v>
+        <v>1656.332379754978</v>
       </c>
     </row>
     <row r="12">
@@ -5094,16 +5094,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>920.7272604704568</v>
+        <v>920.7272604704571</v>
       </c>
       <c r="C12" t="n">
-        <v>759.0235877114116</v>
+        <v>759.0235877114118</v>
       </c>
       <c r="D12" t="n">
-        <v>620.1849507016236</v>
+        <v>620.1849507016238</v>
       </c>
       <c r="E12" t="n">
-        <v>473.1569407584949</v>
+        <v>473.156940758495</v>
       </c>
       <c r="F12" t="n">
         <v>338.4631427083693</v>
@@ -5115,7 +5115,7 @@
         <v>112.6055089764783</v>
       </c>
       <c r="I12" t="n">
-        <v>53.29667265019877</v>
+        <v>53.29667265019875</v>
       </c>
       <c r="J12" t="n">
         <v>137.9535817797792</v>
@@ -5124,16 +5124,16 @@
         <v>409.1523424321824</v>
       </c>
       <c r="L12" t="n">
-        <v>831.0560204948499</v>
+        <v>764.4065384105972</v>
       </c>
       <c r="M12" t="n">
-        <v>1381.534227781518</v>
+        <v>1314.884745697265</v>
       </c>
       <c r="N12" t="n">
-        <v>1541.909351207845</v>
+        <v>1893.32737613905</v>
       </c>
       <c r="O12" t="n">
-        <v>1995.563118554409</v>
+        <v>2346.981143485614</v>
       </c>
       <c r="P12" t="n">
         <v>2346.981143485614</v>
@@ -5173,43 +5173,43 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>348.3849912219933</v>
+        <v>401.9188865149157</v>
       </c>
       <c r="C13" t="n">
-        <v>348.3849912219933</v>
+        <v>401.9188865149157</v>
       </c>
       <c r="D13" t="n">
-        <v>279.3380229937243</v>
+        <v>332.8719182866467</v>
       </c>
       <c r="E13" t="n">
-        <v>211.3539336990113</v>
+        <v>264.8878289919338</v>
       </c>
       <c r="F13" t="n">
-        <v>211.3539336990113</v>
+        <v>264.8878289919338</v>
       </c>
       <c r="G13" t="n">
-        <v>126.6800485409527</v>
+        <v>180.2139438338753</v>
       </c>
       <c r="H13" t="n">
-        <v>53.29667265019877</v>
+        <v>106.8305679431213</v>
       </c>
       <c r="I13" t="n">
-        <v>53.29667265019877</v>
+        <v>53.29667265019875</v>
       </c>
       <c r="J13" t="n">
-        <v>92.09691108333304</v>
+        <v>92.09691108333307</v>
       </c>
       <c r="K13" t="n">
-        <v>233.2121540029764</v>
+        <v>233.2121540029765</v>
       </c>
       <c r="L13" t="n">
-        <v>448.3659302505775</v>
+        <v>448.3659302505777</v>
       </c>
       <c r="M13" t="n">
-        <v>682.6561851132412</v>
+        <v>682.6561851132413</v>
       </c>
       <c r="N13" t="n">
-        <v>916.5681650535106</v>
+        <v>916.5681650535107</v>
       </c>
       <c r="O13" t="n">
         <v>1127.991847180004</v>
@@ -5221,28 +5221,28 @@
         <v>1362.217720790778</v>
       </c>
       <c r="R13" t="n">
-        <v>1362.217720790778</v>
+        <v>1306.655064076298</v>
       </c>
       <c r="S13" t="n">
-        <v>1236.383239158852</v>
+        <v>1180.820582444373</v>
       </c>
       <c r="T13" t="n">
-        <v>1088.173221001753</v>
+        <v>1032.610564287273</v>
       </c>
       <c r="U13" t="n">
-        <v>885.0199576273728</v>
+        <v>829.4573009128936</v>
       </c>
       <c r="V13" t="n">
-        <v>708.3095781297636</v>
+        <v>652.7469214152843</v>
       </c>
       <c r="W13" t="n">
-        <v>506.1781015911312</v>
+        <v>652.7469214152843</v>
       </c>
       <c r="X13" t="n">
-        <v>506.1781015911312</v>
+        <v>505.5193822546284</v>
       </c>
       <c r="Y13" t="n">
-        <v>447.9154349624049</v>
+        <v>501.4493302553273</v>
       </c>
     </row>
     <row r="14">
@@ -5252,31 +5252,31 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1567.431161670879</v>
+        <v>1548.643382334328</v>
       </c>
       <c r="C14" t="n">
-        <v>1269.522327947655</v>
+        <v>1297.998551989781</v>
       </c>
       <c r="D14" t="n">
-        <v>1269.522327947655</v>
+        <v>1009.199512160973</v>
       </c>
       <c r="E14" t="n">
-        <v>958.7615329977297</v>
+        <v>698.4387172110481</v>
       </c>
       <c r="F14" t="n">
-        <v>628.6352672518683</v>
+        <v>698.4387172110481</v>
       </c>
       <c r="G14" t="n">
-        <v>297.0487502032457</v>
+        <v>366.8522001624255</v>
       </c>
       <c r="H14" t="n">
-        <v>53.29667265019875</v>
+        <v>123.1001226093786</v>
       </c>
       <c r="I14" t="n">
         <v>53.29667265019875</v>
       </c>
       <c r="J14" t="n">
-        <v>166.267418541801</v>
+        <v>166.2674185418009</v>
       </c>
       <c r="K14" t="n">
         <v>467.8144998655656</v>
@@ -5303,25 +5303,25 @@
         <v>2664.833632509938</v>
       </c>
       <c r="S14" t="n">
-        <v>2572.853441090785</v>
+        <v>2572.853441090786</v>
       </c>
       <c r="T14" t="n">
         <v>2434.67553354749</v>
       </c>
       <c r="U14" t="n">
-        <v>2263.85452576971</v>
+        <v>2434.67553354749</v>
       </c>
       <c r="V14" t="n">
-        <v>2010.90017660962</v>
+        <v>2434.67553354749</v>
       </c>
       <c r="W14" t="n">
-        <v>2010.90017660962</v>
+        <v>2156.16552834906</v>
       </c>
       <c r="X14" t="n">
-        <v>1877.44977624493</v>
+        <v>1858.160312814522</v>
       </c>
       <c r="Y14" t="n">
-        <v>1877.44977624493</v>
+        <v>1548.643382334328</v>
       </c>
     </row>
     <row r="15">
@@ -5355,25 +5355,25 @@
         <v>53.29667265019875</v>
       </c>
       <c r="J15" t="n">
-        <v>137.9535817797792</v>
+        <v>53.29667265019875</v>
       </c>
       <c r="K15" t="n">
-        <v>409.1523424321824</v>
+        <v>53.29667265019875</v>
       </c>
       <c r="L15" t="n">
-        <v>831.0560204948499</v>
+        <v>475.2003507128662</v>
       </c>
       <c r="M15" t="n">
-        <v>1381.534227781518</v>
+        <v>1025.678557999534</v>
       </c>
       <c r="N15" t="n">
-        <v>1959.976858223303</v>
+        <v>1604.121188441319</v>
       </c>
       <c r="O15" t="n">
-        <v>1995.563118554409</v>
+        <v>2057.774955787883</v>
       </c>
       <c r="P15" t="n">
-        <v>2346.981143485614</v>
+        <v>2409.192980719089</v>
       </c>
       <c r="Q15" t="n">
         <v>2537.723294723684</v>
@@ -5410,31 +5410,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>414.1265552185133</v>
+        <v>313.5876900093407</v>
       </c>
       <c r="C16" t="n">
-        <v>328.5355106241618</v>
+        <v>227.9966454149892</v>
       </c>
       <c r="D16" t="n">
-        <v>259.4885423958929</v>
+        <v>227.9966454149892</v>
       </c>
       <c r="E16" t="n">
-        <v>191.5044531011798</v>
+        <v>227.9966454149892</v>
       </c>
       <c r="F16" t="n">
-        <v>191.5044531011798</v>
+        <v>227.9966454149892</v>
       </c>
       <c r="G16" t="n">
-        <v>106.8305679431213</v>
+        <v>143.3227602569303</v>
       </c>
       <c r="H16" t="n">
-        <v>106.8305679431213</v>
+        <v>69.93938436617633</v>
       </c>
       <c r="I16" t="n">
         <v>53.29667265019875</v>
       </c>
       <c r="J16" t="n">
-        <v>92.09691108333311</v>
+        <v>92.09691108333308</v>
       </c>
       <c r="K16" t="n">
         <v>233.2121540029765</v>
@@ -5443,10 +5443,10 @@
         <v>448.3659302505778</v>
       </c>
       <c r="M16" t="n">
-        <v>682.6561851132415</v>
+        <v>682.6561851132416</v>
       </c>
       <c r="N16" t="n">
-        <v>916.5681650535108</v>
+        <v>916.5681650535109</v>
       </c>
       <c r="O16" t="n">
         <v>1127.991847180004</v>
@@ -5467,19 +5467,19 @@
         <v>1180.820582444373</v>
       </c>
       <c r="U16" t="n">
-        <v>977.667319069993</v>
+        <v>977.6673190699929</v>
       </c>
       <c r="V16" t="n">
-        <v>800.9569395723839</v>
+        <v>800.9569395723838</v>
       </c>
       <c r="W16" t="n">
-        <v>598.8254630337514</v>
+        <v>598.8254630337512</v>
       </c>
       <c r="X16" t="n">
-        <v>598.8254630337514</v>
+        <v>451.5979238730953</v>
       </c>
       <c r="Y16" t="n">
-        <v>513.6569989589248</v>
+        <v>313.5876900093407</v>
       </c>
     </row>
     <row r="17">
@@ -5495,31 +5495,31 @@
         <v>1186.399656820291</v>
       </c>
       <c r="D17" t="n">
-        <v>971.9849591827174</v>
+        <v>971.9849591827171</v>
       </c>
       <c r="E17" t="n">
-        <v>735.6085064240268</v>
+        <v>735.6085064240266</v>
       </c>
       <c r="F17" t="n">
-        <v>479.8665828693997</v>
+        <v>479.8665828693995</v>
       </c>
       <c r="G17" t="n">
         <v>222.6644080120115</v>
       </c>
       <c r="H17" t="n">
-        <v>53.29667265019877</v>
+        <v>53.29667265019875</v>
       </c>
       <c r="I17" t="n">
-        <v>53.29667265019877</v>
+        <v>53.29667265019875</v>
       </c>
       <c r="J17" t="n">
         <v>166.2674185418009</v>
       </c>
       <c r="K17" t="n">
-        <v>467.8144998655656</v>
+        <v>467.8144998655653</v>
       </c>
       <c r="L17" t="n">
-        <v>891.8803257637578</v>
+        <v>891.8803257637574</v>
       </c>
       <c r="M17" t="n">
         <v>1369.88492417339</v>
@@ -5528,7 +5528,7 @@
         <v>1834.353308329474</v>
       </c>
       <c r="O17" t="n">
-        <v>2220.694643393616</v>
+        <v>2220.694643393615</v>
       </c>
       <c r="P17" t="n">
         <v>2518.270574687118</v>
@@ -5568,16 +5568,16 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>920.7272604704571</v>
+        <v>920.7272604704568</v>
       </c>
       <c r="C18" t="n">
-        <v>759.0235877114118</v>
+        <v>759.0235877114116</v>
       </c>
       <c r="D18" t="n">
-        <v>620.1849507016238</v>
+        <v>620.1849507016236</v>
       </c>
       <c r="E18" t="n">
-        <v>473.156940758495</v>
+        <v>473.1569407584949</v>
       </c>
       <c r="F18" t="n">
         <v>338.4631427083693</v>
@@ -5589,7 +5589,7 @@
         <v>112.6055089764783</v>
       </c>
       <c r="I18" t="n">
-        <v>53.29667265019877</v>
+        <v>53.29667265019875</v>
       </c>
       <c r="J18" t="n">
         <v>137.9535817797792</v>
@@ -5647,34 +5647,34 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>74.79291802014011</v>
+        <v>120.852602236894</v>
       </c>
       <c r="C19" t="n">
-        <v>63.586215617023</v>
+        <v>63.58621561702299</v>
       </c>
       <c r="D19" t="n">
-        <v>63.586215617023</v>
+        <v>63.58621561702299</v>
       </c>
       <c r="E19" t="n">
-        <v>63.586215617023</v>
+        <v>63.58621561702299</v>
       </c>
       <c r="F19" t="n">
-        <v>63.586215617023</v>
+        <v>63.58621561702299</v>
       </c>
       <c r="G19" t="n">
-        <v>53.29667265019877</v>
+        <v>53.29667265019875</v>
       </c>
       <c r="H19" t="n">
-        <v>53.29667265019877</v>
+        <v>53.29667265019875</v>
       </c>
       <c r="I19" t="n">
-        <v>53.29667265019877</v>
+        <v>53.29667265019875</v>
       </c>
       <c r="J19" t="n">
-        <v>53.29667265019877</v>
+        <v>53.29667265019875</v>
       </c>
       <c r="K19" t="n">
-        <v>112.0590866322589</v>
+        <v>112.0590866322588</v>
       </c>
       <c r="L19" t="n">
         <v>244.8600339422767</v>
@@ -5713,10 +5713,10 @@
         <v>282.4677924280131</v>
       </c>
       <c r="X19" t="n">
-        <v>163.5649112418376</v>
+        <v>209.6245954585915</v>
       </c>
       <c r="Y19" t="n">
-        <v>99.93901956931732</v>
+        <v>145.9987037860712</v>
       </c>
     </row>
     <row r="20">
@@ -5726,28 +5726,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1409.924148352281</v>
+        <v>1409.924148352282</v>
       </c>
       <c r="C20" t="n">
         <v>1186.399656820292</v>
       </c>
       <c r="D20" t="n">
-        <v>971.9849591827176</v>
+        <v>971.9849591827167</v>
       </c>
       <c r="E20" t="n">
-        <v>735.6085064240272</v>
+        <v>735.6085064240262</v>
       </c>
       <c r="F20" t="n">
-        <v>479.8665828694002</v>
+        <v>479.8665828693993</v>
       </c>
       <c r="G20" t="n">
-        <v>222.6644080120114</v>
+        <v>222.6644080120113</v>
       </c>
       <c r="H20" t="n">
-        <v>53.29667265019877</v>
+        <v>53.29667265019875</v>
       </c>
       <c r="I20" t="n">
-        <v>53.29667265019877</v>
+        <v>53.29667265019875</v>
       </c>
       <c r="J20" t="n">
         <v>166.2674185418009</v>
@@ -5765,7 +5765,7 @@
         <v>1834.353308329474</v>
       </c>
       <c r="O20" t="n">
-        <v>2220.694643393616</v>
+        <v>2220.694643393615</v>
       </c>
       <c r="P20" t="n">
         <v>2518.270574687118</v>
@@ -5783,7 +5783,7 @@
         <v>2583.444217929959</v>
       </c>
       <c r="U20" t="n">
-        <v>2487.007552343414</v>
+        <v>2487.007552343413</v>
       </c>
       <c r="V20" t="n">
         <v>2308.437545374557</v>
@@ -5805,16 +5805,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>920.7272604704571</v>
+        <v>920.7272604704568</v>
       </c>
       <c r="C21" t="n">
-        <v>759.0235877114118</v>
+        <v>759.0235877114116</v>
       </c>
       <c r="D21" t="n">
-        <v>620.1849507016238</v>
+        <v>620.1849507016236</v>
       </c>
       <c r="E21" t="n">
-        <v>473.156940758495</v>
+        <v>473.1569407584949</v>
       </c>
       <c r="F21" t="n">
         <v>338.4631427083693</v>
@@ -5826,7 +5826,7 @@
         <v>112.6055089764783</v>
       </c>
       <c r="I21" t="n">
-        <v>53.29667265019877</v>
+        <v>53.29667265019875</v>
       </c>
       <c r="J21" t="n">
         <v>137.9535817797792</v>
@@ -5841,7 +5841,7 @@
         <v>1381.534227781518</v>
       </c>
       <c r="N21" t="n">
-        <v>1959.976858223303</v>
+        <v>1541.909351207845</v>
       </c>
       <c r="O21" t="n">
         <v>1995.563118554409</v>
@@ -5884,40 +5884,40 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>120.8526022368947</v>
+        <v>120.8526022368951</v>
       </c>
       <c r="C22" t="n">
-        <v>109.6458998337776</v>
+        <v>63.58621561702284</v>
       </c>
       <c r="D22" t="n">
-        <v>109.6458998337776</v>
+        <v>63.58621561702284</v>
       </c>
       <c r="E22" t="n">
-        <v>63.58621561702294</v>
+        <v>63.58621561702284</v>
       </c>
       <c r="F22" t="n">
-        <v>63.58621561702294</v>
+        <v>63.58621561702284</v>
       </c>
       <c r="G22" t="n">
-        <v>53.29667265019877</v>
+        <v>53.29667265019875</v>
       </c>
       <c r="H22" t="n">
-        <v>53.29667265019877</v>
+        <v>53.29667265019875</v>
       </c>
       <c r="I22" t="n">
-        <v>53.29667265019877</v>
+        <v>53.29667265019875</v>
       </c>
       <c r="J22" t="n">
-        <v>53.29667265019877</v>
+        <v>53.29667265019875</v>
       </c>
       <c r="K22" t="n">
-        <v>112.0590866322589</v>
+        <v>112.0590866322588</v>
       </c>
       <c r="L22" t="n">
-        <v>244.8600339422768</v>
+        <v>244.8600339422767</v>
       </c>
       <c r="M22" t="n">
-        <v>396.7974598673571</v>
+        <v>396.797459867357</v>
       </c>
       <c r="N22" t="n">
         <v>548.3566108700431</v>
@@ -5947,13 +5947,13 @@
         <v>410.2149267754119</v>
       </c>
       <c r="W22" t="n">
-        <v>282.4677924280136</v>
+        <v>282.4677924280138</v>
       </c>
       <c r="X22" t="n">
-        <v>209.6245954585921</v>
+        <v>209.6245954585923</v>
       </c>
       <c r="Y22" t="n">
-        <v>145.9987037860718</v>
+        <v>145.9987037860722</v>
       </c>
     </row>
     <row r="23">
@@ -5963,19 +5963,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1409.92414835228</v>
+        <v>1409.924148352281</v>
       </c>
       <c r="C23" t="n">
-        <v>1186.39965682029</v>
+        <v>1186.399656820292</v>
       </c>
       <c r="D23" t="n">
-        <v>971.9849591827167</v>
+        <v>971.9849591827178</v>
       </c>
       <c r="E23" t="n">
-        <v>735.6085064240265</v>
+        <v>735.6085064240274</v>
       </c>
       <c r="F23" t="n">
-        <v>479.8665828693995</v>
+        <v>479.8665828694004</v>
       </c>
       <c r="G23" t="n">
         <v>222.6644080120114</v>
@@ -5987,13 +5987,13 @@
         <v>53.29667265019875</v>
       </c>
       <c r="J23" t="n">
-        <v>166.2674185418011</v>
+        <v>166.267418541801</v>
       </c>
       <c r="K23" t="n">
-        <v>467.8144998655658</v>
+        <v>467.8144998655656</v>
       </c>
       <c r="L23" t="n">
-        <v>891.880325763758</v>
+        <v>891.8803257637578</v>
       </c>
       <c r="M23" t="n">
         <v>1369.88492417339</v>
@@ -6014,25 +6014,25 @@
         <v>2664.833632509938</v>
       </c>
       <c r="S23" t="n">
-        <v>2647.237783282019</v>
+        <v>2647.23778328202</v>
       </c>
       <c r="T23" t="n">
         <v>2583.444217929959</v>
       </c>
       <c r="U23" t="n">
-        <v>2487.007552343412</v>
+        <v>2487.007552343413</v>
       </c>
       <c r="V23" t="n">
         <v>2308.437545374557</v>
       </c>
       <c r="W23" t="n">
-        <v>2104.31188236736</v>
+        <v>2104.311882367361</v>
       </c>
       <c r="X23" t="n">
-        <v>1880.691009024056</v>
+        <v>1880.691009024057</v>
       </c>
       <c r="Y23" t="n">
-        <v>1645.558420735097</v>
+        <v>1645.558420735098</v>
       </c>
     </row>
     <row r="24">
@@ -6066,25 +6066,25 @@
         <v>53.29667265019875</v>
       </c>
       <c r="J24" t="n">
-        <v>53.29667265019875</v>
+        <v>137.9535817797792</v>
       </c>
       <c r="K24" t="n">
-        <v>181.8269866547944</v>
+        <v>409.1523424321824</v>
       </c>
       <c r="L24" t="n">
-        <v>603.7306647174619</v>
+        <v>831.0560204948499</v>
       </c>
       <c r="M24" t="n">
-        <v>1154.208872004129</v>
+        <v>1381.534227781518</v>
       </c>
       <c r="N24" t="n">
-        <v>1732.651502445915</v>
+        <v>1541.909351207845</v>
       </c>
       <c r="O24" t="n">
-        <v>2186.305269792479</v>
+        <v>1995.563118554409</v>
       </c>
       <c r="P24" t="n">
-        <v>2537.723294723684</v>
+        <v>2346.981143485614</v>
       </c>
       <c r="Q24" t="n">
         <v>2537.723294723684</v>
@@ -6121,19 +6121,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>120.8526022368947</v>
+        <v>74.79291802013987</v>
       </c>
       <c r="C25" t="n">
-        <v>109.6458998337776</v>
+        <v>63.58621561702287</v>
       </c>
       <c r="D25" t="n">
-        <v>109.6458998337776</v>
+        <v>63.58621561702287</v>
       </c>
       <c r="E25" t="n">
-        <v>109.6458998337776</v>
+        <v>63.58621561702287</v>
       </c>
       <c r="F25" t="n">
-        <v>109.6458998337776</v>
+        <v>63.58621561702287</v>
       </c>
       <c r="G25" t="n">
         <v>53.29667265019875</v>
@@ -6148,13 +6148,13 @@
         <v>53.29667265019875</v>
       </c>
       <c r="K25" t="n">
-        <v>112.0590866322589</v>
+        <v>112.0590866322588</v>
       </c>
       <c r="L25" t="n">
-        <v>244.8600339422768</v>
+        <v>244.8600339422767</v>
       </c>
       <c r="M25" t="n">
-        <v>396.7974598673571</v>
+        <v>396.797459867357</v>
       </c>
       <c r="N25" t="n">
         <v>548.3566108700431</v>
@@ -6172,25 +6172,25 @@
         <v>766.5857006714878</v>
       </c>
       <c r="S25" t="n">
-        <v>715.1355612307968</v>
+        <v>669.0758770140418</v>
       </c>
       <c r="T25" t="n">
-        <v>641.3098852649318</v>
+        <v>595.2502010481768</v>
       </c>
       <c r="U25" t="n">
-        <v>512.5409640817866</v>
+        <v>466.4812798650315</v>
       </c>
       <c r="V25" t="n">
-        <v>410.2149267754119</v>
+        <v>364.1552425586568</v>
       </c>
       <c r="W25" t="n">
-        <v>282.4677924280136</v>
+        <v>236.4081082112587</v>
       </c>
       <c r="X25" t="n">
-        <v>209.6245954585921</v>
+        <v>163.5649112418372</v>
       </c>
       <c r="Y25" t="n">
-        <v>145.9987037860718</v>
+        <v>99.93901956931697</v>
       </c>
     </row>
     <row r="26">
@@ -6203,19 +6203,19 @@
         <v>1798.511840298795</v>
       </c>
       <c r="C26" t="n">
-        <v>1521.160975814342</v>
+        <v>1521.160975814341</v>
       </c>
       <c r="D26" t="n">
-        <v>1252.919905224305</v>
+        <v>1252.919905224304</v>
       </c>
       <c r="E26" t="n">
-        <v>962.7170795131509</v>
+        <v>962.7170795131503</v>
       </c>
       <c r="F26" t="n">
-        <v>653.1487830060605</v>
+        <v>653.1487830060598</v>
       </c>
       <c r="G26" t="n">
-        <v>342.1202351962088</v>
+        <v>342.1202351962079</v>
       </c>
       <c r="H26" t="n">
         <v>118.9261268819319</v>
@@ -6227,16 +6227,16 @@
         <v>285.1530866416282</v>
       </c>
       <c r="K26" t="n">
-        <v>689.2018625538957</v>
+        <v>689.2018625538956</v>
       </c>
       <c r="L26" t="n">
         <v>1215.769383040591</v>
       </c>
       <c r="M26" t="n">
-        <v>1735.085611664183</v>
+        <v>1796.275676038726</v>
       </c>
       <c r="N26" t="n">
-        <v>2302.055690408769</v>
+        <v>2363.245754783312</v>
       </c>
       <c r="O26" t="n">
         <v>2790.898720061414</v>
@@ -6251,7 +6251,7 @@
         <v>3484.032308076158</v>
       </c>
       <c r="S26" t="n">
-        <v>3412.610085895778</v>
+        <v>3412.610085895777</v>
       </c>
       <c r="T26" t="n">
         <v>3294.990147591253</v>
@@ -6263,13 +6263,13 @@
         <v>2912.330729130924</v>
       </c>
       <c r="W26" t="n">
-        <v>2654.378693171264</v>
+        <v>2654.378693171265</v>
       </c>
       <c r="X26" t="n">
         <v>2376.931446875497</v>
       </c>
       <c r="Y26" t="n">
-        <v>2087.972485634075</v>
+        <v>2087.972485634074</v>
       </c>
     </row>
     <row r="27">
@@ -6303,22 +6303,22 @@
         <v>69.68064616152317</v>
       </c>
       <c r="J27" t="n">
-        <v>154.3375552911036</v>
+        <v>69.68064616152317</v>
       </c>
       <c r="K27" t="n">
-        <v>425.5363159435068</v>
+        <v>340.8794068139264</v>
       </c>
       <c r="L27" t="n">
-        <v>847.4399940061744</v>
+        <v>762.7830848765939</v>
       </c>
       <c r="M27" t="n">
-        <v>979.8506942773835</v>
+        <v>1313.261292163261</v>
       </c>
       <c r="N27" t="n">
-        <v>1558.293324719169</v>
+        <v>1891.703922605047</v>
       </c>
       <c r="O27" t="n">
-        <v>2011.947092065733</v>
+        <v>2345.357689951611</v>
       </c>
       <c r="P27" t="n">
         <v>2363.365116996938</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>428.4438499794494</v>
+        <v>428.4438499794488</v>
       </c>
       <c r="C28" t="n">
-        <v>363.410774623869</v>
+        <v>363.4107746238684</v>
       </c>
       <c r="D28" t="n">
-        <v>314.921775634371</v>
+        <v>314.9217756343705</v>
       </c>
       <c r="E28" t="n">
-        <v>267.4956555784291</v>
+        <v>267.4956555784286</v>
       </c>
       <c r="F28" t="n">
-        <v>219.5978947869455</v>
+        <v>219.5978947869451</v>
       </c>
       <c r="G28" t="n">
-        <v>155.481978867658</v>
+        <v>155.4819788676576</v>
       </c>
       <c r="H28" t="n">
         <v>102.6565722156747</v>
@@ -6382,25 +6382,25 @@
         <v>69.68064616152317</v>
       </c>
       <c r="J28" t="n">
-        <v>128.6297502455772</v>
+        <v>128.629750245577</v>
       </c>
       <c r="K28" t="n">
-        <v>289.8938588161401</v>
+        <v>289.8938588161399</v>
       </c>
       <c r="L28" t="n">
-        <v>525.1965007146608</v>
+        <v>525.1965007146606</v>
       </c>
       <c r="M28" t="n">
-        <v>779.635621228244</v>
+        <v>779.6356212282434</v>
       </c>
       <c r="N28" t="n">
-        <v>1033.696466819433</v>
+        <v>1033.696466819432</v>
       </c>
       <c r="O28" t="n">
-        <v>1265.269014596846</v>
+        <v>1265.269014596845</v>
       </c>
       <c r="P28" t="n">
-        <v>1456.928945797883</v>
+        <v>1456.928945797882</v>
       </c>
       <c r="Q28" t="n">
         <v>1539.792619509458</v>
@@ -6409,25 +6409,25 @@
         <v>1504.787932033749</v>
       </c>
       <c r="S28" t="n">
-        <v>1399.511419640595</v>
+        <v>1399.511419640594</v>
       </c>
       <c r="T28" t="n">
-        <v>1271.859370722267</v>
+        <v>1271.859370722266</v>
       </c>
       <c r="U28" t="n">
-        <v>1089.264076586658</v>
+        <v>1089.264076586657</v>
       </c>
       <c r="V28" t="n">
-        <v>933.11166632782</v>
+        <v>933.1116663278194</v>
       </c>
       <c r="W28" t="n">
-        <v>751.5381590279584</v>
+        <v>751.5381590279578</v>
       </c>
       <c r="X28" t="n">
-        <v>624.8685891060734</v>
+        <v>624.8685891060729</v>
       </c>
       <c r="Y28" t="n">
-        <v>507.4163244810899</v>
+        <v>507.4163244810893</v>
       </c>
     </row>
     <row r="29">
@@ -6446,10 +6446,10 @@
         <v>1252.919905224305</v>
       </c>
       <c r="E29" t="n">
-        <v>962.7170795131509</v>
+        <v>962.7170795131508</v>
       </c>
       <c r="F29" t="n">
-        <v>653.1487830060605</v>
+        <v>653.1487830060604</v>
       </c>
       <c r="G29" t="n">
         <v>342.1202351962088</v>
@@ -6458,13 +6458,13 @@
         <v>118.9261268819319</v>
       </c>
       <c r="I29" t="n">
-        <v>69.68064616152317</v>
+        <v>69.68064616152316</v>
       </c>
       <c r="J29" t="n">
         <v>285.1530866416282</v>
       </c>
       <c r="K29" t="n">
-        <v>689.2018625538957</v>
+        <v>689.2018625538956</v>
       </c>
       <c r="L29" t="n">
         <v>1215.769383040591</v>
@@ -6473,7 +6473,7 @@
         <v>1796.275676038726</v>
       </c>
       <c r="N29" t="n">
-        <v>2363.245754783313</v>
+        <v>2363.245754783312</v>
       </c>
       <c r="O29" t="n">
         <v>2852.088784435957</v>
@@ -6482,16 +6482,16 @@
         <v>3190.976345943419</v>
       </c>
       <c r="Q29" t="n">
-        <v>3440.041098354742</v>
+        <v>3440.041098354741</v>
       </c>
       <c r="R29" t="n">
         <v>3484.032308076158</v>
       </c>
       <c r="S29" t="n">
-        <v>3412.610085895778</v>
+        <v>3412.610085895777</v>
       </c>
       <c r="T29" t="n">
-        <v>3294.990147591253</v>
+        <v>3294.990147591252</v>
       </c>
       <c r="U29" t="n">
         <v>3144.727109052244</v>
@@ -6537,28 +6537,28 @@
         <v>128.9894824878027</v>
       </c>
       <c r="I30" t="n">
-        <v>69.68064616152317</v>
+        <v>69.68064616152316</v>
       </c>
       <c r="J30" t="n">
-        <v>69.68064616152317</v>
+        <v>154.3375552911036</v>
       </c>
       <c r="K30" t="n">
-        <v>340.8794068139264</v>
+        <v>425.5363159435068</v>
       </c>
       <c r="L30" t="n">
-        <v>429.3724869907157</v>
+        <v>847.4399940061743</v>
       </c>
       <c r="M30" t="n">
-        <v>979.8506942773835</v>
+        <v>1397.918201292842</v>
       </c>
       <c r="N30" t="n">
-        <v>1558.293324719169</v>
+        <v>1976.360831734627</v>
       </c>
       <c r="O30" t="n">
-        <v>2011.947092065733</v>
+        <v>2430.014599081191</v>
       </c>
       <c r="P30" t="n">
-        <v>2363.365116996938</v>
+        <v>2430.014599081191</v>
       </c>
       <c r="Q30" t="n">
         <v>2554.107268235009</v>
@@ -6595,7 +6595,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>428.4438499794489</v>
+        <v>428.4438499794488</v>
       </c>
       <c r="C31" t="n">
         <v>363.4107746238685</v>
@@ -6610,25 +6610,25 @@
         <v>219.5978947869451</v>
       </c>
       <c r="G31" t="n">
-        <v>155.4819788676575</v>
+        <v>155.4819788676576</v>
       </c>
       <c r="H31" t="n">
         <v>102.6565722156747</v>
       </c>
       <c r="I31" t="n">
-        <v>69.68064616152317</v>
+        <v>69.68064616152316</v>
       </c>
       <c r="J31" t="n">
         <v>128.629750245577</v>
       </c>
       <c r="K31" t="n">
-        <v>289.8938588161396</v>
+        <v>289.8938588161399</v>
       </c>
       <c r="L31" t="n">
-        <v>525.1965007146604</v>
+        <v>525.1965007146606</v>
       </c>
       <c r="M31" t="n">
-        <v>779.6356212282435</v>
+        <v>779.6356212282433</v>
       </c>
       <c r="N31" t="n">
         <v>1033.696466819432</v>
@@ -6637,7 +6637,7 @@
         <v>1265.269014596845</v>
       </c>
       <c r="P31" t="n">
-        <v>1456.928945797883</v>
+        <v>1456.928945797882</v>
       </c>
       <c r="Q31" t="n">
         <v>1539.792619509458</v>
@@ -6655,16 +6655,16 @@
         <v>1089.264076586658</v>
       </c>
       <c r="V31" t="n">
-        <v>933.1116663278198</v>
+        <v>933.1116663278196</v>
       </c>
       <c r="W31" t="n">
-        <v>751.5381590279582</v>
+        <v>751.538159027958</v>
       </c>
       <c r="X31" t="n">
         <v>624.8685891060732</v>
       </c>
       <c r="Y31" t="n">
-        <v>507.4163244810895</v>
+        <v>507.4163244810893</v>
       </c>
     </row>
     <row r="32">
@@ -6674,52 +6674,52 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1539.359173906899</v>
+        <v>1539.359173906898</v>
       </c>
       <c r="C32" t="n">
         <v>1297.478925772174</v>
       </c>
       <c r="D32" t="n">
-        <v>1064.708471531866</v>
+        <v>1064.708471531865</v>
       </c>
       <c r="E32" t="n">
-        <v>809.9762621704406</v>
+        <v>809.9762621704404</v>
       </c>
       <c r="F32" t="n">
-        <v>535.8785820130793</v>
+        <v>535.8785820130788</v>
       </c>
       <c r="G32" t="n">
-        <v>260.3206505529565</v>
+        <v>260.320650552956</v>
       </c>
       <c r="H32" t="n">
-        <v>72.5971585884086</v>
+        <v>72.59715858840859</v>
       </c>
       <c r="I32" t="n">
-        <v>58.82229421772863</v>
+        <v>58.82229421772861</v>
       </c>
       <c r="J32" t="n">
         <v>171.7930401093308</v>
       </c>
       <c r="K32" t="n">
-        <v>473.3401214330955</v>
+        <v>473.3401214330954</v>
       </c>
       <c r="L32" t="n">
-        <v>897.4059473312877</v>
+        <v>897.4059473312875</v>
       </c>
       <c r="M32" t="n">
-        <v>1430.143596071226</v>
+        <v>1375.41054574092</v>
       </c>
       <c r="N32" t="n">
-        <v>1894.61198022731</v>
+        <v>1839.878929897004</v>
       </c>
       <c r="O32" t="n">
-        <v>2280.953315291452</v>
+        <v>2226.220264961145</v>
       </c>
       <c r="P32" t="n">
-        <v>2578.529246584954</v>
+        <v>2661.06264192752</v>
       </c>
       <c r="Q32" t="n">
-        <v>2862.358750080646</v>
+        <v>2941.114710886431</v>
       </c>
       <c r="R32" t="n">
         <v>2941.114710886431</v>
@@ -6728,10 +6728,10 @@
         <v>2905.163105055779</v>
       </c>
       <c r="T32" t="n">
-        <v>2823.013783100985</v>
+        <v>2823.013783100983</v>
       </c>
       <c r="U32" t="n">
-        <v>2708.221360911704</v>
+        <v>2708.221360911703</v>
       </c>
       <c r="V32" t="n">
         <v>2511.295597340113</v>
@@ -6740,10 +6740,10 @@
         <v>2288.814177730182</v>
       </c>
       <c r="X32" t="n">
-        <v>2046.837547784144</v>
+        <v>2046.837547784143</v>
       </c>
       <c r="Y32" t="n">
-        <v>1793.34920289245</v>
+        <v>1793.349202892449</v>
       </c>
     </row>
     <row r="33">
@@ -6774,19 +6774,19 @@
         <v>118.1311305440082</v>
       </c>
       <c r="I33" t="n">
-        <v>58.82229421772863</v>
+        <v>58.82229421772861</v>
       </c>
       <c r="J33" t="n">
-        <v>143.4792033473091</v>
+        <v>143.479203347309</v>
       </c>
       <c r="K33" t="n">
-        <v>414.6779639997123</v>
+        <v>414.6779639997122</v>
       </c>
       <c r="L33" t="n">
-        <v>836.5816420623798</v>
+        <v>836.5816420623797</v>
       </c>
       <c r="M33" t="n">
-        <v>1387.059849349047</v>
+        <v>968.9923423335895</v>
       </c>
       <c r="N33" t="n">
         <v>1547.434972775375</v>
@@ -6832,10 +6832,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>171.7858738831301</v>
+        <v>171.78587388313</v>
       </c>
       <c r="C34" t="n">
-        <v>142.2234148772785</v>
+        <v>142.2234148772784</v>
       </c>
       <c r="D34" t="n">
         <v>129.2050322375093</v>
@@ -6844,37 +6844,37 @@
         <v>117.2495285312962</v>
       </c>
       <c r="F34" t="n">
-        <v>104.8223840895415</v>
+        <v>104.8223840895414</v>
       </c>
       <c r="G34" t="n">
-        <v>76.17708451998271</v>
+        <v>76.1770845199827</v>
       </c>
       <c r="H34" t="n">
-        <v>58.82229421772863</v>
+        <v>58.82229421772861</v>
       </c>
       <c r="I34" t="n">
-        <v>58.82229421772863</v>
+        <v>58.82229421772861</v>
       </c>
       <c r="J34" t="n">
-        <v>58.82229421772863</v>
+        <v>152.5361493861516</v>
       </c>
       <c r="K34" t="n">
-        <v>117.5847081997887</v>
+        <v>211.2985633682117</v>
       </c>
       <c r="L34" t="n">
-        <v>250.3856555098067</v>
+        <v>344.0995106782296</v>
       </c>
       <c r="M34" t="n">
-        <v>402.3230814348869</v>
+        <v>496.0369366033099</v>
       </c>
       <c r="N34" t="n">
-        <v>553.8822324375731</v>
+        <v>647.596087605996</v>
       </c>
       <c r="O34" t="n">
-        <v>757.1217068416938</v>
+        <v>776.6669407949059</v>
       </c>
       <c r="P34" t="n">
-        <v>846.2799434542285</v>
+        <v>865.8251774074406</v>
       </c>
       <c r="Q34" t="n">
         <v>963.908368250173</v>
@@ -6911,37 +6911,37 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1409.924148352282</v>
+        <v>1409.924148352281</v>
       </c>
       <c r="C35" t="n">
-        <v>1186.399656820292</v>
+        <v>1186.399656820291</v>
       </c>
       <c r="D35" t="n">
-        <v>971.9849591827184</v>
+        <v>971.9849591827171</v>
       </c>
       <c r="E35" t="n">
-        <v>735.6085064240278</v>
+        <v>735.6085064240267</v>
       </c>
       <c r="F35" t="n">
-        <v>479.8665828694009</v>
+        <v>479.8665828693997</v>
       </c>
       <c r="G35" t="n">
         <v>222.6644080120114</v>
       </c>
       <c r="H35" t="n">
-        <v>53.29667265019877</v>
+        <v>53.29667265019874</v>
       </c>
       <c r="I35" t="n">
-        <v>53.29667265019877</v>
+        <v>53.29667265019874</v>
       </c>
       <c r="J35" t="n">
-        <v>166.2674185418009</v>
+        <v>166.2674185418005</v>
       </c>
       <c r="K35" t="n">
-        <v>467.8144998655657</v>
+        <v>467.8144998655653</v>
       </c>
       <c r="L35" t="n">
-        <v>891.880325763758</v>
+        <v>891.8803257637578</v>
       </c>
       <c r="M35" t="n">
         <v>1369.88492417339</v>
@@ -6953,34 +6953,34 @@
         <v>2220.694643393615</v>
       </c>
       <c r="P35" t="n">
-        <v>2518.270574687118</v>
+        <v>2518.270574687117</v>
       </c>
       <c r="Q35" t="n">
-        <v>2664.833632509938</v>
+        <v>2664.833632509937</v>
       </c>
       <c r="R35" t="n">
-        <v>2664.833632509938</v>
+        <v>2664.833632509937</v>
       </c>
       <c r="S35" t="n">
-        <v>2647.237783282022</v>
+        <v>2647.237783282019</v>
       </c>
       <c r="T35" t="n">
-        <v>2583.444217929961</v>
+        <v>2583.444217929959</v>
       </c>
       <c r="U35" t="n">
-        <v>2487.007552343414</v>
+        <v>2487.007552343412</v>
       </c>
       <c r="V35" t="n">
-        <v>2308.437545374558</v>
+        <v>2308.437545374557</v>
       </c>
       <c r="W35" t="n">
-        <v>2104.311882367362</v>
+        <v>2104.311882367361</v>
       </c>
       <c r="X35" t="n">
-        <v>1880.691009024058</v>
+        <v>1880.691009024057</v>
       </c>
       <c r="Y35" t="n">
-        <v>1645.558420735099</v>
+        <v>1645.558420735097</v>
       </c>
     </row>
     <row r="36">
@@ -6990,16 +6990,16 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>920.7272604704571</v>
+        <v>920.7272604704568</v>
       </c>
       <c r="C36" t="n">
-        <v>759.0235877114118</v>
+        <v>759.0235877114116</v>
       </c>
       <c r="D36" t="n">
-        <v>620.1849507016238</v>
+        <v>620.1849507016236</v>
       </c>
       <c r="E36" t="n">
-        <v>473.156940758495</v>
+        <v>473.1569407584949</v>
       </c>
       <c r="F36" t="n">
         <v>338.4631427083693</v>
@@ -7011,28 +7011,28 @@
         <v>112.6055089764783</v>
       </c>
       <c r="I36" t="n">
-        <v>53.29667265019877</v>
+        <v>53.29667265019874</v>
       </c>
       <c r="J36" t="n">
-        <v>137.9535817797792</v>
+        <v>137.9535817797791</v>
       </c>
       <c r="K36" t="n">
-        <v>409.1523424321824</v>
+        <v>181.8269866547946</v>
       </c>
       <c r="L36" t="n">
-        <v>831.0560204948499</v>
+        <v>603.7306647174621</v>
       </c>
       <c r="M36" t="n">
-        <v>1381.534227781518</v>
+        <v>1154.20887200413</v>
       </c>
       <c r="N36" t="n">
-        <v>1541.909351207845</v>
+        <v>1732.651502445915</v>
       </c>
       <c r="O36" t="n">
-        <v>1995.563118554409</v>
+        <v>2186.305269792479</v>
       </c>
       <c r="P36" t="n">
-        <v>2346.981143485614</v>
+        <v>2537.723294723684</v>
       </c>
       <c r="Q36" t="n">
         <v>2537.723294723684</v>
@@ -7069,40 +7069,40 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>120.8526022368943</v>
+        <v>100.815849990259</v>
       </c>
       <c r="C37" t="n">
-        <v>109.6458998337772</v>
+        <v>89.60914758714199</v>
       </c>
       <c r="D37" t="n">
-        <v>109.6458998337772</v>
+        <v>89.60914758714199</v>
       </c>
       <c r="E37" t="n">
-        <v>109.6458998337772</v>
+        <v>89.60914758714199</v>
       </c>
       <c r="F37" t="n">
-        <v>109.6458998337772</v>
+        <v>89.60914758714199</v>
       </c>
       <c r="G37" t="n">
-        <v>99.35635686695296</v>
+        <v>79.3196046203178</v>
       </c>
       <c r="H37" t="n">
-        <v>53.29667265019877</v>
+        <v>79.3196046203178</v>
       </c>
       <c r="I37" t="n">
-        <v>53.29667265019877</v>
+        <v>53.29667265019874</v>
       </c>
       <c r="J37" t="n">
-        <v>53.29667265019877</v>
+        <v>53.29667265019874</v>
       </c>
       <c r="K37" t="n">
-        <v>112.0590866322589</v>
+        <v>112.0590866322588</v>
       </c>
       <c r="L37" t="n">
-        <v>244.8600339422768</v>
+        <v>244.8600339422767</v>
       </c>
       <c r="M37" t="n">
-        <v>396.7974598673571</v>
+        <v>396.797459867357</v>
       </c>
       <c r="N37" t="n">
         <v>548.3566108700431</v>
@@ -7114,31 +7114,31 @@
         <v>766.5857006714878</v>
       </c>
       <c r="Q37" t="n">
-        <v>766.5857006714878</v>
+        <v>746.5489484248523</v>
       </c>
       <c r="R37" t="n">
-        <v>766.5857006714878</v>
+        <v>746.5489484248523</v>
       </c>
       <c r="S37" t="n">
-        <v>715.1355612307968</v>
+        <v>695.0988089841613</v>
       </c>
       <c r="T37" t="n">
-        <v>641.3098852649317</v>
+        <v>621.2731330182962</v>
       </c>
       <c r="U37" t="n">
-        <v>512.5409640817863</v>
+        <v>492.504211835151</v>
       </c>
       <c r="V37" t="n">
-        <v>410.2149267754116</v>
+        <v>390.1781745287763</v>
       </c>
       <c r="W37" t="n">
-        <v>282.4677924280134</v>
+        <v>262.431040181378</v>
       </c>
       <c r="X37" t="n">
-        <v>209.6245954585917</v>
+        <v>189.5878432119565</v>
       </c>
       <c r="Y37" t="n">
-        <v>145.9987037860714</v>
+        <v>125.9619515394362</v>
       </c>
     </row>
     <row r="38">
@@ -7148,37 +7148,37 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1409.92414835228</v>
+        <v>1409.924148352281</v>
       </c>
       <c r="C38" t="n">
-        <v>1186.39965682029</v>
+        <v>1186.399656820291</v>
       </c>
       <c r="D38" t="n">
-        <v>971.9849591827165</v>
+        <v>971.9849591827176</v>
       </c>
       <c r="E38" t="n">
-        <v>735.6085064240259</v>
+        <v>735.6085064240274</v>
       </c>
       <c r="F38" t="n">
-        <v>479.8665828693988</v>
+        <v>479.8665828694006</v>
       </c>
       <c r="G38" t="n">
-        <v>222.6644080120115</v>
+        <v>222.6644080120114</v>
       </c>
       <c r="H38" t="n">
-        <v>53.29667265019875</v>
+        <v>53.29667265019874</v>
       </c>
       <c r="I38" t="n">
-        <v>53.29667265019875</v>
+        <v>53.29667265019874</v>
       </c>
       <c r="J38" t="n">
-        <v>166.2674185418005</v>
+        <v>166.2674185418009</v>
       </c>
       <c r="K38" t="n">
-        <v>467.8144998655653</v>
+        <v>467.8144998655656</v>
       </c>
       <c r="L38" t="n">
-        <v>891.8803257637576</v>
+        <v>891.8803257637577</v>
       </c>
       <c r="M38" t="n">
         <v>1369.88492417339</v>
@@ -7190,34 +7190,34 @@
         <v>2220.694643393615</v>
       </c>
       <c r="P38" t="n">
-        <v>2518.270574687118</v>
+        <v>2518.270574687117</v>
       </c>
       <c r="Q38" t="n">
-        <v>2664.833632509938</v>
+        <v>2664.833632509937</v>
       </c>
       <c r="R38" t="n">
-        <v>2664.833632509938</v>
+        <v>2664.833632509937</v>
       </c>
       <c r="S38" t="n">
-        <v>2647.23778328202</v>
+        <v>2647.237783282021</v>
       </c>
       <c r="T38" t="n">
-        <v>2583.444217929959</v>
+        <v>2583.44421792996</v>
       </c>
       <c r="U38" t="n">
-        <v>2487.007552343413</v>
+        <v>2487.007552343414</v>
       </c>
       <c r="V38" t="n">
-        <v>2308.437545374557</v>
+        <v>2308.437545374558</v>
       </c>
       <c r="W38" t="n">
-        <v>2104.31188236736</v>
+        <v>2104.311882367361</v>
       </c>
       <c r="X38" t="n">
-        <v>1880.691009024056</v>
+        <v>1880.691009024057</v>
       </c>
       <c r="Y38" t="n">
-        <v>1645.558420735096</v>
+        <v>1645.558420735098</v>
       </c>
     </row>
     <row r="39">
@@ -7248,10 +7248,10 @@
         <v>112.6055089764783</v>
       </c>
       <c r="I39" t="n">
-        <v>53.29667265019875</v>
+        <v>53.29667265019874</v>
       </c>
       <c r="J39" t="n">
-        <v>137.9535817797792</v>
+        <v>137.9535817797791</v>
       </c>
       <c r="K39" t="n">
         <v>409.1523424321824</v>
@@ -7306,40 +7306,40 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>74.79291802014021</v>
+        <v>74.79291802014004</v>
       </c>
       <c r="C40" t="n">
-        <v>63.58621561702305</v>
+        <v>63.58621561702296</v>
       </c>
       <c r="D40" t="n">
-        <v>63.58621561702305</v>
+        <v>63.58621561702296</v>
       </c>
       <c r="E40" t="n">
-        <v>63.58621561702305</v>
+        <v>63.58621561702296</v>
       </c>
       <c r="F40" t="n">
-        <v>63.58621561702305</v>
+        <v>63.58621561702296</v>
       </c>
       <c r="G40" t="n">
-        <v>53.29667265019875</v>
+        <v>53.29667265019874</v>
       </c>
       <c r="H40" t="n">
-        <v>53.29667265019875</v>
+        <v>53.29667265019874</v>
       </c>
       <c r="I40" t="n">
-        <v>53.29667265019875</v>
+        <v>53.29667265019874</v>
       </c>
       <c r="J40" t="n">
-        <v>53.29667265019875</v>
+        <v>53.29667265019874</v>
       </c>
       <c r="K40" t="n">
-        <v>112.0590866322589</v>
+        <v>112.0590866322588</v>
       </c>
       <c r="L40" t="n">
-        <v>244.8600339422768</v>
+        <v>244.8600339422767</v>
       </c>
       <c r="M40" t="n">
-        <v>396.7974598673571</v>
+        <v>396.797459867357</v>
       </c>
       <c r="N40" t="n">
         <v>548.3566108700431</v>
@@ -7357,25 +7357,25 @@
         <v>766.5857006714878</v>
       </c>
       <c r="S40" t="n">
-        <v>715.1355612307967</v>
+        <v>715.1355612307968</v>
       </c>
       <c r="T40" t="n">
-        <v>595.2502010481782</v>
+        <v>595.2502010481775</v>
       </c>
       <c r="U40" t="n">
-        <v>466.4812798650328</v>
+        <v>466.4812798650321</v>
       </c>
       <c r="V40" t="n">
-        <v>364.1552425586579</v>
+        <v>364.1552425586574</v>
       </c>
       <c r="W40" t="n">
-        <v>236.4081082112596</v>
+        <v>236.4081082112591</v>
       </c>
       <c r="X40" t="n">
-        <v>163.5649112418378</v>
+        <v>163.5649112418375</v>
       </c>
       <c r="Y40" t="n">
-        <v>99.93901956931748</v>
+        <v>99.93901956931722</v>
       </c>
     </row>
     <row r="41">
@@ -7391,31 +7391,31 @@
         <v>1186.399656820292</v>
       </c>
       <c r="D41" t="n">
-        <v>971.9849591827176</v>
+        <v>971.9849591827183</v>
       </c>
       <c r="E41" t="n">
-        <v>735.6085064240272</v>
+        <v>735.6085064240278</v>
       </c>
       <c r="F41" t="n">
-        <v>479.8665828694003</v>
+        <v>479.8665828694009</v>
       </c>
       <c r="G41" t="n">
         <v>222.6644080120114</v>
       </c>
       <c r="H41" t="n">
-        <v>53.29667265019877</v>
+        <v>53.29667265019875</v>
       </c>
       <c r="I41" t="n">
-        <v>53.29667265019877</v>
+        <v>53.29667265019875</v>
       </c>
       <c r="J41" t="n">
-        <v>166.267418541801</v>
+        <v>166.2674185418009</v>
       </c>
       <c r="K41" t="n">
-        <v>467.8144998655657</v>
+        <v>467.8144998655655</v>
       </c>
       <c r="L41" t="n">
-        <v>891.8803257637578</v>
+        <v>891.8803257637577</v>
       </c>
       <c r="M41" t="n">
         <v>1369.88492417339</v>
@@ -7464,16 +7464,16 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>920.7272604704571</v>
+        <v>920.7272604704568</v>
       </c>
       <c r="C42" t="n">
-        <v>759.0235877114118</v>
+        <v>759.0235877114116</v>
       </c>
       <c r="D42" t="n">
-        <v>620.1849507016238</v>
+        <v>620.1849507016236</v>
       </c>
       <c r="E42" t="n">
-        <v>473.156940758495</v>
+        <v>473.1569407584949</v>
       </c>
       <c r="F42" t="n">
         <v>338.4631427083693</v>
@@ -7485,7 +7485,7 @@
         <v>112.6055089764783</v>
       </c>
       <c r="I42" t="n">
-        <v>53.29667265019877</v>
+        <v>53.29667265019875</v>
       </c>
       <c r="J42" t="n">
         <v>137.9535817797792</v>
@@ -7494,10 +7494,10 @@
         <v>409.1523424321824</v>
       </c>
       <c r="L42" t="n">
-        <v>412.9885134793917</v>
+        <v>412.9885134793919</v>
       </c>
       <c r="M42" t="n">
-        <v>963.4667207660593</v>
+        <v>963.4667207660596</v>
       </c>
       <c r="N42" t="n">
         <v>1541.909351207845</v>
@@ -7543,40 +7543,40 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>120.8526022368947</v>
+        <v>74.79291802013992</v>
       </c>
       <c r="C43" t="n">
-        <v>63.58621561702294</v>
+        <v>63.5862156170229</v>
       </c>
       <c r="D43" t="n">
-        <v>63.58621561702294</v>
+        <v>63.5862156170229</v>
       </c>
       <c r="E43" t="n">
-        <v>63.58621561702294</v>
+        <v>63.5862156170229</v>
       </c>
       <c r="F43" t="n">
-        <v>63.58621561702294</v>
+        <v>63.5862156170229</v>
       </c>
       <c r="G43" t="n">
-        <v>53.29667265019877</v>
+        <v>53.29667265019875</v>
       </c>
       <c r="H43" t="n">
-        <v>53.29667265019877</v>
+        <v>53.29667265019875</v>
       </c>
       <c r="I43" t="n">
-        <v>53.29667265019877</v>
+        <v>53.29667265019875</v>
       </c>
       <c r="J43" t="n">
-        <v>53.29667265019877</v>
+        <v>53.29667265019875</v>
       </c>
       <c r="K43" t="n">
-        <v>112.0590866322589</v>
+        <v>112.0590866322588</v>
       </c>
       <c r="L43" t="n">
-        <v>244.8600339422768</v>
+        <v>244.8600339422767</v>
       </c>
       <c r="M43" t="n">
-        <v>396.7974598673571</v>
+        <v>396.797459867357</v>
       </c>
       <c r="N43" t="n">
         <v>548.3566108700431</v>
@@ -7591,28 +7591,28 @@
         <v>766.5857006714878</v>
       </c>
       <c r="R43" t="n">
-        <v>766.5857006714878</v>
+        <v>720.5260164547329</v>
       </c>
       <c r="S43" t="n">
-        <v>715.1355612307968</v>
+        <v>669.075877014042</v>
       </c>
       <c r="T43" t="n">
-        <v>641.3098852649318</v>
+        <v>595.250201048177</v>
       </c>
       <c r="U43" t="n">
-        <v>512.5409640817866</v>
+        <v>466.4812798650318</v>
       </c>
       <c r="V43" t="n">
-        <v>410.2149267754119</v>
+        <v>364.1552425586571</v>
       </c>
       <c r="W43" t="n">
-        <v>282.4677924280136</v>
+        <v>236.4081082112588</v>
       </c>
       <c r="X43" t="n">
-        <v>209.6245954585921</v>
+        <v>163.5649112418373</v>
       </c>
       <c r="Y43" t="n">
-        <v>145.9987037860718</v>
+        <v>99.93901956931705</v>
       </c>
     </row>
     <row r="44">
@@ -7622,37 +7622,37 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1409.924148352281</v>
+        <v>1409.92414835228</v>
       </c>
       <c r="C44" t="n">
-        <v>1186.399656820291</v>
+        <v>1186.39965682029</v>
       </c>
       <c r="D44" t="n">
-        <v>971.9849591827174</v>
+        <v>971.9849591827165</v>
       </c>
       <c r="E44" t="n">
-        <v>735.6085064240272</v>
+        <v>735.6085064240262</v>
       </c>
       <c r="F44" t="n">
-        <v>479.8665828694</v>
+        <v>479.8665828693992</v>
       </c>
       <c r="G44" t="n">
-        <v>222.6644080120114</v>
+        <v>222.6644080120115</v>
       </c>
       <c r="H44" t="n">
-        <v>53.29667265019877</v>
+        <v>53.29667265019875</v>
       </c>
       <c r="I44" t="n">
-        <v>53.29667265019877</v>
+        <v>53.29667265019862</v>
       </c>
       <c r="J44" t="n">
-        <v>166.2674185418011</v>
+        <v>166.2674185418008</v>
       </c>
       <c r="K44" t="n">
-        <v>467.8144998655658</v>
+        <v>467.8144998655654</v>
       </c>
       <c r="L44" t="n">
-        <v>891.880325763758</v>
+        <v>891.8803257637576</v>
       </c>
       <c r="M44" t="n">
         <v>1369.88492417339</v>
@@ -7661,7 +7661,7 @@
         <v>1834.353308329474</v>
       </c>
       <c r="O44" t="n">
-        <v>2220.694643393616</v>
+        <v>2220.694643393615</v>
       </c>
       <c r="P44" t="n">
         <v>2518.270574687118</v>
@@ -7679,19 +7679,19 @@
         <v>2583.444217929959</v>
       </c>
       <c r="U44" t="n">
-        <v>2487.007552343414</v>
+        <v>2487.007552343413</v>
       </c>
       <c r="V44" t="n">
-        <v>2308.437545374558</v>
+        <v>2308.437545374557</v>
       </c>
       <c r="W44" t="n">
-        <v>2104.311882367361</v>
+        <v>2104.31188236736</v>
       </c>
       <c r="X44" t="n">
-        <v>1880.691009024057</v>
+        <v>1880.691009024056</v>
       </c>
       <c r="Y44" t="n">
-        <v>1645.558420735098</v>
+        <v>1645.558420735097</v>
       </c>
     </row>
     <row r="45">
@@ -7701,16 +7701,16 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>920.7272604704571</v>
+        <v>920.7272604704568</v>
       </c>
       <c r="C45" t="n">
-        <v>759.0235877114118</v>
+        <v>759.0235877114116</v>
       </c>
       <c r="D45" t="n">
-        <v>620.1849507016238</v>
+        <v>620.1849507016236</v>
       </c>
       <c r="E45" t="n">
-        <v>473.156940758495</v>
+        <v>473.1569407584949</v>
       </c>
       <c r="F45" t="n">
         <v>338.4631427083693</v>
@@ -7722,28 +7722,28 @@
         <v>112.6055089764783</v>
       </c>
       <c r="I45" t="n">
-        <v>53.29667265019877</v>
+        <v>53.29667265019875</v>
       </c>
       <c r="J45" t="n">
-        <v>137.9535817797792</v>
+        <v>53.29667265019875</v>
       </c>
       <c r="K45" t="n">
-        <v>409.1523424321824</v>
+        <v>53.29667265019875</v>
       </c>
       <c r="L45" t="n">
-        <v>831.0560204948499</v>
+        <v>475.2003507128662</v>
       </c>
       <c r="M45" t="n">
-        <v>1381.534227781518</v>
+        <v>1025.678557999534</v>
       </c>
       <c r="N45" t="n">
-        <v>1959.976858223303</v>
+        <v>1604.121188441319</v>
       </c>
       <c r="O45" t="n">
-        <v>1995.563118554409</v>
+        <v>2057.774955787883</v>
       </c>
       <c r="P45" t="n">
-        <v>2346.981143485614</v>
+        <v>2409.192980719089</v>
       </c>
       <c r="Q45" t="n">
         <v>2537.723294723684</v>
@@ -7780,40 +7780,40 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>120.852602236894</v>
+        <v>74.79291802014009</v>
       </c>
       <c r="C46" t="n">
-        <v>109.6458998337769</v>
+        <v>63.58621561702299</v>
       </c>
       <c r="D46" t="n">
-        <v>109.6458998337769</v>
+        <v>63.58621561702299</v>
       </c>
       <c r="E46" t="n">
-        <v>109.6458998337769</v>
+        <v>63.58621561702299</v>
       </c>
       <c r="F46" t="n">
-        <v>109.6458998337769</v>
+        <v>63.58621561702299</v>
       </c>
       <c r="G46" t="n">
-        <v>99.35635686695262</v>
+        <v>53.29667265019875</v>
       </c>
       <c r="H46" t="n">
-        <v>53.29667265019877</v>
+        <v>53.29667265019875</v>
       </c>
       <c r="I46" t="n">
-        <v>53.29667265019877</v>
+        <v>53.29667265019875</v>
       </c>
       <c r="J46" t="n">
-        <v>53.29667265019877</v>
+        <v>53.29667265019875</v>
       </c>
       <c r="K46" t="n">
-        <v>112.0590866322589</v>
+        <v>112.0590866322588</v>
       </c>
       <c r="L46" t="n">
-        <v>244.8600339422768</v>
+        <v>244.8600339422767</v>
       </c>
       <c r="M46" t="n">
-        <v>396.7974598673571</v>
+        <v>396.797459867357</v>
       </c>
       <c r="N46" t="n">
         <v>548.3566108700431</v>
@@ -7846,10 +7846,10 @@
         <v>282.4677924280131</v>
       </c>
       <c r="X46" t="n">
-        <v>209.6245954585915</v>
+        <v>163.5649112418376</v>
       </c>
       <c r="Y46" t="n">
-        <v>145.9987037860712</v>
+        <v>99.93901956931731</v>
       </c>
     </row>
   </sheetData>
@@ -8450,22 +8450,22 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>219.8255997236959</v>
+        <v>147.0997974279326</v>
       </c>
       <c r="K8" t="n">
-        <v>178.8230039740467</v>
+        <v>314.5524032714785</v>
       </c>
       <c r="L8" t="n">
         <v>327.2896114605464</v>
       </c>
       <c r="M8" t="n">
-        <v>244.6758953655979</v>
+        <v>322.8857137945909</v>
       </c>
       <c r="N8" t="n">
-        <v>322.1275134696619</v>
+        <v>316.6434973364323</v>
       </c>
       <c r="O8" t="n">
-        <v>322.6841960775522</v>
+        <v>186.9547967801205</v>
       </c>
       <c r="P8" t="n">
         <v>187.8768090511565</v>
@@ -8529,28 +8529,28 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J9" t="n">
-        <v>103.0555716666667</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K9" t="n">
         <v>247.7255684640984</v>
       </c>
       <c r="L9" t="n">
-        <v>248.3048328685796</v>
+        <v>112.5754335711478</v>
       </c>
       <c r="M9" t="n">
-        <v>251.2133018590717</v>
+        <v>115.4839025616399</v>
       </c>
       <c r="N9" t="n">
         <v>106.7151410677083</v>
       </c>
       <c r="O9" t="n">
-        <v>115.8594486111111</v>
+        <v>185.2420574994484</v>
       </c>
       <c r="P9" t="n">
-        <v>108.8542060241433</v>
+        <v>244.5836053215751</v>
       </c>
       <c r="Q9" t="n">
-        <v>243.9805746090947</v>
+        <v>249.4645907423243</v>
       </c>
       <c r="R9" t="n">
         <v>59.17817075471706</v>
@@ -8772,19 +8772,19 @@
         <v>343.8048081163522</v>
       </c>
       <c r="L12" t="n">
-        <v>482.0924488944969</v>
+        <v>414.7697397184842</v>
       </c>
       <c r="M12" t="n">
         <v>605.4165828749999</v>
       </c>
       <c r="N12" t="n">
-        <v>200.854675519894</v>
+        <v>623.1450866466196</v>
       </c>
       <c r="O12" t="n">
         <v>512.0210150597484</v>
       </c>
       <c r="P12" t="n">
-        <v>414.0015992319183</v>
+        <v>59.033897281206</v>
       </c>
       <c r="Q12" t="n">
         <v>273.1004740566038</v>
@@ -8945,7 +8945,7 @@
         <v>418.3383206229274</v>
       </c>
       <c r="Q14" t="n">
-        <v>276.0094878578761</v>
+        <v>276.0094878578763</v>
       </c>
       <c r="R14" t="n">
         <v>85.43134583487716</v>
@@ -9003,10 +9003,10 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J15" t="n">
-        <v>163.9183459425315</v>
+        <v>78.40631651871288</v>
       </c>
       <c r="K15" t="n">
-        <v>343.8048081163522</v>
+        <v>69.86666604321765</v>
       </c>
       <c r="L15" t="n">
         <v>482.0924488944969</v>
@@ -9018,13 +9018,13 @@
         <v>623.1450866466196</v>
       </c>
       <c r="O15" t="n">
-        <v>89.73060393302308</v>
+        <v>512.0210150597484</v>
       </c>
       <c r="P15" t="n">
         <v>414.0015992319183</v>
       </c>
       <c r="Q15" t="n">
-        <v>273.1004740566038</v>
+        <v>210.2602344268316</v>
       </c>
       <c r="R15" t="n">
         <v>59.17817075471706</v>
@@ -9170,7 +9170,7 @@
         <v>542.9595789155856</v>
       </c>
       <c r="M17" t="n">
-        <v>584.3675935406825</v>
+        <v>584.3675935406823</v>
       </c>
       <c r="N17" t="n">
         <v>568.5510017355793</v>
@@ -9416,7 +9416,7 @@
         <v>495.0402356415689</v>
       </c>
       <c r="P20" t="n">
-        <v>418.3383206229274</v>
+        <v>418.3383206229273</v>
       </c>
       <c r="Q20" t="n">
         <v>276.0094878578761</v>
@@ -9489,10 +9489,10 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N21" t="n">
-        <v>623.1450866466196</v>
+        <v>200.8546755198943</v>
       </c>
       <c r="O21" t="n">
-        <v>89.73060393302302</v>
+        <v>512.0210150597484</v>
       </c>
       <c r="P21" t="n">
         <v>414.0015992319183</v>
@@ -9714,10 +9714,10 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J24" t="n">
-        <v>78.40631651871286</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K24" t="n">
-        <v>199.6952660478597</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L24" t="n">
         <v>482.0924488944969</v>
@@ -9726,7 +9726,7 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N24" t="n">
-        <v>623.1450866466196</v>
+        <v>200.8546755198943</v>
       </c>
       <c r="O24" t="n">
         <v>512.0210150597484</v>
@@ -9735,7 +9735,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q24" t="n">
-        <v>80.43163442218936</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R24" t="n">
         <v>59.17817075471706</v>
@@ -9951,7 +9951,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J27" t="n">
-        <v>163.9183459425315</v>
+        <v>78.40631651871288</v>
       </c>
       <c r="K27" t="n">
         <v>343.8048081163522</v>
@@ -9960,7 +9960,7 @@
         <v>482.0924488944969</v>
       </c>
       <c r="M27" t="n">
-        <v>183.1261717482741</v>
+        <v>605.4165828749999</v>
       </c>
       <c r="N27" t="n">
         <v>623.1450866466196</v>
@@ -9969,7 +9969,7 @@
         <v>512.0210150597484</v>
       </c>
       <c r="P27" t="n">
-        <v>414.0015992319183</v>
+        <v>77.22321752901145</v>
       </c>
       <c r="Q27" t="n">
         <v>273.1004740566038</v>
@@ -10188,13 +10188,13 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J30" t="n">
-        <v>78.40631651871284</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K30" t="n">
         <v>343.8048081163522</v>
       </c>
       <c r="L30" t="n">
-        <v>145.3140671915897</v>
+        <v>482.0924488944969</v>
       </c>
       <c r="M30" t="n">
         <v>605.4165828749999</v>
@@ -10206,10 +10206,10 @@
         <v>512.0210150597484</v>
       </c>
       <c r="P30" t="n">
-        <v>414.0015992319183</v>
+        <v>59.033897281206</v>
       </c>
       <c r="Q30" t="n">
-        <v>273.1004740566038</v>
+        <v>205.7777648805909</v>
       </c>
       <c r="R30" t="n">
         <v>59.17817075471706</v>
@@ -10434,10 +10434,10 @@
         <v>482.0924488944969</v>
       </c>
       <c r="M33" t="n">
-        <v>605.4165828749999</v>
+        <v>183.1261717482749</v>
       </c>
       <c r="N33" t="n">
-        <v>200.854675519894</v>
+        <v>623.1450866466196</v>
       </c>
       <c r="O33" t="n">
         <v>512.0210150597484</v>
@@ -10665,7 +10665,7 @@
         <v>163.9183459425315</v>
       </c>
       <c r="K36" t="n">
-        <v>343.8048081163522</v>
+        <v>114.1832366240414</v>
       </c>
       <c r="L36" t="n">
         <v>482.0924488944969</v>
@@ -10674,7 +10674,7 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N36" t="n">
-        <v>200.854675519894</v>
+        <v>623.1450866466196</v>
       </c>
       <c r="O36" t="n">
         <v>512.0210150597484</v>
@@ -10683,7 +10683,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q36" t="n">
-        <v>273.1004740566038</v>
+        <v>80.43163442218938</v>
       </c>
       <c r="R36" t="n">
         <v>59.17817075471706</v>
@@ -10838,7 +10838,7 @@
         <v>495.0402356415689</v>
       </c>
       <c r="P38" t="n">
-        <v>418.3383206229274</v>
+        <v>418.3383206229269</v>
       </c>
       <c r="Q38" t="n">
         <v>276.0094878578761</v>
@@ -10911,7 +10911,7 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N39" t="n">
-        <v>200.854675519894</v>
+        <v>200.8546755198943</v>
       </c>
       <c r="O39" t="n">
         <v>512.0210150597484</v>
@@ -11142,7 +11142,7 @@
         <v>343.8048081163522</v>
       </c>
       <c r="L42" t="n">
-        <v>59.80203776777144</v>
+        <v>59.80203776777171</v>
       </c>
       <c r="M42" t="n">
         <v>605.4165828749999</v>
@@ -11373,10 +11373,10 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J45" t="n">
-        <v>163.9183459425315</v>
+        <v>78.40631651871288</v>
       </c>
       <c r="K45" t="n">
-        <v>343.8048081163522</v>
+        <v>69.86666604321765</v>
       </c>
       <c r="L45" t="n">
         <v>482.0924488944969</v>
@@ -11388,13 +11388,13 @@
         <v>623.1450866466196</v>
       </c>
       <c r="O45" t="n">
-        <v>89.73060393302302</v>
+        <v>512.0210150597484</v>
       </c>
       <c r="P45" t="n">
         <v>414.0015992319183</v>
       </c>
       <c r="Q45" t="n">
-        <v>273.1004740566038</v>
+        <v>210.2602344268316</v>
       </c>
       <c r="R45" t="n">
         <v>59.17817075471706</v>
@@ -23255,7 +23255,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>288.0116379846401</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23264,7 +23264,7 @@
         <v>285.9110494305201</v>
       </c>
       <c r="E11" t="n">
-        <v>243.4112802739376</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -23315,13 +23315,13 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>250.4248056684895</v>
       </c>
       <c r="W11" t="n">
         <v>275.7249051464464</v>
       </c>
       <c r="X11" t="n">
-        <v>295.025163379193</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23416,7 +23416,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>84.73513414840795</v>
+        <v>84.73513414840789</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23425,7 +23425,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>67.7711727299521</v>
+        <v>67.77117272995204</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23434,7 +23434,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>52.99855633999337</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>55.00703014733526</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23476,13 +23476,13 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>200.1101617732463</v>
       </c>
       <c r="X13" t="n">
-        <v>145.7552637690494</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>78.95009156267815</v>
+        <v>132.600780045809</v>
       </c>
     </row>
     <row r="14">
@@ -23492,19 +23492,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>306.9184284283103</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>46.79136334489107</v>
       </c>
       <c r="D14" t="n">
-        <v>285.9110494305201</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>326.8250030884028</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -23513,7 +23513,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>69.10541545958799</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23549,19 +23549,19 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>169.1127977000022</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>250.4248056684895</v>
       </c>
       <c r="W14" t="n">
-        <v>275.7249051464464</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>162.9092670181494</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>306.4217611753917</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23650,28 +23650,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>98.53513930300741</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>68.35649854598628</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>67.30424840176573</v>
       </c>
       <c r="F16" t="n">
-        <v>67.77117272995203</v>
+        <v>67.77117272995204</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>72.64954213184635</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>36.52227174117552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23716,10 +23716,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>145.7552637690493</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>52.31335209103879</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23972,7 +23972,7 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>-1.304070691131495e-12</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -23981,7 +23981,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>-8.526512829121202e-13</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -26311,13 +26311,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>287203.7368152391</v>
+        <v>287203.7368152392</v>
       </c>
       <c r="C2" t="n">
         <v>287203.7368152391</v>
       </c>
       <c r="D2" t="n">
-        <v>287859.0226853182</v>
+        <v>287859.0226853181</v>
       </c>
       <c r="E2" t="n">
         <v>250654.9063598727</v>
@@ -26326,22 +26326,22 @@
         <v>250654.9063598726</v>
       </c>
       <c r="G2" t="n">
+        <v>287859.0226853181</v>
+      </c>
+      <c r="H2" t="n">
         <v>287859.0226853182</v>
-      </c>
-      <c r="H2" t="n">
-        <v>287859.0226853181</v>
       </c>
       <c r="I2" t="n">
         <v>287859.0226853181</v>
       </c>
       <c r="J2" t="n">
-        <v>287859.0226853183</v>
+        <v>287859.0226853176</v>
       </c>
       <c r="K2" t="n">
         <v>287859.0226853183</v>
       </c>
       <c r="L2" t="n">
-        <v>287859.0226853178</v>
+        <v>287859.0226853179</v>
       </c>
       <c r="M2" t="n">
         <v>287859.0226853181</v>
@@ -26372,28 +26372,28 @@
         <v>42161.62330376123</v>
       </c>
       <c r="E3" t="n">
-        <v>322386.0722302555</v>
+        <v>322386.0722302553</v>
       </c>
       <c r="F3" t="n">
-        <v>6.628748118310593e-11</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>58912.39901545756</v>
+        <v>58912.39901545757</v>
       </c>
       <c r="H3" t="n">
-        <v>4.547473508864641e-11</v>
+        <v>1.13686837721616e-10</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>77501.85774473392</v>
+        <v>77501.85774473393</v>
       </c>
       <c r="K3" t="n">
-        <v>5.145141455743993e-11</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>87005.12716444278</v>
+        <v>87005.12716444276</v>
       </c>
       <c r="M3" t="n">
         <v>129522.6626819164</v>
@@ -26402,7 +26402,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>23917.25317727194</v>
+        <v>23917.25317727193</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26433,25 +26433,25 @@
         <v>267240.5926786488</v>
       </c>
       <c r="H4" t="n">
-        <v>267240.5926786488</v>
+        <v>267240.5926786489</v>
       </c>
       <c r="I4" t="n">
         <v>267240.5926786488</v>
       </c>
       <c r="J4" t="n">
-        <v>268306.501281433</v>
+        <v>268306.5012814332</v>
       </c>
       <c r="K4" t="n">
-        <v>268306.5012814331</v>
+        <v>268306.5012814332</v>
       </c>
       <c r="L4" t="n">
-        <v>267580.4434132221</v>
+        <v>267580.443413222</v>
       </c>
       <c r="M4" t="n">
         <v>267240.5926786488</v>
       </c>
       <c r="N4" t="n">
-        <v>267240.5926786487</v>
+        <v>267240.5926786488</v>
       </c>
       <c r="O4" t="n">
         <v>267240.5926786488</v>
@@ -26482,7 +26482,7 @@
         <v>50142.96023133422</v>
       </c>
       <c r="G5" t="n">
-        <v>56333.84332237236</v>
+        <v>56333.84332237234</v>
       </c>
       <c r="H5" t="n">
         <v>56333.84332237236</v>
@@ -26494,22 +26494,22 @@
         <v>64305.78513671568</v>
       </c>
       <c r="K5" t="n">
-        <v>64305.78513671568</v>
+        <v>64305.78513671567</v>
       </c>
       <c r="L5" t="n">
-        <v>59005.59711287812</v>
+        <v>59005.59711287811</v>
       </c>
       <c r="M5" t="n">
-        <v>56333.84332237236</v>
+        <v>56333.84332237235</v>
       </c>
       <c r="N5" t="n">
-        <v>56333.84332237234</v>
+        <v>56333.84332237235</v>
       </c>
       <c r="O5" t="n">
         <v>56333.84332237236</v>
       </c>
       <c r="P5" t="n">
-        <v>56333.84332237236</v>
+        <v>56333.84332237234</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-129882.2735567019</v>
+        <v>-129886.6421291689</v>
       </c>
       <c r="C6" t="n">
-        <v>-129882.2735567018</v>
+        <v>-129886.642129169</v>
       </c>
       <c r="D6" t="n">
-        <v>-158439.8078891672</v>
+        <v>-158439.8078891673</v>
       </c>
       <c r="E6" t="n">
-        <v>-332674.0273883977</v>
+        <v>-332922.0548305672</v>
       </c>
       <c r="F6" t="n">
-        <v>-10287.95515814239</v>
+        <v>-10535.98260031196</v>
       </c>
       <c r="G6" t="n">
-        <v>-94627.81233116047</v>
+        <v>-94627.8123311606</v>
       </c>
       <c r="H6" t="n">
+        <v>-35715.41331570316</v>
+      </c>
+      <c r="I6" t="n">
         <v>-35715.4133157031</v>
       </c>
-      <c r="I6" t="n">
-        <v>-35715.41331570304</v>
-      </c>
       <c r="J6" t="n">
-        <v>-122255.1214775644</v>
+        <v>-122255.1214775652</v>
       </c>
       <c r="K6" t="n">
-        <v>-44753.26373283058</v>
+        <v>-44753.26373283051</v>
       </c>
       <c r="L6" t="n">
-        <v>-125732.1450052251</v>
+        <v>-125732.145005225</v>
       </c>
       <c r="M6" t="n">
-        <v>-165238.0759976194</v>
+        <v>-165238.0759976195</v>
       </c>
       <c r="N6" t="n">
-        <v>-35715.4133157028</v>
+        <v>-35715.41331570292</v>
       </c>
       <c r="O6" t="n">
-        <v>-59632.66649297491</v>
+        <v>-59632.66649297497</v>
       </c>
       <c r="P6" t="n">
-        <v>-35715.41331570299</v>
+        <v>-35715.41331570297</v>
       </c>
     </row>
   </sheetData>
@@ -26692,19 +26692,19 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>83.18467569452855</v>
+        <v>83.18467569452861</v>
       </c>
       <c r="F2" t="n">
-        <v>83.18467569452862</v>
+        <v>83.18467569452861</v>
       </c>
       <c r="G2" t="n">
         <v>156.8251744638506</v>
       </c>
       <c r="H2" t="n">
-        <v>156.8251744638506</v>
+        <v>156.8251744638507</v>
       </c>
       <c r="I2" t="n">
-        <v>156.8251744638506</v>
+        <v>156.8251744638507</v>
       </c>
       <c r="J2" t="n">
         <v>103.5370652409119</v>
@@ -26719,10 +26719,10 @@
         <v>156.8251744638506</v>
       </c>
       <c r="N2" t="n">
-        <v>156.8251744638505</v>
+        <v>156.8251744638506</v>
       </c>
       <c r="O2" t="n">
-        <v>156.8251744638506</v>
+        <v>156.8251744638507</v>
       </c>
       <c r="P2" t="n">
         <v>156.8251744638506</v>
@@ -26744,7 +26744,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>121.2952530376076</v>
+        <v>121.2952530376075</v>
       </c>
       <c r="F3" t="n">
         <v>121.2952530376075</v>
@@ -26753,31 +26753,31 @@
         <v>121.2952530376075</v>
       </c>
       <c r="H3" t="n">
-        <v>121.2952530376076</v>
+        <v>121.2952530376075</v>
       </c>
       <c r="I3" t="n">
-        <v>121.2952530376076</v>
+        <v>121.2952530376075</v>
       </c>
       <c r="J3" t="n">
-        <v>121.2952530376077</v>
+        <v>121.2952530376075</v>
       </c>
       <c r="K3" t="n">
-        <v>121.2952530376077</v>
+        <v>121.2952530376075</v>
       </c>
       <c r="L3" t="n">
-        <v>121.2952530376076</v>
+        <v>121.2952530376075</v>
       </c>
       <c r="M3" t="n">
-        <v>121.2952530376076</v>
+        <v>121.2952530376075</v>
       </c>
       <c r="N3" t="n">
-        <v>121.2952530376076</v>
+        <v>121.2952530376075</v>
       </c>
       <c r="O3" t="n">
-        <v>121.2952530376076</v>
+        <v>121.2952530376075</v>
       </c>
       <c r="P3" t="n">
-        <v>121.2952530376076</v>
+        <v>121.2952530376075</v>
       </c>
     </row>
     <row r="4">
@@ -26796,16 +26796,16 @@
         <v>135.7293992974318</v>
       </c>
       <c r="E4" t="n">
-        <v>666.2084081274845</v>
+        <v>666.2084081274844</v>
       </c>
       <c r="F4" t="n">
         <v>666.2084081274844</v>
       </c>
       <c r="G4" t="n">
-        <v>666.2084081274845</v>
+        <v>666.2084081274844</v>
       </c>
       <c r="H4" t="n">
-        <v>666.2084081274845</v>
+        <v>666.2084081274844</v>
       </c>
       <c r="I4" t="n">
         <v>666.2084081274844</v>
@@ -26814,22 +26814,22 @@
         <v>871.0080770190395</v>
       </c>
       <c r="K4" t="n">
-        <v>871.0080770190395</v>
+        <v>871.0080770190394</v>
       </c>
       <c r="L4" t="n">
-        <v>735.2786777216078</v>
+        <v>735.2786777216077</v>
       </c>
       <c r="M4" t="n">
-        <v>666.2084081274845</v>
+        <v>666.2084081274843</v>
       </c>
       <c r="N4" t="n">
+        <v>666.2084081274843</v>
+      </c>
+      <c r="O4" t="n">
         <v>666.2084081274844</v>
       </c>
-      <c r="O4" t="n">
-        <v>666.2084081274845</v>
-      </c>
       <c r="P4" t="n">
-        <v>666.2084081274845</v>
+        <v>666.2084081274844</v>
       </c>
     </row>
   </sheetData>
@@ -26914,37 +26914,37 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>83.18467569452855</v>
+        <v>83.18467569452861</v>
       </c>
       <c r="F2" t="n">
-        <v>8.28593514788824e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>73.64049876932195</v>
+        <v>73.64049876932197</v>
       </c>
       <c r="H2" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>1.4210854715202e-13</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>29.89656647158982</v>
+        <v>29.89656647158985</v>
       </c>
       <c r="K2" t="n">
-        <v>6.431426819679991e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>108.7564089555535</v>
       </c>
       <c r="M2" t="n">
-        <v>18.17219903670724</v>
+        <v>18.17219903670735</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>29.89656647158992</v>
+        <v>29.89656647158991</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>121.2952530376076</v>
+        <v>121.2952530376075</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>135.7293992974318</v>
       </c>
       <c r="E4" t="n">
-        <v>530.4790088300527</v>
+        <v>530.4790088300526</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>461.4087392359295</v>
+        <v>461.4087392359293</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,25 +27151,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>83.18467569452855</v>
+        <v>83.18467569452861</v>
       </c>
       <c r="K2" t="n">
-        <v>8.28593514788824e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>73.64049876932195</v>
+        <v>73.64049876932197</v>
       </c>
       <c r="M2" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>1.4210854715202e-13</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>29.89656647158982</v>
+        <v>29.89656647158985</v>
       </c>
       <c r="P2" t="n">
-        <v>6.431426819679991e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27264,7 +27264,7 @@
         <v>135.7293992974318</v>
       </c>
       <c r="M4" t="n">
-        <v>530.4790088300527</v>
+        <v>530.4790088300526</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27850,25 +27850,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>390.1031041228389</v>
+        <v>254.3737048254072</v>
       </c>
       <c r="C8" t="n">
-        <v>370.2484952817332</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D8" t="n">
-        <v>233.3663258276169</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E8" t="n">
         <v>390.8378626949542</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>302.4021705621074</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>193.763662361232</v>
+        <v>329.4930616586638</v>
       </c>
       <c r="I8" t="n">
         <v>171.0890268032919</v>
@@ -27898,10 +27898,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S8" t="n">
-        <v>49.6272863185178</v>
+        <v>185.3566856159496</v>
       </c>
       <c r="T8" t="n">
         <v>222.1153568062989</v>
@@ -27916,10 +27916,10 @@
         <v>358.909580840975</v>
       </c>
       <c r="X8" t="n">
-        <v>378.2098390737216</v>
+        <v>242.4804397762898</v>
       </c>
       <c r="Y8" t="n">
-        <v>389.6064368699203</v>
+        <v>253.8770375724886</v>
       </c>
     </row>
     <row r="9">
@@ -27941,7 +27941,7 @@
         <v>145.5577298436975</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>133.3468600696244</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -27950,7 +27950,7 @@
         <v>98.93847887876893</v>
       </c>
       <c r="I9" t="n">
-        <v>67.69846245683961</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27983,16 +27983,16 @@
         <v>151.2714921173871</v>
       </c>
       <c r="T9" t="n">
-        <v>186.7982527956746</v>
+        <v>51.06885349824287</v>
       </c>
       <c r="U9" t="n">
         <v>80.58044518024116</v>
       </c>
       <c r="V9" t="n">
-        <v>226.1116663261494</v>
+        <v>165.9714895613276</v>
       </c>
       <c r="W9" t="n">
-        <v>108.6815316295543</v>
+        <v>238.9027100790231</v>
       </c>
       <c r="X9" t="n">
         <v>195.9378182409833</v>
@@ -28014,16 +28014,16 @@
         <v>167.9198098429365</v>
       </c>
       <c r="D10" t="n">
-        <v>151.5411742405149</v>
+        <v>15.81177494308312</v>
       </c>
       <c r="E10" t="n">
-        <v>14.75952479886257</v>
+        <v>150.4889240962943</v>
       </c>
       <c r="F10" t="n">
         <v>150.9558484244806</v>
       </c>
       <c r="G10" t="n">
-        <v>167.2305511458285</v>
+        <v>31.50115184839672</v>
       </c>
       <c r="H10" t="n">
         <v>157.7789187685189</v>
@@ -28032,7 +28032,7 @@
         <v>7.031614655916485</v>
       </c>
       <c r="J10" t="n">
-        <v>59.456666199969</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28056,7 +28056,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>12.2971642743338</v>
+        <v>148.0265635717656</v>
       </c>
       <c r="S10" t="n">
         <v>211.5726649703493</v>
@@ -28068,13 +28068,13 @@
         <v>284.3183371157911</v>
       </c>
       <c r="V10" t="n">
-        <v>176.7294644288317</v>
+        <v>258.1279513971616</v>
       </c>
       <c r="W10" t="n">
         <v>283.2948374677749</v>
       </c>
       <c r="X10" t="n">
-        <v>228.939939463578</v>
+        <v>206.9981186952171</v>
       </c>
       <c r="Y10" t="n">
         <v>219.8148072196457</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>83.18467569452855</v>
+        <v>83.18467569452861</v>
       </c>
       <c r="C11" t="n">
-        <v>83.18467569452855</v>
+        <v>83.18467569452861</v>
       </c>
       <c r="D11" t="n">
-        <v>83.18467569452855</v>
+        <v>83.18467569452861</v>
       </c>
       <c r="E11" t="n">
-        <v>83.18467569452855</v>
+        <v>83.18467569452861</v>
       </c>
       <c r="F11" t="n">
-        <v>83.18467569452855</v>
+        <v>83.18467569452861</v>
       </c>
       <c r="G11" t="n">
-        <v>83.18467569452855</v>
+        <v>83.18467569452861</v>
       </c>
       <c r="H11" t="n">
-        <v>83.18467569452855</v>
+        <v>83.18467569452861</v>
       </c>
       <c r="I11" t="n">
-        <v>83.18467569452855</v>
+        <v>83.18467569452861</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28135,28 +28135,28 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>59.10149986574389</v>
+        <v>59.10149986574392</v>
       </c>
       <c r="S11" t="n">
-        <v>83.18467569452855</v>
+        <v>83.18467569452861</v>
       </c>
       <c r="T11" t="n">
-        <v>83.18467569452855</v>
+        <v>83.18467569452861</v>
       </c>
       <c r="U11" t="n">
-        <v>83.18467569452855</v>
+        <v>83.18467569452861</v>
       </c>
       <c r="V11" t="n">
-        <v>83.18467569452855</v>
+        <v>83.18467569452861</v>
       </c>
       <c r="W11" t="n">
-        <v>83.18467569452855</v>
+        <v>83.18467569452861</v>
       </c>
       <c r="X11" t="n">
-        <v>83.18467569452855</v>
+        <v>83.18467569452861</v>
       </c>
       <c r="Y11" t="n">
-        <v>83.18467569452855</v>
+        <v>83.18467569452861</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>83.18467569452855</v>
+        <v>83.18467569452861</v>
       </c>
       <c r="C13" t="n">
-        <v>83.18467569452855</v>
+        <v>83.18467569452861</v>
       </c>
       <c r="D13" t="n">
-        <v>83.18467569452855</v>
+        <v>83.18467569452861</v>
       </c>
       <c r="E13" t="n">
-        <v>83.18467569452855</v>
+        <v>83.18467569452861</v>
       </c>
       <c r="F13" t="n">
-        <v>83.18467569452855</v>
+        <v>83.18467569452861</v>
       </c>
       <c r="G13" t="n">
-        <v>83.18467569452855</v>
+        <v>83.18467569452861</v>
       </c>
       <c r="H13" t="n">
-        <v>83.18467569452855</v>
+        <v>83.18467569452861</v>
       </c>
       <c r="I13" t="n">
-        <v>83.18467569452855</v>
+        <v>83.18467569452861</v>
       </c>
       <c r="J13" t="n">
-        <v>83.18467569452855</v>
+        <v>83.18467569452861</v>
       </c>
       <c r="K13" t="n">
-        <v>83.18467569452855</v>
+        <v>83.18467569452861</v>
       </c>
       <c r="L13" t="n">
-        <v>83.18467569452855</v>
+        <v>83.18467569452861</v>
       </c>
       <c r="M13" t="n">
-        <v>83.18467569452855</v>
+        <v>83.18467569452861</v>
       </c>
       <c r="N13" t="n">
-        <v>83.18467569452855</v>
+        <v>83.18467569452861</v>
       </c>
       <c r="O13" t="n">
-        <v>83.18467569452855</v>
+        <v>83.18467569452861</v>
       </c>
       <c r="P13" t="n">
-        <v>83.18467569452855</v>
+        <v>83.18467569452861</v>
       </c>
       <c r="Q13" t="n">
-        <v>83.18467569452855</v>
+        <v>83.18467569452861</v>
       </c>
       <c r="R13" t="n">
-        <v>83.18467569452855</v>
+        <v>83.18467569452861</v>
       </c>
       <c r="S13" t="n">
-        <v>83.18467569452855</v>
+        <v>83.18467569452861</v>
       </c>
       <c r="T13" t="n">
-        <v>83.18467569452855</v>
+        <v>83.18467569452861</v>
       </c>
       <c r="U13" t="n">
-        <v>83.18467569452855</v>
+        <v>83.18467569452861</v>
       </c>
       <c r="V13" t="n">
-        <v>83.18467569452855</v>
+        <v>83.18467569452861</v>
       </c>
       <c r="W13" t="n">
-        <v>83.18467569452855</v>
+        <v>83.18467569452861</v>
       </c>
       <c r="X13" t="n">
-        <v>83.18467569452855</v>
+        <v>83.18467569452861</v>
       </c>
       <c r="Y13" t="n">
-        <v>83.18467569452855</v>
+        <v>83.18467569452861</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>83.18467569452862</v>
+        <v>83.18467569452861</v>
       </c>
       <c r="C14" t="n">
-        <v>83.18467569452862</v>
+        <v>83.18467569452861</v>
       </c>
       <c r="D14" t="n">
-        <v>83.18467569452862</v>
+        <v>83.18467569452861</v>
       </c>
       <c r="E14" t="n">
-        <v>83.18467569452862</v>
+        <v>83.18467569452861</v>
       </c>
       <c r="F14" t="n">
-        <v>83.18467569452862</v>
+        <v>83.18467569452861</v>
       </c>
       <c r="G14" t="n">
-        <v>83.18467569452862</v>
+        <v>83.18467569452861</v>
       </c>
       <c r="H14" t="n">
-        <v>83.18467569452862</v>
+        <v>83.18467569452861</v>
       </c>
       <c r="I14" t="n">
-        <v>83.18467569452862</v>
+        <v>83.18467569452861</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>59.10149986574392</v>
       </c>
       <c r="S14" t="n">
-        <v>83.18467569452862</v>
+        <v>83.18467569452861</v>
       </c>
       <c r="T14" t="n">
-        <v>83.18467569452862</v>
+        <v>83.18467569452861</v>
       </c>
       <c r="U14" t="n">
-        <v>83.18467569452862</v>
+        <v>83.18467569452861</v>
       </c>
       <c r="V14" t="n">
-        <v>83.18467569452862</v>
+        <v>83.18467569452861</v>
       </c>
       <c r="W14" t="n">
-        <v>83.18467569452862</v>
+        <v>83.18467569452861</v>
       </c>
       <c r="X14" t="n">
-        <v>83.18467569452862</v>
+        <v>83.18467569452861</v>
       </c>
       <c r="Y14" t="n">
-        <v>83.18467569452862</v>
+        <v>83.18467569452861</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>83.18467569452862</v>
+        <v>83.18467569452861</v>
       </c>
       <c r="C16" t="n">
-        <v>83.18467569452862</v>
+        <v>83.18467569452861</v>
       </c>
       <c r="D16" t="n">
-        <v>83.18467569452862</v>
+        <v>83.18467569452861</v>
       </c>
       <c r="E16" t="n">
-        <v>83.18467569452862</v>
+        <v>83.18467569452861</v>
       </c>
       <c r="F16" t="n">
-        <v>83.18467569452862</v>
+        <v>83.18467569452861</v>
       </c>
       <c r="G16" t="n">
-        <v>83.18467569452862</v>
+        <v>83.18467569452861</v>
       </c>
       <c r="H16" t="n">
-        <v>83.18467569452862</v>
+        <v>83.18467569452861</v>
       </c>
       <c r="I16" t="n">
-        <v>83.18467569452862</v>
+        <v>83.18467569452861</v>
       </c>
       <c r="J16" t="n">
-        <v>83.18467569452862</v>
+        <v>83.18467569452861</v>
       </c>
       <c r="K16" t="n">
-        <v>83.18467569452862</v>
+        <v>83.18467569452861</v>
       </c>
       <c r="L16" t="n">
-        <v>83.18467569452862</v>
+        <v>83.18467569452861</v>
       </c>
       <c r="M16" t="n">
-        <v>83.18467569452862</v>
+        <v>83.18467569452861</v>
       </c>
       <c r="N16" t="n">
-        <v>83.18467569452862</v>
+        <v>83.18467569452861</v>
       </c>
       <c r="O16" t="n">
-        <v>83.18467569452862</v>
+        <v>83.18467569452861</v>
       </c>
       <c r="P16" t="n">
-        <v>83.18467569452862</v>
+        <v>83.18467569452861</v>
       </c>
       <c r="Q16" t="n">
-        <v>83.18467569452862</v>
+        <v>83.18467569452861</v>
       </c>
       <c r="R16" t="n">
-        <v>83.18467569452862</v>
+        <v>83.18467569452861</v>
       </c>
       <c r="S16" t="n">
-        <v>83.18467569452862</v>
+        <v>83.18467569452861</v>
       </c>
       <c r="T16" t="n">
-        <v>83.18467569452862</v>
+        <v>83.18467569452861</v>
       </c>
       <c r="U16" t="n">
-        <v>83.18467569452862</v>
+        <v>83.18467569452861</v>
       </c>
       <c r="V16" t="n">
-        <v>83.18467569452862</v>
+        <v>83.18467569452861</v>
       </c>
       <c r="W16" t="n">
-        <v>83.18467569452862</v>
+        <v>83.18467569452861</v>
       </c>
       <c r="X16" t="n">
-        <v>83.18467569452862</v>
+        <v>83.18467569452861</v>
       </c>
       <c r="Y16" t="n">
-        <v>83.18467569452862</v>
+        <v>83.18467569452861</v>
       </c>
     </row>
     <row r="17">
@@ -28722,7 +28722,7 @@
         <v>156.8251744638506</v>
       </c>
       <c r="C19" t="n">
-        <v>156.8251744638506</v>
+        <v>111.2260870892642</v>
       </c>
       <c r="D19" t="n">
         <v>151.5411742405149</v>
@@ -28785,7 +28785,7 @@
         <v>156.8251744638506</v>
       </c>
       <c r="X19" t="n">
-        <v>111.2260870892642</v>
+        <v>156.8251744638506</v>
       </c>
       <c r="Y19" t="n">
         <v>156.8251744638506</v>
@@ -28798,25 +28798,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>156.8251744638506</v>
+        <v>156.8251744638507</v>
       </c>
       <c r="C20" t="n">
-        <v>156.8251744638506</v>
+        <v>156.8251744638507</v>
       </c>
       <c r="D20" t="n">
-        <v>156.8251744638506</v>
+        <v>156.8251744638507</v>
       </c>
       <c r="E20" t="n">
-        <v>156.8251744638506</v>
+        <v>156.8251744638507</v>
       </c>
       <c r="F20" t="n">
-        <v>156.8251744638506</v>
+        <v>156.8251744638507</v>
       </c>
       <c r="G20" t="n">
-        <v>156.8251744638506</v>
+        <v>156.8251744638507</v>
       </c>
       <c r="H20" t="n">
-        <v>156.8251744638506</v>
+        <v>156.8251744638507</v>
       </c>
       <c r="I20" t="n">
         <v>152.2900911541166</v>
@@ -28846,28 +28846,28 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>59.1014998657439</v>
+        <v>59.10149986574392</v>
       </c>
       <c r="S20" t="n">
-        <v>156.8251744638506</v>
+        <v>156.8251744638507</v>
       </c>
       <c r="T20" t="n">
-        <v>156.8251744638506</v>
+        <v>156.8251744638507</v>
       </c>
       <c r="U20" t="n">
-        <v>156.8251744638506</v>
+        <v>156.8251744638507</v>
       </c>
       <c r="V20" t="n">
-        <v>156.8251744638506</v>
+        <v>156.8251744638507</v>
       </c>
       <c r="W20" t="n">
-        <v>156.8251744638506</v>
+        <v>156.8251744638507</v>
       </c>
       <c r="X20" t="n">
-        <v>156.8251744638506</v>
+        <v>156.8251744638507</v>
       </c>
       <c r="Y20" t="n">
-        <v>156.8251744638506</v>
+        <v>156.8251744638507</v>
       </c>
     </row>
     <row r="21">
@@ -28956,22 +28956,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>156.8251744638506</v>
+        <v>156.8251744638507</v>
       </c>
       <c r="C22" t="n">
-        <v>156.8251744638506</v>
+        <v>111.226087089263</v>
       </c>
       <c r="D22" t="n">
         <v>151.5411742405149</v>
       </c>
       <c r="E22" t="n">
-        <v>104.8898367217072</v>
+        <v>150.4889240962943</v>
       </c>
       <c r="F22" t="n">
         <v>150.9558484244806</v>
       </c>
       <c r="G22" t="n">
-        <v>156.8251744638506</v>
+        <v>156.8251744638507</v>
       </c>
       <c r="H22" t="n">
         <v>155.834217826375</v>
@@ -28980,7 +28980,7 @@
         <v>136.1832320345219</v>
       </c>
       <c r="J22" t="n">
-        <v>43.99251566105958</v>
+        <v>43.9925156610596</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -29001,31 +29001,31 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>19.8363847241691</v>
+        <v>19.83638472416912</v>
       </c>
       <c r="R22" t="n">
         <v>138.1917058418638</v>
       </c>
       <c r="S22" t="n">
-        <v>156.8251744638506</v>
+        <v>156.8251744638507</v>
       </c>
       <c r="T22" t="n">
-        <v>156.8251744638506</v>
+        <v>156.8251744638507</v>
       </c>
       <c r="U22" t="n">
-        <v>156.8251744638506</v>
+        <v>156.8251744638507</v>
       </c>
       <c r="V22" t="n">
-        <v>156.8251744638506</v>
+        <v>156.8251744638507</v>
       </c>
       <c r="W22" t="n">
-        <v>156.8251744638506</v>
+        <v>156.8251744638507</v>
       </c>
       <c r="X22" t="n">
-        <v>156.8251744638506</v>
+        <v>156.8251744638507</v>
       </c>
       <c r="Y22" t="n">
-        <v>156.8251744638506</v>
+        <v>156.8251744638507</v>
       </c>
     </row>
     <row r="23">
@@ -29035,25 +29035,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>156.8251744638506</v>
+        <v>156.8251744638507</v>
       </c>
       <c r="C23" t="n">
-        <v>156.8251744638506</v>
+        <v>156.8251744638507</v>
       </c>
       <c r="D23" t="n">
-        <v>156.8251744638506</v>
+        <v>156.8251744638507</v>
       </c>
       <c r="E23" t="n">
-        <v>156.8251744638506</v>
+        <v>156.8251744638507</v>
       </c>
       <c r="F23" t="n">
-        <v>156.8251744638506</v>
+        <v>156.8251744638507</v>
       </c>
       <c r="G23" t="n">
-        <v>156.8251744638506</v>
+        <v>156.8251744638507</v>
       </c>
       <c r="H23" t="n">
-        <v>156.8251744638506</v>
+        <v>156.8251744638507</v>
       </c>
       <c r="I23" t="n">
         <v>152.2900911541166</v>
@@ -29083,28 +29083,28 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>59.1014998657439</v>
+        <v>59.10149986574392</v>
       </c>
       <c r="S23" t="n">
-        <v>156.8251744638506</v>
+        <v>156.8251744638507</v>
       </c>
       <c r="T23" t="n">
-        <v>156.8251744638506</v>
+        <v>156.8251744638507</v>
       </c>
       <c r="U23" t="n">
-        <v>156.8251744638506</v>
+        <v>156.8251744638507</v>
       </c>
       <c r="V23" t="n">
-        <v>156.8251744638506</v>
+        <v>156.8251744638507</v>
       </c>
       <c r="W23" t="n">
-        <v>156.8251744638506</v>
+        <v>156.8251744638507</v>
       </c>
       <c r="X23" t="n">
-        <v>156.8251744638506</v>
+        <v>156.8251744638507</v>
       </c>
       <c r="Y23" t="n">
-        <v>156.8251744638506</v>
+        <v>156.8251744638507</v>
       </c>
     </row>
     <row r="24">
@@ -29193,10 +29193,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>156.8251744638506</v>
+        <v>156.8251744638507</v>
       </c>
       <c r="C25" t="n">
-        <v>156.8251744638506</v>
+        <v>156.8251744638507</v>
       </c>
       <c r="D25" t="n">
         <v>151.5411742405149</v>
@@ -29208,7 +29208,7 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G25" t="n">
-        <v>111.2260870892635</v>
+        <v>156.8251744638507</v>
       </c>
       <c r="H25" t="n">
         <v>155.834217826375</v>
@@ -29217,7 +29217,7 @@
         <v>136.1832320345219</v>
       </c>
       <c r="J25" t="n">
-        <v>43.99251566105958</v>
+        <v>43.9925156610596</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -29238,31 +29238,31 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>19.8363847241691</v>
+        <v>19.83638472416912</v>
       </c>
       <c r="R25" t="n">
         <v>138.1917058418638</v>
       </c>
       <c r="S25" t="n">
-        <v>156.8251744638506</v>
+        <v>111.2260870892632</v>
       </c>
       <c r="T25" t="n">
-        <v>156.8251744638506</v>
+        <v>156.8251744638507</v>
       </c>
       <c r="U25" t="n">
-        <v>156.8251744638506</v>
+        <v>156.8251744638507</v>
       </c>
       <c r="V25" t="n">
-        <v>156.8251744638506</v>
+        <v>156.8251744638507</v>
       </c>
       <c r="W25" t="n">
-        <v>156.8251744638506</v>
+        <v>156.8251744638507</v>
       </c>
       <c r="X25" t="n">
-        <v>156.8251744638506</v>
+        <v>156.8251744638507</v>
       </c>
       <c r="Y25" t="n">
-        <v>156.8251744638506</v>
+        <v>156.8251744638507</v>
       </c>
     </row>
     <row r="26">
@@ -29305,13 +29305,13 @@
         <v>103.5370652409119</v>
       </c>
       <c r="M26" t="n">
-        <v>41.72891940803976</v>
+        <v>103.5370652409119</v>
       </c>
       <c r="N26" t="n">
         <v>103.5370652409119</v>
       </c>
       <c r="O26" t="n">
-        <v>103.5370652409119</v>
+        <v>41.72891940804021</v>
       </c>
       <c r="P26" t="n">
         <v>103.5370652409119</v>
@@ -29463,7 +29463,7 @@
         <v>103.5370652409119</v>
       </c>
       <c r="M28" t="n">
-        <v>103.5370652409119</v>
+        <v>103.5370652409117</v>
       </c>
       <c r="N28" t="n">
         <v>103.5370652409119</v>
@@ -29551,7 +29551,7 @@
         <v>103.5370652409119</v>
       </c>
       <c r="P29" t="n">
-        <v>41.72891940803987</v>
+        <v>41.72891940803999</v>
       </c>
       <c r="Q29" t="n">
         <v>103.5370652409119</v>
@@ -29779,7 +29779,7 @@
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>55.28590942455173</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
@@ -29788,13 +29788,13 @@
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>138.6529754271434</v>
       </c>
       <c r="Q32" t="n">
-        <v>138.6529754271434</v>
+        <v>134.8373849859506</v>
       </c>
       <c r="R32" t="n">
-        <v>138.6529754271434</v>
+        <v>59.10149986574392</v>
       </c>
       <c r="S32" t="n">
         <v>138.6529754271434</v>
@@ -29928,7 +29928,7 @@
         <v>136.1832320345219</v>
       </c>
       <c r="J34" t="n">
-        <v>43.99251566105958</v>
+        <v>138.6529754271434</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -29943,13 +29943,13 @@
         <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>74.91779920728365</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>138.6529754271434</v>
+        <v>118.9103148683432</v>
       </c>
       <c r="R34" t="n">
         <v>138.6529754271434</v>
@@ -30031,7 +30031,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>59.1014998657439</v>
+        <v>59.10149986574392</v>
       </c>
       <c r="S35" t="n">
         <v>156.8251744638506</v>
@@ -30159,13 +30159,13 @@
         <v>156.8251744638506</v>
       </c>
       <c r="H37" t="n">
-        <v>110.2351304517883</v>
+        <v>155.834217826375</v>
       </c>
       <c r="I37" t="n">
-        <v>136.1832320345219</v>
+        <v>110.4205293841041</v>
       </c>
       <c r="J37" t="n">
-        <v>43.99251566105958</v>
+        <v>43.9925156610596</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -30186,7 +30186,7 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>19.8363847241691</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
         <v>138.1917058418638</v>
@@ -30220,25 +30220,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>156.8251744638505</v>
+        <v>156.8251744638506</v>
       </c>
       <c r="C38" t="n">
-        <v>156.8251744638505</v>
+        <v>156.8251744638506</v>
       </c>
       <c r="D38" t="n">
-        <v>156.8251744638505</v>
+        <v>156.8251744638506</v>
       </c>
       <c r="E38" t="n">
-        <v>156.8251744638505</v>
+        <v>156.8251744638506</v>
       </c>
       <c r="F38" t="n">
-        <v>156.8251744638505</v>
+        <v>156.8251744638506</v>
       </c>
       <c r="G38" t="n">
-        <v>156.8251744638505</v>
+        <v>156.8251744638506</v>
       </c>
       <c r="H38" t="n">
-        <v>156.8251744638505</v>
+        <v>156.8251744638506</v>
       </c>
       <c r="I38" t="n">
         <v>152.2900911541166</v>
@@ -30268,28 +30268,28 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>59.1014998657439</v>
+        <v>59.10149986574392</v>
       </c>
       <c r="S38" t="n">
-        <v>156.8251744638505</v>
+        <v>156.8251744638506</v>
       </c>
       <c r="T38" t="n">
-        <v>156.8251744638505</v>
+        <v>156.8251744638506</v>
       </c>
       <c r="U38" t="n">
-        <v>156.8251744638505</v>
+        <v>156.8251744638506</v>
       </c>
       <c r="V38" t="n">
-        <v>156.8251744638505</v>
+        <v>156.8251744638506</v>
       </c>
       <c r="W38" t="n">
-        <v>156.8251744638505</v>
+        <v>156.8251744638506</v>
       </c>
       <c r="X38" t="n">
-        <v>156.8251744638505</v>
+        <v>156.8251744638506</v>
       </c>
       <c r="Y38" t="n">
-        <v>156.8251744638505</v>
+        <v>156.8251744638506</v>
       </c>
     </row>
     <row r="39">
@@ -30378,10 +30378,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>156.8251744638505</v>
+        <v>156.8251744638506</v>
       </c>
       <c r="C40" t="n">
-        <v>156.8251744638505</v>
+        <v>156.8251744638506</v>
       </c>
       <c r="D40" t="n">
         <v>151.5411742405149</v>
@@ -30393,7 +30393,7 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G40" t="n">
-        <v>156.8251744638505</v>
+        <v>156.8251744638506</v>
       </c>
       <c r="H40" t="n">
         <v>155.834217826375</v>
@@ -30402,7 +30402,7 @@
         <v>136.1832320345219</v>
       </c>
       <c r="J40" t="n">
-        <v>43.99251566105958</v>
+        <v>43.9925156610596</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -30423,31 +30423,31 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>19.8363847241691</v>
+        <v>19.83638472416912</v>
       </c>
       <c r="R40" t="n">
         <v>138.1917058418638</v>
       </c>
       <c r="S40" t="n">
-        <v>156.8251744638505</v>
+        <v>156.8251744638506</v>
       </c>
       <c r="T40" t="n">
-        <v>111.2260870892646</v>
+        <v>111.2260870892639</v>
       </c>
       <c r="U40" t="n">
-        <v>156.8251744638505</v>
+        <v>156.8251744638506</v>
       </c>
       <c r="V40" t="n">
-        <v>156.8251744638505</v>
+        <v>156.8251744638506</v>
       </c>
       <c r="W40" t="n">
-        <v>156.8251744638505</v>
+        <v>156.8251744638506</v>
       </c>
       <c r="X40" t="n">
-        <v>156.8251744638505</v>
+        <v>156.8251744638506</v>
       </c>
       <c r="Y40" t="n">
-        <v>156.8251744638505</v>
+        <v>156.8251744638506</v>
       </c>
     </row>
     <row r="41">
@@ -30457,25 +30457,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>156.8251744638506</v>
+        <v>156.8251744638507</v>
       </c>
       <c r="C41" t="n">
-        <v>156.8251744638506</v>
+        <v>156.8251744638507</v>
       </c>
       <c r="D41" t="n">
-        <v>156.8251744638506</v>
+        <v>156.8251744638507</v>
       </c>
       <c r="E41" t="n">
-        <v>156.8251744638506</v>
+        <v>156.8251744638507</v>
       </c>
       <c r="F41" t="n">
-        <v>156.8251744638506</v>
+        <v>156.8251744638507</v>
       </c>
       <c r="G41" t="n">
-        <v>156.8251744638506</v>
+        <v>156.8251744638507</v>
       </c>
       <c r="H41" t="n">
-        <v>156.8251744638506</v>
+        <v>156.8251744638507</v>
       </c>
       <c r="I41" t="n">
         <v>152.2900911541166</v>
@@ -30505,28 +30505,28 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>59.1014998657439</v>
+        <v>59.10149986574392</v>
       </c>
       <c r="S41" t="n">
-        <v>156.8251744638506</v>
+        <v>156.8251744638507</v>
       </c>
       <c r="T41" t="n">
-        <v>156.8251744638506</v>
+        <v>156.8251744638507</v>
       </c>
       <c r="U41" t="n">
-        <v>156.8251744638506</v>
+        <v>156.8251744638507</v>
       </c>
       <c r="V41" t="n">
-        <v>156.8251744638506</v>
+        <v>156.8251744638507</v>
       </c>
       <c r="W41" t="n">
-        <v>156.8251744638506</v>
+        <v>156.8251744638507</v>
       </c>
       <c r="X41" t="n">
-        <v>156.8251744638506</v>
+        <v>156.8251744638507</v>
       </c>
       <c r="Y41" t="n">
-        <v>156.8251744638506</v>
+        <v>156.8251744638507</v>
       </c>
     </row>
     <row r="42">
@@ -30615,10 +30615,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>156.8251744638506</v>
+        <v>156.8251744638507</v>
       </c>
       <c r="C43" t="n">
-        <v>111.2260870892635</v>
+        <v>156.8251744638507</v>
       </c>
       <c r="D43" t="n">
         <v>151.5411742405149</v>
@@ -30630,7 +30630,7 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G43" t="n">
-        <v>156.8251744638506</v>
+        <v>156.8251744638507</v>
       </c>
       <c r="H43" t="n">
         <v>155.834217826375</v>
@@ -30639,7 +30639,7 @@
         <v>136.1832320345219</v>
       </c>
       <c r="J43" t="n">
-        <v>43.99251566105958</v>
+        <v>43.9925156610596</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -30660,31 +30660,31 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>19.8363847241691</v>
+        <v>19.83638472416912</v>
       </c>
       <c r="R43" t="n">
-        <v>138.1917058418638</v>
+        <v>92.59261846727654</v>
       </c>
       <c r="S43" t="n">
-        <v>156.8251744638506</v>
+        <v>156.8251744638507</v>
       </c>
       <c r="T43" t="n">
-        <v>156.8251744638506</v>
+        <v>156.8251744638507</v>
       </c>
       <c r="U43" t="n">
-        <v>156.8251744638506</v>
+        <v>156.8251744638507</v>
       </c>
       <c r="V43" t="n">
-        <v>156.8251744638506</v>
+        <v>156.8251744638507</v>
       </c>
       <c r="W43" t="n">
-        <v>156.8251744638506</v>
+        <v>156.8251744638507</v>
       </c>
       <c r="X43" t="n">
-        <v>156.8251744638506</v>
+        <v>156.8251744638507</v>
       </c>
       <c r="Y43" t="n">
-        <v>156.8251744638506</v>
+        <v>156.8251744638507</v>
       </c>
     </row>
     <row r="44">
@@ -30742,7 +30742,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>59.1014998657439</v>
+        <v>59.10149986574392</v>
       </c>
       <c r="S44" t="n">
         <v>156.8251744638506</v>
@@ -30870,13 +30870,13 @@
         <v>156.8251744638506</v>
       </c>
       <c r="H46" t="n">
-        <v>110.2351304517886</v>
+        <v>155.834217826375</v>
       </c>
       <c r="I46" t="n">
         <v>136.1832320345219</v>
       </c>
       <c r="J46" t="n">
-        <v>43.99251566105958</v>
+        <v>43.9925156610596</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -30897,7 +30897,7 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>19.8363847241691</v>
+        <v>19.83638472416912</v>
       </c>
       <c r="R46" t="n">
         <v>138.1917058418638</v>
@@ -30918,7 +30918,7 @@
         <v>156.8251744638506</v>
       </c>
       <c r="X46" t="n">
-        <v>156.8251744638506</v>
+        <v>111.2260870892642</v>
       </c>
       <c r="Y46" t="n">
         <v>156.8251744638506</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.4876191076888746</v>
+        <v>0.487619107688874</v>
       </c>
       <c r="H11" t="n">
-        <v>4.993829186618687</v>
+        <v>4.993829186618682</v>
       </c>
       <c r="I11" t="n">
-        <v>18.79893564917536</v>
+        <v>18.79893564917533</v>
       </c>
       <c r="J11" t="n">
-        <v>41.38606224120866</v>
+        <v>41.38606224120861</v>
       </c>
       <c r="K11" t="n">
-        <v>62.02697906967872</v>
+        <v>62.02697906967865</v>
       </c>
       <c r="L11" t="n">
-        <v>76.94995233661214</v>
+        <v>76.94995233661204</v>
       </c>
       <c r="M11" t="n">
-        <v>85.62164864297415</v>
+        <v>85.62164864297405</v>
       </c>
       <c r="N11" t="n">
-        <v>87.00709643269518</v>
+        <v>87.00709643269508</v>
       </c>
       <c r="O11" t="n">
-        <v>82.15833393061392</v>
+        <v>82.15833393061384</v>
       </c>
       <c r="P11" t="n">
-        <v>70.12023720954483</v>
+        <v>70.12023720954474</v>
       </c>
       <c r="Q11" t="n">
-        <v>52.65737791543699</v>
+        <v>52.65737791543692</v>
       </c>
       <c r="R11" t="n">
-        <v>30.63040377336129</v>
+        <v>30.63040377336126</v>
       </c>
       <c r="S11" t="n">
-        <v>11.11162041646024</v>
+        <v>11.11162041646023</v>
       </c>
       <c r="T11" t="n">
-        <v>2.134552643908049</v>
+        <v>2.134552643908047</v>
       </c>
       <c r="U11" t="n">
-        <v>0.03900952861510996</v>
+        <v>0.03900952861510991</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.2608992235148542</v>
+        <v>0.2608992235148538</v>
       </c>
       <c r="H12" t="n">
-        <v>2.519737237630303</v>
+        <v>2.5197372376303</v>
       </c>
       <c r="I12" t="n">
-        <v>8.982714493822831</v>
+        <v>8.982714493822821</v>
       </c>
       <c r="J12" t="n">
-        <v>24.64925514795383</v>
+        <v>24.64925514795381</v>
       </c>
       <c r="K12" t="n">
-        <v>42.12950312344906</v>
+        <v>42.12950312344901</v>
       </c>
       <c r="L12" t="n">
-        <v>56.6483160530827</v>
+        <v>56.64831605308264</v>
       </c>
       <c r="M12" t="n">
-        <v>66.10591290549615</v>
+        <v>66.10591290549607</v>
       </c>
       <c r="N12" t="n">
-        <v>67.85553971582166</v>
+        <v>67.85553971582158</v>
       </c>
       <c r="O12" t="n">
-        <v>62.07456218425568</v>
+        <v>62.0745621842556</v>
       </c>
       <c r="P12" t="n">
-        <v>49.82030874293738</v>
+        <v>49.82030874293732</v>
       </c>
       <c r="Q12" t="n">
-        <v>33.30355702270315</v>
+        <v>33.3035570227031</v>
       </c>
       <c r="R12" t="n">
-        <v>16.19863775472051</v>
+        <v>16.19863775472049</v>
       </c>
       <c r="S12" t="n">
-        <v>4.846088647304415</v>
+        <v>4.846088647304409</v>
       </c>
       <c r="T12" t="n">
-        <v>1.051606957939258</v>
+        <v>1.051606957939257</v>
       </c>
       <c r="U12" t="n">
-        <v>0.01716442259966146</v>
+        <v>0.01716442259966144</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.2187291448219154</v>
+        <v>0.2187291448219151</v>
       </c>
       <c r="H13" t="n">
-        <v>1.94470094214394</v>
+        <v>1.944700942143938</v>
       </c>
       <c r="I13" t="n">
-        <v>6.57778191882633</v>
+        <v>6.577781918826322</v>
       </c>
       <c r="J13" t="n">
-        <v>15.46415053890942</v>
+        <v>15.4641505389094</v>
       </c>
       <c r="K13" t="n">
-        <v>25.41234973476434</v>
+        <v>25.41234973476432</v>
       </c>
       <c r="L13" t="n">
-        <v>32.5190584947055</v>
+        <v>32.51905849470546</v>
       </c>
       <c r="M13" t="n">
-        <v>34.28678767422079</v>
+        <v>34.28678767422075</v>
       </c>
       <c r="N13" t="n">
-        <v>33.4715244980664</v>
+        <v>33.47152449806637</v>
       </c>
       <c r="O13" t="n">
-        <v>30.9163703971922</v>
+        <v>30.91637039719216</v>
       </c>
       <c r="P13" t="n">
-        <v>26.4542958428251</v>
+        <v>26.45429584282507</v>
       </c>
       <c r="Q13" t="n">
-        <v>18.31558320867875</v>
+        <v>18.31558320867873</v>
       </c>
       <c r="R13" t="n">
-        <v>9.834857729901756</v>
+        <v>9.834857729901746</v>
       </c>
       <c r="S13" t="n">
-        <v>3.811852460214651</v>
+        <v>3.811852460214647</v>
       </c>
       <c r="T13" t="n">
-        <v>0.9345699824209109</v>
+        <v>0.9345699824209098</v>
       </c>
       <c r="U13" t="n">
-        <v>0.01193068062664994</v>
+        <v>0.01193068062664993</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,16 +31987,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.4876191076888741</v>
+        <v>0.4876191076888742</v>
       </c>
       <c r="H14" t="n">
-        <v>4.993829186618683</v>
+        <v>4.993829186618684</v>
       </c>
       <c r="I14" t="n">
         <v>18.79893564917534</v>
       </c>
       <c r="J14" t="n">
-        <v>41.38606224120861</v>
+        <v>41.38606224120862</v>
       </c>
       <c r="K14" t="n">
         <v>62.02697906967867</v>
@@ -32008,16 +32008,16 @@
         <v>85.62164864297408</v>
       </c>
       <c r="N14" t="n">
-        <v>87.00709643269509</v>
+        <v>87.00709643269511</v>
       </c>
       <c r="O14" t="n">
-        <v>82.15833393061385</v>
+        <v>82.15833393061386</v>
       </c>
       <c r="P14" t="n">
-        <v>70.12023720954475</v>
+        <v>70.12023720954477</v>
       </c>
       <c r="Q14" t="n">
-        <v>52.65737791543694</v>
+        <v>52.65737791543695</v>
       </c>
       <c r="R14" t="n">
         <v>30.63040377336127</v>
@@ -32072,31 +32072,31 @@
         <v>2.5197372376303</v>
       </c>
       <c r="I15" t="n">
-        <v>8.982714493822822</v>
+        <v>8.982714493822824</v>
       </c>
       <c r="J15" t="n">
-        <v>24.64925514795381</v>
+        <v>24.64925514795382</v>
       </c>
       <c r="K15" t="n">
         <v>42.12950312344903</v>
       </c>
       <c r="L15" t="n">
-        <v>56.64831605308265</v>
+        <v>56.64831605308266</v>
       </c>
       <c r="M15" t="n">
         <v>66.1059129054961</v>
       </c>
       <c r="N15" t="n">
-        <v>67.85553971582159</v>
+        <v>67.85553971582161</v>
       </c>
       <c r="O15" t="n">
-        <v>62.07456218425562</v>
+        <v>62.07456218425563</v>
       </c>
       <c r="P15" t="n">
-        <v>49.82030874293733</v>
+        <v>49.82030874293734</v>
       </c>
       <c r="Q15" t="n">
-        <v>33.30355702270311</v>
+        <v>33.30355702270312</v>
       </c>
       <c r="R15" t="n">
         <v>16.1986377547205</v>
@@ -32105,7 +32105,7 @@
         <v>4.846088647304411</v>
       </c>
       <c r="T15" t="n">
-        <v>1.051606957939257</v>
+        <v>1.051606957939258</v>
       </c>
       <c r="U15" t="n">
         <v>0.01716442259966145</v>
@@ -32148,22 +32148,22 @@
         <v>0.2187291448219152</v>
       </c>
       <c r="H16" t="n">
-        <v>1.944700942143938</v>
+        <v>1.944700942143939</v>
       </c>
       <c r="I16" t="n">
-        <v>6.577781918826324</v>
+        <v>6.577781918826325</v>
       </c>
       <c r="J16" t="n">
         <v>15.4641505389094</v>
       </c>
       <c r="K16" t="n">
-        <v>25.41234973476432</v>
+        <v>25.41234973476433</v>
       </c>
       <c r="L16" t="n">
         <v>32.51905849470547</v>
       </c>
       <c r="M16" t="n">
-        <v>34.28678767422075</v>
+        <v>34.28678767422076</v>
       </c>
       <c r="N16" t="n">
         <v>33.47152449806637</v>
@@ -32175,16 +32175,16 @@
         <v>26.45429584282508</v>
       </c>
       <c r="Q16" t="n">
-        <v>18.31558320867873</v>
+        <v>18.31558320867874</v>
       </c>
       <c r="R16" t="n">
-        <v>9.834857729901747</v>
+        <v>9.834857729901749</v>
       </c>
       <c r="S16" t="n">
         <v>3.811852460214648</v>
       </c>
       <c r="T16" t="n">
-        <v>0.9345699824209101</v>
+        <v>0.9345699824209102</v>
       </c>
       <c r="U16" t="n">
         <v>0.01193068062664993</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.4876191076888745</v>
+        <v>0.4876191076888741</v>
       </c>
       <c r="H20" t="n">
-        <v>4.993829186618687</v>
+        <v>4.993829186618683</v>
       </c>
       <c r="I20" t="n">
-        <v>18.79893564917535</v>
+        <v>18.79893564917534</v>
       </c>
       <c r="J20" t="n">
-        <v>41.38606224120864</v>
+        <v>41.38606224120861</v>
       </c>
       <c r="K20" t="n">
-        <v>62.02697906967871</v>
+        <v>62.02697906967867</v>
       </c>
       <c r="L20" t="n">
-        <v>76.94995233661211</v>
+        <v>76.94995233661207</v>
       </c>
       <c r="M20" t="n">
-        <v>85.62164864297414</v>
+        <v>85.62164864297408</v>
       </c>
       <c r="N20" t="n">
-        <v>87.00709643269516</v>
+        <v>87.00709643269509</v>
       </c>
       <c r="O20" t="n">
-        <v>82.15833393061391</v>
+        <v>82.15833393061385</v>
       </c>
       <c r="P20" t="n">
-        <v>70.12023720954481</v>
+        <v>70.12023720954475</v>
       </c>
       <c r="Q20" t="n">
-        <v>52.65737791543697</v>
+        <v>52.65737791543694</v>
       </c>
       <c r="R20" t="n">
-        <v>30.63040377336129</v>
+        <v>30.63040377336127</v>
       </c>
       <c r="S20" t="n">
-        <v>11.11162041646024</v>
+        <v>11.11162041646023</v>
       </c>
       <c r="T20" t="n">
-        <v>2.134552643908049</v>
+        <v>2.134552643908048</v>
       </c>
       <c r="U20" t="n">
-        <v>0.03900952861510994</v>
+        <v>0.03900952861510992</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.2608992235148541</v>
+        <v>0.260899223514854</v>
       </c>
       <c r="H21" t="n">
-        <v>2.519737237630302</v>
+        <v>2.5197372376303</v>
       </c>
       <c r="I21" t="n">
-        <v>8.982714493822829</v>
+        <v>8.982714493822822</v>
       </c>
       <c r="J21" t="n">
-        <v>24.64925514795383</v>
+        <v>24.64925514795381</v>
       </c>
       <c r="K21" t="n">
-        <v>42.12950312344906</v>
+        <v>42.12950312344903</v>
       </c>
       <c r="L21" t="n">
-        <v>56.6483160530827</v>
+        <v>56.64831605308265</v>
       </c>
       <c r="M21" t="n">
-        <v>66.10591290549614</v>
+        <v>66.1059129054961</v>
       </c>
       <c r="N21" t="n">
-        <v>67.85553971582164</v>
+        <v>67.85553971582159</v>
       </c>
       <c r="O21" t="n">
-        <v>62.07456218425566</v>
+        <v>62.07456218425562</v>
       </c>
       <c r="P21" t="n">
-        <v>49.82030874293736</v>
+        <v>49.82030874293733</v>
       </c>
       <c r="Q21" t="n">
-        <v>33.30355702270313</v>
+        <v>33.30355702270311</v>
       </c>
       <c r="R21" t="n">
-        <v>16.19863775472051</v>
+        <v>16.1986377547205</v>
       </c>
       <c r="S21" t="n">
-        <v>4.846088647304414</v>
+        <v>4.846088647304411</v>
       </c>
       <c r="T21" t="n">
-        <v>1.051606957939258</v>
+        <v>1.051606957939257</v>
       </c>
       <c r="U21" t="n">
-        <v>0.01716442259966146</v>
+        <v>0.01716442259966145</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,49 +32619,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.2187291448219153</v>
+        <v>0.2187291448219152</v>
       </c>
       <c r="H22" t="n">
-        <v>1.94470094214394</v>
+        <v>1.944700942143938</v>
       </c>
       <c r="I22" t="n">
-        <v>6.577781918826329</v>
+        <v>6.577781918826324</v>
       </c>
       <c r="J22" t="n">
-        <v>15.46415053890941</v>
+        <v>15.4641505389094</v>
       </c>
       <c r="K22" t="n">
-        <v>25.41234973476434</v>
+        <v>25.41234973476432</v>
       </c>
       <c r="L22" t="n">
-        <v>32.51905849470549</v>
+        <v>32.51905849470547</v>
       </c>
       <c r="M22" t="n">
-        <v>34.28678767422078</v>
+        <v>34.28678767422075</v>
       </c>
       <c r="N22" t="n">
-        <v>33.47152449806639</v>
+        <v>33.47152449806637</v>
       </c>
       <c r="O22" t="n">
-        <v>30.91637039719219</v>
+        <v>30.91637039719217</v>
       </c>
       <c r="P22" t="n">
-        <v>26.45429584282509</v>
+        <v>26.45429584282508</v>
       </c>
       <c r="Q22" t="n">
-        <v>18.31558320867875</v>
+        <v>18.31558320867873</v>
       </c>
       <c r="R22" t="n">
-        <v>9.834857729901755</v>
+        <v>9.834857729901747</v>
       </c>
       <c r="S22" t="n">
-        <v>3.81185246021465</v>
+        <v>3.811852460214648</v>
       </c>
       <c r="T22" t="n">
-        <v>0.9345699824209107</v>
+        <v>0.9345699824209101</v>
       </c>
       <c r="U22" t="n">
-        <v>0.01193068062664994</v>
+        <v>0.01193068062664993</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,49 +32698,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.4876191076888745</v>
+        <v>0.4876191076888741</v>
       </c>
       <c r="H23" t="n">
-        <v>4.993829186618687</v>
+        <v>4.993829186618683</v>
       </c>
       <c r="I23" t="n">
-        <v>18.79893564917535</v>
+        <v>18.79893564917534</v>
       </c>
       <c r="J23" t="n">
-        <v>41.38606224120864</v>
+        <v>41.38606224120861</v>
       </c>
       <c r="K23" t="n">
-        <v>62.02697906967871</v>
+        <v>62.02697906967867</v>
       </c>
       <c r="L23" t="n">
-        <v>76.94995233661211</v>
+        <v>76.94995233661207</v>
       </c>
       <c r="M23" t="n">
-        <v>85.62164864297414</v>
+        <v>85.62164864297408</v>
       </c>
       <c r="N23" t="n">
-        <v>87.00709643269516</v>
+        <v>87.00709643269509</v>
       </c>
       <c r="O23" t="n">
-        <v>82.15833393061391</v>
+        <v>82.15833393061385</v>
       </c>
       <c r="P23" t="n">
-        <v>70.12023720954481</v>
+        <v>70.12023720954475</v>
       </c>
       <c r="Q23" t="n">
-        <v>52.65737791543697</v>
+        <v>52.65737791543694</v>
       </c>
       <c r="R23" t="n">
-        <v>30.63040377336129</v>
+        <v>30.63040377336127</v>
       </c>
       <c r="S23" t="n">
-        <v>11.11162041646024</v>
+        <v>11.11162041646023</v>
       </c>
       <c r="T23" t="n">
-        <v>2.134552643908049</v>
+        <v>2.134552643908048</v>
       </c>
       <c r="U23" t="n">
-        <v>0.03900952861510994</v>
+        <v>0.03900952861510992</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.2608992235148541</v>
+        <v>0.260899223514854</v>
       </c>
       <c r="H24" t="n">
-        <v>2.519737237630302</v>
+        <v>2.5197372376303</v>
       </c>
       <c r="I24" t="n">
-        <v>8.982714493822829</v>
+        <v>8.982714493822822</v>
       </c>
       <c r="J24" t="n">
-        <v>24.64925514795383</v>
+        <v>24.64925514795381</v>
       </c>
       <c r="K24" t="n">
-        <v>42.12950312344906</v>
+        <v>42.12950312344903</v>
       </c>
       <c r="L24" t="n">
-        <v>56.6483160530827</v>
+        <v>56.64831605308265</v>
       </c>
       <c r="M24" t="n">
-        <v>66.10591290549614</v>
+        <v>66.1059129054961</v>
       </c>
       <c r="N24" t="n">
-        <v>67.85553971582164</v>
+        <v>67.85553971582159</v>
       </c>
       <c r="O24" t="n">
-        <v>62.07456218425566</v>
+        <v>62.07456218425562</v>
       </c>
       <c r="P24" t="n">
-        <v>49.82030874293736</v>
+        <v>49.82030874293733</v>
       </c>
       <c r="Q24" t="n">
-        <v>33.30355702270313</v>
+        <v>33.30355702270311</v>
       </c>
       <c r="R24" t="n">
-        <v>16.19863775472051</v>
+        <v>16.1986377547205</v>
       </c>
       <c r="S24" t="n">
-        <v>4.846088647304414</v>
+        <v>4.846088647304411</v>
       </c>
       <c r="T24" t="n">
-        <v>1.051606957939258</v>
+        <v>1.051606957939257</v>
       </c>
       <c r="U24" t="n">
-        <v>0.01716442259966146</v>
+        <v>0.01716442259966145</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,49 +32856,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.2187291448219153</v>
+        <v>0.2187291448219152</v>
       </c>
       <c r="H25" t="n">
-        <v>1.94470094214394</v>
+        <v>1.944700942143938</v>
       </c>
       <c r="I25" t="n">
-        <v>6.577781918826329</v>
+        <v>6.577781918826324</v>
       </c>
       <c r="J25" t="n">
-        <v>15.46415053890941</v>
+        <v>15.4641505389094</v>
       </c>
       <c r="K25" t="n">
-        <v>25.41234973476434</v>
+        <v>25.41234973476432</v>
       </c>
       <c r="L25" t="n">
-        <v>32.51905849470549</v>
+        <v>32.51905849470547</v>
       </c>
       <c r="M25" t="n">
-        <v>34.28678767422078</v>
+        <v>34.28678767422075</v>
       </c>
       <c r="N25" t="n">
-        <v>33.47152449806639</v>
+        <v>33.47152449806637</v>
       </c>
       <c r="O25" t="n">
-        <v>30.91637039719219</v>
+        <v>30.91637039719217</v>
       </c>
       <c r="P25" t="n">
-        <v>26.45429584282509</v>
+        <v>26.45429584282508</v>
       </c>
       <c r="Q25" t="n">
-        <v>18.31558320867875</v>
+        <v>18.31558320867873</v>
       </c>
       <c r="R25" t="n">
-        <v>9.834857729901755</v>
+        <v>9.834857729901747</v>
       </c>
       <c r="S25" t="n">
-        <v>3.81185246021465</v>
+        <v>3.811852460214648</v>
       </c>
       <c r="T25" t="n">
-        <v>0.9345699824209107</v>
+        <v>0.9345699824209101</v>
       </c>
       <c r="U25" t="n">
-        <v>0.01193068062664994</v>
+        <v>0.01193068062664993</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,49 +32935,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.4876191076888748</v>
+        <v>0.4876191076888741</v>
       </c>
       <c r="H26" t="n">
-        <v>4.99382918661869</v>
+        <v>4.993829186618683</v>
       </c>
       <c r="I26" t="n">
-        <v>18.79893564917536</v>
+        <v>18.79893564917534</v>
       </c>
       <c r="J26" t="n">
-        <v>41.38606224120868</v>
+        <v>41.38606224120861</v>
       </c>
       <c r="K26" t="n">
-        <v>62.02697906967875</v>
+        <v>62.02697906967867</v>
       </c>
       <c r="L26" t="n">
-        <v>76.94995233661217</v>
+        <v>76.94995233661207</v>
       </c>
       <c r="M26" t="n">
-        <v>85.62164864297419</v>
+        <v>85.62164864297408</v>
       </c>
       <c r="N26" t="n">
-        <v>87.00709643269522</v>
+        <v>87.00709643269509</v>
       </c>
       <c r="O26" t="n">
-        <v>82.15833393061396</v>
+        <v>82.15833393061385</v>
       </c>
       <c r="P26" t="n">
-        <v>70.12023720954485</v>
+        <v>70.12023720954475</v>
       </c>
       <c r="Q26" t="n">
-        <v>52.65737791543701</v>
+        <v>52.65737791543694</v>
       </c>
       <c r="R26" t="n">
-        <v>30.63040377336131</v>
+        <v>30.63040377336127</v>
       </c>
       <c r="S26" t="n">
-        <v>11.11162041646024</v>
+        <v>11.11162041646023</v>
       </c>
       <c r="T26" t="n">
-        <v>2.134552643908051</v>
+        <v>2.134552643908048</v>
       </c>
       <c r="U26" t="n">
-        <v>0.03900952861510997</v>
+        <v>0.03900952861510992</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.2608992235148543</v>
+        <v>0.260899223514854</v>
       </c>
       <c r="H27" t="n">
-        <v>2.519737237630304</v>
+        <v>2.5197372376303</v>
       </c>
       <c r="I27" t="n">
-        <v>8.982714493822835</v>
+        <v>8.982714493822822</v>
       </c>
       <c r="J27" t="n">
-        <v>24.64925514795385</v>
+        <v>24.64925514795381</v>
       </c>
       <c r="K27" t="n">
-        <v>42.12950312344908</v>
+        <v>42.12950312344903</v>
       </c>
       <c r="L27" t="n">
-        <v>56.64831605308273</v>
+        <v>56.64831605308265</v>
       </c>
       <c r="M27" t="n">
-        <v>66.10591290549618</v>
+        <v>66.1059129054961</v>
       </c>
       <c r="N27" t="n">
-        <v>67.85553971582169</v>
+        <v>67.85553971582159</v>
       </c>
       <c r="O27" t="n">
-        <v>62.0745621842557</v>
+        <v>62.07456218425562</v>
       </c>
       <c r="P27" t="n">
-        <v>49.8203087429374</v>
+        <v>49.82030874293733</v>
       </c>
       <c r="Q27" t="n">
-        <v>33.30355702270316</v>
+        <v>33.30355702270311</v>
       </c>
       <c r="R27" t="n">
-        <v>16.19863775472052</v>
+        <v>16.1986377547205</v>
       </c>
       <c r="S27" t="n">
-        <v>4.846088647304417</v>
+        <v>4.846088647304411</v>
       </c>
       <c r="T27" t="n">
-        <v>1.051606957939259</v>
+        <v>1.051606957939257</v>
       </c>
       <c r="U27" t="n">
-        <v>0.01716442259966147</v>
+        <v>0.01716442259966145</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,49 +33093,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.2187291448219155</v>
+        <v>0.2187291448219152</v>
       </c>
       <c r="H28" t="n">
-        <v>1.944700942143941</v>
+        <v>1.944700942143938</v>
       </c>
       <c r="I28" t="n">
-        <v>6.577781918826333</v>
+        <v>6.577781918826324</v>
       </c>
       <c r="J28" t="n">
-        <v>15.46415053890942</v>
+        <v>15.4641505389094</v>
       </c>
       <c r="K28" t="n">
-        <v>25.41234973476436</v>
+        <v>25.41234973476432</v>
       </c>
       <c r="L28" t="n">
-        <v>32.51905849470551</v>
+        <v>32.51905849470547</v>
       </c>
       <c r="M28" t="n">
-        <v>34.2867876742208</v>
+        <v>34.28678767422075</v>
       </c>
       <c r="N28" t="n">
-        <v>33.47152449806642</v>
+        <v>33.47152449806637</v>
       </c>
       <c r="O28" t="n">
-        <v>30.91637039719221</v>
+        <v>30.91637039719217</v>
       </c>
       <c r="P28" t="n">
-        <v>26.45429584282511</v>
+        <v>26.45429584282508</v>
       </c>
       <c r="Q28" t="n">
-        <v>18.31558320867876</v>
+        <v>18.31558320867873</v>
       </c>
       <c r="R28" t="n">
-        <v>9.834857729901762</v>
+        <v>9.834857729901747</v>
       </c>
       <c r="S28" t="n">
-        <v>3.811852460214653</v>
+        <v>3.811852460214648</v>
       </c>
       <c r="T28" t="n">
-        <v>0.9345699824209114</v>
+        <v>0.9345699824209101</v>
       </c>
       <c r="U28" t="n">
-        <v>0.01193068062664995</v>
+        <v>0.01193068062664993</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,49 +33172,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.4876191076888748</v>
+        <v>0.4876191076888741</v>
       </c>
       <c r="H29" t="n">
-        <v>4.99382918661869</v>
+        <v>4.993829186618683</v>
       </c>
       <c r="I29" t="n">
-        <v>18.79893564917536</v>
+        <v>18.79893564917534</v>
       </c>
       <c r="J29" t="n">
-        <v>41.38606224120868</v>
+        <v>41.38606224120861</v>
       </c>
       <c r="K29" t="n">
-        <v>62.02697906967875</v>
+        <v>62.02697906967867</v>
       </c>
       <c r="L29" t="n">
-        <v>76.94995233661217</v>
+        <v>76.94995233661207</v>
       </c>
       <c r="M29" t="n">
-        <v>85.62164864297419</v>
+        <v>85.62164864297408</v>
       </c>
       <c r="N29" t="n">
-        <v>87.00709643269522</v>
+        <v>87.00709643269509</v>
       </c>
       <c r="O29" t="n">
-        <v>82.15833393061396</v>
+        <v>82.15833393061385</v>
       </c>
       <c r="P29" t="n">
-        <v>70.12023720954485</v>
+        <v>70.12023720954475</v>
       </c>
       <c r="Q29" t="n">
-        <v>52.65737791543701</v>
+        <v>52.65737791543694</v>
       </c>
       <c r="R29" t="n">
-        <v>30.63040377336131</v>
+        <v>30.63040377336127</v>
       </c>
       <c r="S29" t="n">
-        <v>11.11162041646024</v>
+        <v>11.11162041646023</v>
       </c>
       <c r="T29" t="n">
-        <v>2.134552643908051</v>
+        <v>2.134552643908048</v>
       </c>
       <c r="U29" t="n">
-        <v>0.03900952861510997</v>
+        <v>0.03900952861510992</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.2608992235148543</v>
+        <v>0.260899223514854</v>
       </c>
       <c r="H30" t="n">
-        <v>2.519737237630304</v>
+        <v>2.5197372376303</v>
       </c>
       <c r="I30" t="n">
-        <v>8.982714493822835</v>
+        <v>8.982714493822822</v>
       </c>
       <c r="J30" t="n">
-        <v>24.64925514795385</v>
+        <v>24.64925514795381</v>
       </c>
       <c r="K30" t="n">
-        <v>42.12950312344908</v>
+        <v>42.12950312344903</v>
       </c>
       <c r="L30" t="n">
-        <v>56.64831605308273</v>
+        <v>56.64831605308265</v>
       </c>
       <c r="M30" t="n">
-        <v>66.10591290549618</v>
+        <v>66.1059129054961</v>
       </c>
       <c r="N30" t="n">
-        <v>67.85553971582169</v>
+        <v>67.85553971582159</v>
       </c>
       <c r="O30" t="n">
-        <v>62.0745621842557</v>
+        <v>62.07456218425562</v>
       </c>
       <c r="P30" t="n">
-        <v>49.8203087429374</v>
+        <v>49.82030874293733</v>
       </c>
       <c r="Q30" t="n">
-        <v>33.30355702270316</v>
+        <v>33.30355702270311</v>
       </c>
       <c r="R30" t="n">
-        <v>16.19863775472052</v>
+        <v>16.1986377547205</v>
       </c>
       <c r="S30" t="n">
-        <v>4.846088647304417</v>
+        <v>4.846088647304411</v>
       </c>
       <c r="T30" t="n">
-        <v>1.051606957939259</v>
+        <v>1.051606957939257</v>
       </c>
       <c r="U30" t="n">
-        <v>0.01716442259966147</v>
+        <v>0.01716442259966145</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,49 +33330,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.2187291448219155</v>
+        <v>0.2187291448219152</v>
       </c>
       <c r="H31" t="n">
-        <v>1.944700942143941</v>
+        <v>1.944700942143938</v>
       </c>
       <c r="I31" t="n">
-        <v>6.577781918826333</v>
+        <v>6.577781918826324</v>
       </c>
       <c r="J31" t="n">
-        <v>15.46415053890942</v>
+        <v>15.4641505389094</v>
       </c>
       <c r="K31" t="n">
-        <v>25.41234973476436</v>
+        <v>25.41234973476432</v>
       </c>
       <c r="L31" t="n">
-        <v>32.51905849470551</v>
+        <v>32.51905849470547</v>
       </c>
       <c r="M31" t="n">
-        <v>34.2867876742208</v>
+        <v>34.28678767422075</v>
       </c>
       <c r="N31" t="n">
-        <v>33.47152449806642</v>
+        <v>33.47152449806637</v>
       </c>
       <c r="O31" t="n">
-        <v>30.91637039719221</v>
+        <v>30.91637039719217</v>
       </c>
       <c r="P31" t="n">
-        <v>26.45429584282511</v>
+        <v>26.45429584282508</v>
       </c>
       <c r="Q31" t="n">
-        <v>18.31558320867876</v>
+        <v>18.31558320867873</v>
       </c>
       <c r="R31" t="n">
-        <v>9.834857729901762</v>
+        <v>9.834857729901747</v>
       </c>
       <c r="S31" t="n">
-        <v>3.811852460214653</v>
+        <v>3.811852460214648</v>
       </c>
       <c r="T31" t="n">
-        <v>0.9345699824209114</v>
+        <v>0.9345699824209101</v>
       </c>
       <c r="U31" t="n">
-        <v>0.01193068062664995</v>
+        <v>0.01193068062664993</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,49 +33409,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0.4876191076888745</v>
+        <v>0.4876191076888741</v>
       </c>
       <c r="H32" t="n">
-        <v>4.993829186618687</v>
+        <v>4.993829186618683</v>
       </c>
       <c r="I32" t="n">
-        <v>18.79893564917535</v>
+        <v>18.79893564917534</v>
       </c>
       <c r="J32" t="n">
-        <v>41.38606224120864</v>
+        <v>41.38606224120861</v>
       </c>
       <c r="K32" t="n">
-        <v>62.02697906967871</v>
+        <v>62.02697906967867</v>
       </c>
       <c r="L32" t="n">
-        <v>76.94995233661211</v>
+        <v>76.94995233661207</v>
       </c>
       <c r="M32" t="n">
-        <v>85.62164864297414</v>
+        <v>85.62164864297408</v>
       </c>
       <c r="N32" t="n">
-        <v>87.00709643269516</v>
+        <v>87.00709643269509</v>
       </c>
       <c r="O32" t="n">
-        <v>82.15833393061391</v>
+        <v>82.15833393061385</v>
       </c>
       <c r="P32" t="n">
-        <v>70.12023720954481</v>
+        <v>70.12023720954475</v>
       </c>
       <c r="Q32" t="n">
-        <v>52.65737791543697</v>
+        <v>52.65737791543694</v>
       </c>
       <c r="R32" t="n">
-        <v>30.63040377336129</v>
+        <v>30.63040377336127</v>
       </c>
       <c r="S32" t="n">
-        <v>11.11162041646024</v>
+        <v>11.11162041646023</v>
       </c>
       <c r="T32" t="n">
-        <v>2.134552643908049</v>
+        <v>2.134552643908048</v>
       </c>
       <c r="U32" t="n">
-        <v>0.03900952861510994</v>
+        <v>0.03900952861510992</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.2608992235148541</v>
+        <v>0.260899223514854</v>
       </c>
       <c r="H33" t="n">
-        <v>2.519737237630302</v>
+        <v>2.5197372376303</v>
       </c>
       <c r="I33" t="n">
-        <v>8.982714493822829</v>
+        <v>8.982714493822822</v>
       </c>
       <c r="J33" t="n">
-        <v>24.64925514795383</v>
+        <v>24.64925514795381</v>
       </c>
       <c r="K33" t="n">
-        <v>42.12950312344906</v>
+        <v>42.12950312344903</v>
       </c>
       <c r="L33" t="n">
-        <v>56.6483160530827</v>
+        <v>56.64831605308265</v>
       </c>
       <c r="M33" t="n">
-        <v>66.10591290549614</v>
+        <v>66.1059129054961</v>
       </c>
       <c r="N33" t="n">
-        <v>67.85553971582164</v>
+        <v>67.85553971582159</v>
       </c>
       <c r="O33" t="n">
-        <v>62.07456218425566</v>
+        <v>62.07456218425562</v>
       </c>
       <c r="P33" t="n">
-        <v>49.82030874293736</v>
+        <v>49.82030874293733</v>
       </c>
       <c r="Q33" t="n">
-        <v>33.30355702270313</v>
+        <v>33.30355702270311</v>
       </c>
       <c r="R33" t="n">
-        <v>16.19863775472051</v>
+        <v>16.1986377547205</v>
       </c>
       <c r="S33" t="n">
-        <v>4.846088647304414</v>
+        <v>4.846088647304411</v>
       </c>
       <c r="T33" t="n">
-        <v>1.051606957939258</v>
+        <v>1.051606957939257</v>
       </c>
       <c r="U33" t="n">
-        <v>0.01716442259966146</v>
+        <v>0.01716442259966145</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33567,49 +33567,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.2187291448219153</v>
+        <v>0.2187291448219152</v>
       </c>
       <c r="H34" t="n">
-        <v>1.94470094214394</v>
+        <v>1.944700942143938</v>
       </c>
       <c r="I34" t="n">
-        <v>6.577781918826329</v>
+        <v>6.577781918826324</v>
       </c>
       <c r="J34" t="n">
-        <v>15.46415053890941</v>
+        <v>15.4641505389094</v>
       </c>
       <c r="K34" t="n">
-        <v>25.41234973476434</v>
+        <v>25.41234973476432</v>
       </c>
       <c r="L34" t="n">
-        <v>32.51905849470549</v>
+        <v>32.51905849470547</v>
       </c>
       <c r="M34" t="n">
-        <v>34.28678767422078</v>
+        <v>34.28678767422075</v>
       </c>
       <c r="N34" t="n">
-        <v>33.47152449806639</v>
+        <v>33.47152449806637</v>
       </c>
       <c r="O34" t="n">
-        <v>30.91637039719219</v>
+        <v>30.91637039719217</v>
       </c>
       <c r="P34" t="n">
-        <v>26.45429584282509</v>
+        <v>26.45429584282508</v>
       </c>
       <c r="Q34" t="n">
-        <v>18.31558320867875</v>
+        <v>18.31558320867873</v>
       </c>
       <c r="R34" t="n">
-        <v>9.834857729901755</v>
+        <v>9.834857729901747</v>
       </c>
       <c r="S34" t="n">
-        <v>3.81185246021465</v>
+        <v>3.811852460214648</v>
       </c>
       <c r="T34" t="n">
-        <v>0.9345699824209107</v>
+        <v>0.9345699824209101</v>
       </c>
       <c r="U34" t="n">
-        <v>0.01193068062664994</v>
+        <v>0.01193068062664993</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,49 +33646,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.4876191076888745</v>
+        <v>0.4876191076888741</v>
       </c>
       <c r="H35" t="n">
-        <v>4.993829186618687</v>
+        <v>4.993829186618683</v>
       </c>
       <c r="I35" t="n">
-        <v>18.79893564917535</v>
+        <v>18.79893564917534</v>
       </c>
       <c r="J35" t="n">
-        <v>41.38606224120864</v>
+        <v>41.38606224120861</v>
       </c>
       <c r="K35" t="n">
-        <v>62.02697906967871</v>
+        <v>62.02697906967867</v>
       </c>
       <c r="L35" t="n">
-        <v>76.94995233661211</v>
+        <v>76.94995233661207</v>
       </c>
       <c r="M35" t="n">
-        <v>85.62164864297414</v>
+        <v>85.62164864297408</v>
       </c>
       <c r="N35" t="n">
-        <v>87.00709643269516</v>
+        <v>87.00709643269509</v>
       </c>
       <c r="O35" t="n">
-        <v>82.15833393061391</v>
+        <v>82.15833393061385</v>
       </c>
       <c r="P35" t="n">
-        <v>70.12023720954481</v>
+        <v>70.12023720954475</v>
       </c>
       <c r="Q35" t="n">
-        <v>52.65737791543697</v>
+        <v>52.65737791543694</v>
       </c>
       <c r="R35" t="n">
-        <v>30.63040377336129</v>
+        <v>30.63040377336127</v>
       </c>
       <c r="S35" t="n">
-        <v>11.11162041646024</v>
+        <v>11.11162041646023</v>
       </c>
       <c r="T35" t="n">
-        <v>2.134552643908049</v>
+        <v>2.134552643908048</v>
       </c>
       <c r="U35" t="n">
-        <v>0.03900952861510994</v>
+        <v>0.03900952861510992</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.2608992235148541</v>
+        <v>0.260899223514854</v>
       </c>
       <c r="H36" t="n">
-        <v>2.519737237630302</v>
+        <v>2.5197372376303</v>
       </c>
       <c r="I36" t="n">
-        <v>8.982714493822829</v>
+        <v>8.982714493822822</v>
       </c>
       <c r="J36" t="n">
-        <v>24.64925514795383</v>
+        <v>24.64925514795381</v>
       </c>
       <c r="K36" t="n">
-        <v>42.12950312344906</v>
+        <v>42.12950312344903</v>
       </c>
       <c r="L36" t="n">
-        <v>56.6483160530827</v>
+        <v>56.64831605308265</v>
       </c>
       <c r="M36" t="n">
-        <v>66.10591290549614</v>
+        <v>66.1059129054961</v>
       </c>
       <c r="N36" t="n">
-        <v>67.85553971582164</v>
+        <v>67.85553971582159</v>
       </c>
       <c r="O36" t="n">
-        <v>62.07456218425566</v>
+        <v>62.07456218425562</v>
       </c>
       <c r="P36" t="n">
-        <v>49.82030874293736</v>
+        <v>49.82030874293733</v>
       </c>
       <c r="Q36" t="n">
-        <v>33.30355702270313</v>
+        <v>33.30355702270311</v>
       </c>
       <c r="R36" t="n">
-        <v>16.19863775472051</v>
+        <v>16.1986377547205</v>
       </c>
       <c r="S36" t="n">
-        <v>4.846088647304414</v>
+        <v>4.846088647304411</v>
       </c>
       <c r="T36" t="n">
-        <v>1.051606957939258</v>
+        <v>1.051606957939257</v>
       </c>
       <c r="U36" t="n">
-        <v>0.01716442259966146</v>
+        <v>0.01716442259966145</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33804,49 +33804,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.2187291448219153</v>
+        <v>0.2187291448219152</v>
       </c>
       <c r="H37" t="n">
-        <v>1.94470094214394</v>
+        <v>1.944700942143938</v>
       </c>
       <c r="I37" t="n">
-        <v>6.577781918826329</v>
+        <v>6.577781918826324</v>
       </c>
       <c r="J37" t="n">
-        <v>15.46415053890941</v>
+        <v>15.4641505389094</v>
       </c>
       <c r="K37" t="n">
-        <v>25.41234973476434</v>
+        <v>25.41234973476432</v>
       </c>
       <c r="L37" t="n">
-        <v>32.51905849470549</v>
+        <v>32.51905849470547</v>
       </c>
       <c r="M37" t="n">
-        <v>34.28678767422078</v>
+        <v>34.28678767422075</v>
       </c>
       <c r="N37" t="n">
-        <v>33.47152449806639</v>
+        <v>33.47152449806637</v>
       </c>
       <c r="O37" t="n">
-        <v>30.91637039719219</v>
+        <v>30.91637039719217</v>
       </c>
       <c r="P37" t="n">
-        <v>26.45429584282509</v>
+        <v>26.45429584282508</v>
       </c>
       <c r="Q37" t="n">
-        <v>18.31558320867875</v>
+        <v>18.31558320867873</v>
       </c>
       <c r="R37" t="n">
-        <v>9.834857729901755</v>
+        <v>9.834857729901747</v>
       </c>
       <c r="S37" t="n">
-        <v>3.81185246021465</v>
+        <v>3.811852460214648</v>
       </c>
       <c r="T37" t="n">
-        <v>0.9345699824209107</v>
+        <v>0.9345699824209101</v>
       </c>
       <c r="U37" t="n">
-        <v>0.01193068062664994</v>
+        <v>0.01193068062664993</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,49 +33883,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.4876191076888745</v>
+        <v>0.4876191076888741</v>
       </c>
       <c r="H38" t="n">
-        <v>4.993829186618687</v>
+        <v>4.993829186618683</v>
       </c>
       <c r="I38" t="n">
-        <v>18.79893564917535</v>
+        <v>18.79893564917534</v>
       </c>
       <c r="J38" t="n">
-        <v>41.38606224120864</v>
+        <v>41.38606224120861</v>
       </c>
       <c r="K38" t="n">
-        <v>62.02697906967871</v>
+        <v>62.02697906967867</v>
       </c>
       <c r="L38" t="n">
-        <v>76.94995233661211</v>
+        <v>76.94995233661207</v>
       </c>
       <c r="M38" t="n">
-        <v>85.62164864297414</v>
+        <v>85.62164864297408</v>
       </c>
       <c r="N38" t="n">
-        <v>87.00709643269516</v>
+        <v>87.00709643269509</v>
       </c>
       <c r="O38" t="n">
-        <v>82.15833393061391</v>
+        <v>82.15833393061385</v>
       </c>
       <c r="P38" t="n">
-        <v>70.12023720954481</v>
+        <v>70.12023720954475</v>
       </c>
       <c r="Q38" t="n">
-        <v>52.65737791543697</v>
+        <v>52.65737791543694</v>
       </c>
       <c r="R38" t="n">
-        <v>30.63040377336129</v>
+        <v>30.63040377336127</v>
       </c>
       <c r="S38" t="n">
-        <v>11.11162041646024</v>
+        <v>11.11162041646023</v>
       </c>
       <c r="T38" t="n">
-        <v>2.134552643908049</v>
+        <v>2.134552643908048</v>
       </c>
       <c r="U38" t="n">
-        <v>0.03900952861510994</v>
+        <v>0.03900952861510992</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.2608992235148541</v>
+        <v>0.260899223514854</v>
       </c>
       <c r="H39" t="n">
-        <v>2.519737237630302</v>
+        <v>2.5197372376303</v>
       </c>
       <c r="I39" t="n">
-        <v>8.982714493822829</v>
+        <v>8.982714493822822</v>
       </c>
       <c r="J39" t="n">
-        <v>24.64925514795383</v>
+        <v>24.64925514795381</v>
       </c>
       <c r="K39" t="n">
-        <v>42.12950312344906</v>
+        <v>42.12950312344903</v>
       </c>
       <c r="L39" t="n">
-        <v>56.6483160530827</v>
+        <v>56.64831605308265</v>
       </c>
       <c r="M39" t="n">
-        <v>66.10591290549614</v>
+        <v>66.1059129054961</v>
       </c>
       <c r="N39" t="n">
-        <v>67.85553971582164</v>
+        <v>67.85553971582159</v>
       </c>
       <c r="O39" t="n">
-        <v>62.07456218425566</v>
+        <v>62.07456218425562</v>
       </c>
       <c r="P39" t="n">
-        <v>49.82030874293736</v>
+        <v>49.82030874293733</v>
       </c>
       <c r="Q39" t="n">
-        <v>33.30355702270313</v>
+        <v>33.30355702270311</v>
       </c>
       <c r="R39" t="n">
-        <v>16.19863775472051</v>
+        <v>16.1986377547205</v>
       </c>
       <c r="S39" t="n">
-        <v>4.846088647304414</v>
+        <v>4.846088647304411</v>
       </c>
       <c r="T39" t="n">
-        <v>1.051606957939258</v>
+        <v>1.051606957939257</v>
       </c>
       <c r="U39" t="n">
-        <v>0.01716442259966146</v>
+        <v>0.01716442259966145</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,49 +34041,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.2187291448219153</v>
+        <v>0.2187291448219152</v>
       </c>
       <c r="H40" t="n">
-        <v>1.94470094214394</v>
+        <v>1.944700942143938</v>
       </c>
       <c r="I40" t="n">
-        <v>6.577781918826329</v>
+        <v>6.577781918826324</v>
       </c>
       <c r="J40" t="n">
-        <v>15.46415053890941</v>
+        <v>15.4641505389094</v>
       </c>
       <c r="K40" t="n">
-        <v>25.41234973476434</v>
+        <v>25.41234973476432</v>
       </c>
       <c r="L40" t="n">
-        <v>32.51905849470549</v>
+        <v>32.51905849470547</v>
       </c>
       <c r="M40" t="n">
-        <v>34.28678767422078</v>
+        <v>34.28678767422075</v>
       </c>
       <c r="N40" t="n">
-        <v>33.47152449806639</v>
+        <v>33.47152449806637</v>
       </c>
       <c r="O40" t="n">
-        <v>30.91637039719219</v>
+        <v>30.91637039719217</v>
       </c>
       <c r="P40" t="n">
-        <v>26.45429584282509</v>
+        <v>26.45429584282508</v>
       </c>
       <c r="Q40" t="n">
-        <v>18.31558320867875</v>
+        <v>18.31558320867873</v>
       </c>
       <c r="R40" t="n">
-        <v>9.834857729901755</v>
+        <v>9.834857729901747</v>
       </c>
       <c r="S40" t="n">
-        <v>3.81185246021465</v>
+        <v>3.811852460214648</v>
       </c>
       <c r="T40" t="n">
-        <v>0.9345699824209107</v>
+        <v>0.9345699824209101</v>
       </c>
       <c r="U40" t="n">
-        <v>0.01193068062664994</v>
+        <v>0.01193068062664993</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,49 +34120,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.4876191076888745</v>
+        <v>0.4876191076888741</v>
       </c>
       <c r="H41" t="n">
-        <v>4.993829186618687</v>
+        <v>4.993829186618683</v>
       </c>
       <c r="I41" t="n">
-        <v>18.79893564917535</v>
+        <v>18.79893564917534</v>
       </c>
       <c r="J41" t="n">
-        <v>41.38606224120864</v>
+        <v>41.38606224120861</v>
       </c>
       <c r="K41" t="n">
-        <v>62.02697906967871</v>
+        <v>62.02697906967867</v>
       </c>
       <c r="L41" t="n">
-        <v>76.94995233661211</v>
+        <v>76.94995233661207</v>
       </c>
       <c r="M41" t="n">
-        <v>85.62164864297414</v>
+        <v>85.62164864297408</v>
       </c>
       <c r="N41" t="n">
-        <v>87.00709643269516</v>
+        <v>87.00709643269509</v>
       </c>
       <c r="O41" t="n">
-        <v>82.15833393061391</v>
+        <v>82.15833393061385</v>
       </c>
       <c r="P41" t="n">
-        <v>70.12023720954481</v>
+        <v>70.12023720954475</v>
       </c>
       <c r="Q41" t="n">
-        <v>52.65737791543697</v>
+        <v>52.65737791543694</v>
       </c>
       <c r="R41" t="n">
-        <v>30.63040377336129</v>
+        <v>30.63040377336127</v>
       </c>
       <c r="S41" t="n">
-        <v>11.11162041646024</v>
+        <v>11.11162041646023</v>
       </c>
       <c r="T41" t="n">
-        <v>2.134552643908049</v>
+        <v>2.134552643908048</v>
       </c>
       <c r="U41" t="n">
-        <v>0.03900952861510994</v>
+        <v>0.03900952861510992</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.2608992235148541</v>
+        <v>0.260899223514854</v>
       </c>
       <c r="H42" t="n">
-        <v>2.519737237630302</v>
+        <v>2.5197372376303</v>
       </c>
       <c r="I42" t="n">
-        <v>8.982714493822829</v>
+        <v>8.982714493822822</v>
       </c>
       <c r="J42" t="n">
-        <v>24.64925514795383</v>
+        <v>24.64925514795381</v>
       </c>
       <c r="K42" t="n">
-        <v>42.12950312344906</v>
+        <v>42.12950312344903</v>
       </c>
       <c r="L42" t="n">
-        <v>56.6483160530827</v>
+        <v>56.64831605308265</v>
       </c>
       <c r="M42" t="n">
-        <v>66.10591290549614</v>
+        <v>66.1059129054961</v>
       </c>
       <c r="N42" t="n">
-        <v>67.85553971582164</v>
+        <v>67.85553971582159</v>
       </c>
       <c r="O42" t="n">
-        <v>62.07456218425566</v>
+        <v>62.07456218425562</v>
       </c>
       <c r="P42" t="n">
-        <v>49.82030874293736</v>
+        <v>49.82030874293733</v>
       </c>
       <c r="Q42" t="n">
-        <v>33.30355702270313</v>
+        <v>33.30355702270311</v>
       </c>
       <c r="R42" t="n">
-        <v>16.19863775472051</v>
+        <v>16.1986377547205</v>
       </c>
       <c r="S42" t="n">
-        <v>4.846088647304414</v>
+        <v>4.846088647304411</v>
       </c>
       <c r="T42" t="n">
-        <v>1.051606957939258</v>
+        <v>1.051606957939257</v>
       </c>
       <c r="U42" t="n">
-        <v>0.01716442259966146</v>
+        <v>0.01716442259966145</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,49 +34278,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.2187291448219153</v>
+        <v>0.2187291448219152</v>
       </c>
       <c r="H43" t="n">
-        <v>1.94470094214394</v>
+        <v>1.944700942143938</v>
       </c>
       <c r="I43" t="n">
-        <v>6.577781918826329</v>
+        <v>6.577781918826324</v>
       </c>
       <c r="J43" t="n">
-        <v>15.46415053890941</v>
+        <v>15.4641505389094</v>
       </c>
       <c r="K43" t="n">
-        <v>25.41234973476434</v>
+        <v>25.41234973476432</v>
       </c>
       <c r="L43" t="n">
-        <v>32.51905849470549</v>
+        <v>32.51905849470547</v>
       </c>
       <c r="M43" t="n">
-        <v>34.28678767422078</v>
+        <v>34.28678767422075</v>
       </c>
       <c r="N43" t="n">
-        <v>33.47152449806639</v>
+        <v>33.47152449806637</v>
       </c>
       <c r="O43" t="n">
-        <v>30.91637039719219</v>
+        <v>30.91637039719217</v>
       </c>
       <c r="P43" t="n">
-        <v>26.45429584282509</v>
+        <v>26.45429584282508</v>
       </c>
       <c r="Q43" t="n">
-        <v>18.31558320867875</v>
+        <v>18.31558320867873</v>
       </c>
       <c r="R43" t="n">
-        <v>9.834857729901755</v>
+        <v>9.834857729901747</v>
       </c>
       <c r="S43" t="n">
-        <v>3.81185246021465</v>
+        <v>3.811852460214648</v>
       </c>
       <c r="T43" t="n">
-        <v>0.9345699824209107</v>
+        <v>0.9345699824209101</v>
       </c>
       <c r="U43" t="n">
-        <v>0.01193068062664994</v>
+        <v>0.01193068062664993</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,49 +34357,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.4876191076888745</v>
+        <v>0.4876191076888741</v>
       </c>
       <c r="H44" t="n">
-        <v>4.993829186618687</v>
+        <v>4.993829186618683</v>
       </c>
       <c r="I44" t="n">
-        <v>18.79893564917535</v>
+        <v>18.79893564917534</v>
       </c>
       <c r="J44" t="n">
-        <v>41.38606224120864</v>
+        <v>41.38606224120861</v>
       </c>
       <c r="K44" t="n">
-        <v>62.02697906967871</v>
+        <v>62.02697906967867</v>
       </c>
       <c r="L44" t="n">
-        <v>76.94995233661211</v>
+        <v>76.94995233661207</v>
       </c>
       <c r="M44" t="n">
-        <v>85.62164864297414</v>
+        <v>85.62164864297408</v>
       </c>
       <c r="N44" t="n">
-        <v>87.00709643269516</v>
+        <v>87.00709643269509</v>
       </c>
       <c r="O44" t="n">
-        <v>82.15833393061391</v>
+        <v>82.15833393061385</v>
       </c>
       <c r="P44" t="n">
-        <v>70.12023720954481</v>
+        <v>70.12023720954475</v>
       </c>
       <c r="Q44" t="n">
-        <v>52.65737791543697</v>
+        <v>52.65737791543694</v>
       </c>
       <c r="R44" t="n">
-        <v>30.63040377336129</v>
+        <v>30.63040377336127</v>
       </c>
       <c r="S44" t="n">
-        <v>11.11162041646024</v>
+        <v>11.11162041646023</v>
       </c>
       <c r="T44" t="n">
-        <v>2.134552643908049</v>
+        <v>2.134552643908048</v>
       </c>
       <c r="U44" t="n">
-        <v>0.03900952861510994</v>
+        <v>0.03900952861510992</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.2608992235148541</v>
+        <v>0.260899223514854</v>
       </c>
       <c r="H45" t="n">
-        <v>2.519737237630302</v>
+        <v>2.5197372376303</v>
       </c>
       <c r="I45" t="n">
-        <v>8.982714493822829</v>
+        <v>8.982714493822822</v>
       </c>
       <c r="J45" t="n">
-        <v>24.64925514795383</v>
+        <v>24.64925514795381</v>
       </c>
       <c r="K45" t="n">
-        <v>42.12950312344906</v>
+        <v>42.12950312344903</v>
       </c>
       <c r="L45" t="n">
-        <v>56.6483160530827</v>
+        <v>56.64831605308265</v>
       </c>
       <c r="M45" t="n">
-        <v>66.10591290549614</v>
+        <v>66.1059129054961</v>
       </c>
       <c r="N45" t="n">
-        <v>67.85553971582164</v>
+        <v>67.85553971582159</v>
       </c>
       <c r="O45" t="n">
-        <v>62.07456218425566</v>
+        <v>62.07456218425562</v>
       </c>
       <c r="P45" t="n">
-        <v>49.82030874293736</v>
+        <v>49.82030874293733</v>
       </c>
       <c r="Q45" t="n">
-        <v>33.30355702270313</v>
+        <v>33.30355702270311</v>
       </c>
       <c r="R45" t="n">
-        <v>16.19863775472051</v>
+        <v>16.1986377547205</v>
       </c>
       <c r="S45" t="n">
-        <v>4.846088647304414</v>
+        <v>4.846088647304411</v>
       </c>
       <c r="T45" t="n">
-        <v>1.051606957939258</v>
+        <v>1.051606957939257</v>
       </c>
       <c r="U45" t="n">
-        <v>0.01716442259966146</v>
+        <v>0.01716442259966145</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,49 +34515,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.2187291448219153</v>
+        <v>0.2187291448219152</v>
       </c>
       <c r="H46" t="n">
-        <v>1.94470094214394</v>
+        <v>1.944700942143938</v>
       </c>
       <c r="I46" t="n">
-        <v>6.577781918826329</v>
+        <v>6.577781918826324</v>
       </c>
       <c r="J46" t="n">
-        <v>15.46415053890941</v>
+        <v>15.4641505389094</v>
       </c>
       <c r="K46" t="n">
-        <v>25.41234973476434</v>
+        <v>25.41234973476432</v>
       </c>
       <c r="L46" t="n">
-        <v>32.51905849470549</v>
+        <v>32.51905849470547</v>
       </c>
       <c r="M46" t="n">
-        <v>34.28678767422078</v>
+        <v>34.28678767422075</v>
       </c>
       <c r="N46" t="n">
-        <v>33.47152449806639</v>
+        <v>33.47152449806637</v>
       </c>
       <c r="O46" t="n">
-        <v>30.91637039719219</v>
+        <v>30.91637039719217</v>
       </c>
       <c r="P46" t="n">
-        <v>26.45429584282509</v>
+        <v>26.45429584282508</v>
       </c>
       <c r="Q46" t="n">
-        <v>18.31558320867875</v>
+        <v>18.31558320867873</v>
       </c>
       <c r="R46" t="n">
-        <v>9.834857729901755</v>
+        <v>9.834857729901747</v>
       </c>
       <c r="S46" t="n">
-        <v>3.81185246021465</v>
+        <v>3.811852460214648</v>
       </c>
       <c r="T46" t="n">
-        <v>0.9345699824209107</v>
+        <v>0.9345699824209101</v>
       </c>
       <c r="U46" t="n">
-        <v>0.01193068062664994</v>
+        <v>0.01193068062664993</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35170,22 +35170,22 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>72.72580229576329</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>135.7293992974318</v>
       </c>
       <c r="L8" t="n">
         <v>135.7293992974318</v>
       </c>
       <c r="M8" t="n">
-        <v>57.51958086843886</v>
+        <v>135.7293992974318</v>
       </c>
       <c r="N8" t="n">
-        <v>135.7293992974318</v>
+        <v>130.2453831642022</v>
       </c>
       <c r="O8" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>60.86277427586479</v>
       </c>
       <c r="K9" t="n">
         <v>135.7293992974318</v>
       </c>
       <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>69.38260888833734</v>
+      </c>
+      <c r="P9" t="n">
         <v>135.7293992974318</v>
       </c>
-      <c r="M9" t="n">
+      <c r="Q9" t="n">
         <v>135.7293992974318</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>130.2453831642022</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35407,28 +35407,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>114.111864536972</v>
+        <v>114.1118645369719</v>
       </c>
       <c r="K11" t="n">
-        <v>304.5930114381462</v>
+        <v>304.5930114381461</v>
       </c>
       <c r="L11" t="n">
-        <v>428.3493190890831</v>
+        <v>428.349319089083</v>
       </c>
       <c r="M11" t="n">
-        <v>482.8329276864973</v>
+        <v>482.8329276864972</v>
       </c>
       <c r="N11" t="n">
-        <v>469.1599839960444</v>
+        <v>469.1599839960443</v>
       </c>
       <c r="O11" t="n">
-        <v>390.2437727920624</v>
+        <v>390.2437727920623</v>
       </c>
       <c r="P11" t="n">
-        <v>300.5817487813158</v>
+        <v>300.5817487813157</v>
       </c>
       <c r="Q11" t="n">
-        <v>148.0434927503229</v>
+        <v>148.0434927503228</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>85.51202942381863</v>
+        <v>85.5120294238186</v>
       </c>
       <c r="K12" t="n">
-        <v>273.9381420731346</v>
+        <v>273.9381420731345</v>
       </c>
       <c r="L12" t="n">
-        <v>426.1653313764318</v>
+        <v>358.842622200419</v>
       </c>
       <c r="M12" t="n">
-        <v>556.0385932188562</v>
+        <v>556.0385932188561</v>
       </c>
       <c r="N12" t="n">
-        <v>161.9950741680073</v>
+        <v>584.2854852947328</v>
       </c>
       <c r="O12" t="n">
-        <v>458.2361286328929</v>
+        <v>458.2361286328928</v>
       </c>
       <c r="P12" t="n">
-        <v>354.9677019507124</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>192.6688396344145</v>
+        <v>192.6688396344144</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>39.19216003346897</v>
+        <v>39.19216003346901</v>
       </c>
       <c r="K13" t="n">
         <v>142.5406494137812</v>
@@ -35583,10 +35583,10 @@
         <v>213.5592748752457</v>
       </c>
       <c r="P13" t="n">
-        <v>173.2435005556746</v>
+        <v>173.2435005556747</v>
       </c>
       <c r="Q13" t="n">
-        <v>63.34829097035945</v>
+        <v>63.34829097035949</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35665,7 +35665,7 @@
         <v>300.5817487813157</v>
       </c>
       <c r="Q14" t="n">
-        <v>148.0434927503228</v>
+        <v>148.0434927503229</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35723,10 +35723,10 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>85.5120294238186</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>273.9381420731345</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>426.1653313764318</v>
@@ -35738,13 +35738,13 @@
         <v>584.2854852947328</v>
       </c>
       <c r="O15" t="n">
-        <v>35.94571750616758</v>
+        <v>458.2361286328929</v>
       </c>
       <c r="P15" t="n">
         <v>354.9677019507124</v>
       </c>
       <c r="Q15" t="n">
-        <v>192.6688396344144</v>
+        <v>129.8286000046422</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>39.19216003346902</v>
+        <v>39.19216003346901</v>
       </c>
       <c r="K16" t="n">
         <v>142.5406494137812</v>
@@ -35823,7 +35823,7 @@
         <v>173.2435005556747</v>
       </c>
       <c r="Q16" t="n">
-        <v>63.3482909703595</v>
+        <v>63.34829097035949</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35890,7 +35890,7 @@
         <v>428.349319089083</v>
       </c>
       <c r="M17" t="n">
-        <v>482.8329276864975</v>
+        <v>482.8329276864973</v>
       </c>
       <c r="N17" t="n">
         <v>469.1599839960443</v>
@@ -36121,22 +36121,22 @@
         <v>114.1118645369719</v>
       </c>
       <c r="K20" t="n">
-        <v>304.5930114381462</v>
+        <v>304.5930114381461</v>
       </c>
       <c r="L20" t="n">
-        <v>428.3493190890831</v>
+        <v>428.349319089083</v>
       </c>
       <c r="M20" t="n">
         <v>482.8329276864973</v>
       </c>
       <c r="N20" t="n">
-        <v>469.1599839960444</v>
+        <v>469.1599839960443</v>
       </c>
       <c r="O20" t="n">
-        <v>390.2437727920624</v>
+        <v>390.2437727920623</v>
       </c>
       <c r="P20" t="n">
-        <v>300.5817487813158</v>
+        <v>300.5817487813156</v>
       </c>
       <c r="Q20" t="n">
         <v>148.0434927503228</v>
@@ -36197,10 +36197,10 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>85.51202942381863</v>
+        <v>85.5120294238186</v>
       </c>
       <c r="K21" t="n">
-        <v>273.9381420731346</v>
+        <v>273.9381420731345</v>
       </c>
       <c r="L21" t="n">
         <v>426.1653313764318</v>
@@ -36209,16 +36209,16 @@
         <v>556.0385932188561</v>
       </c>
       <c r="N21" t="n">
-        <v>584.2854852947328</v>
+        <v>161.9950741680076</v>
       </c>
       <c r="O21" t="n">
-        <v>35.94571750616758</v>
+        <v>458.2361286328929</v>
       </c>
       <c r="P21" t="n">
         <v>354.9677019507124</v>
       </c>
       <c r="Q21" t="n">
-        <v>192.6688396344145</v>
+        <v>192.6688396344144</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36279,7 +36279,7 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>59.35597371925264</v>
+        <v>59.35597371925262</v>
       </c>
       <c r="L22" t="n">
         <v>134.1423710202201</v>
@@ -36294,7 +36294,7 @@
         <v>130.3745991807171</v>
       </c>
       <c r="P22" t="n">
-        <v>90.05882486114609</v>
+        <v>90.05882486114608</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -36358,22 +36358,22 @@
         <v>114.1118645369719</v>
       </c>
       <c r="K23" t="n">
-        <v>304.5930114381462</v>
+        <v>304.5930114381461</v>
       </c>
       <c r="L23" t="n">
-        <v>428.3493190890831</v>
+        <v>428.349319089083</v>
       </c>
       <c r="M23" t="n">
         <v>482.8329276864973</v>
       </c>
       <c r="N23" t="n">
-        <v>469.1599839960444</v>
+        <v>469.1599839960443</v>
       </c>
       <c r="O23" t="n">
-        <v>390.2437727920624</v>
+        <v>390.2437727920623</v>
       </c>
       <c r="P23" t="n">
-        <v>300.5817487813158</v>
+        <v>300.5817487813157</v>
       </c>
       <c r="Q23" t="n">
         <v>148.0434927503228</v>
@@ -36434,10 +36434,10 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>85.5120294238186</v>
       </c>
       <c r="K24" t="n">
-        <v>129.8286000046421</v>
+        <v>273.9381420731345</v>
       </c>
       <c r="L24" t="n">
         <v>426.1653313764318</v>
@@ -36446,7 +36446,7 @@
         <v>556.0385932188561</v>
       </c>
       <c r="N24" t="n">
-        <v>584.2854852947328</v>
+        <v>161.9950741680076</v>
       </c>
       <c r="O24" t="n">
         <v>458.2361286328929</v>
@@ -36455,7 +36455,7 @@
         <v>354.9677019507124</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>192.6688396344144</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36516,7 +36516,7 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>59.35597371925264</v>
+        <v>59.35597371925262</v>
       </c>
       <c r="L25" t="n">
         <v>134.1423710202201</v>
@@ -36531,7 +36531,7 @@
         <v>130.3745991807171</v>
       </c>
       <c r="P25" t="n">
-        <v>90.05882486114609</v>
+        <v>90.05882486114608</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -36595,19 +36595,19 @@
         <v>217.6489297778838</v>
       </c>
       <c r="K26" t="n">
-        <v>408.1300766790581</v>
+        <v>408.130076679058</v>
       </c>
       <c r="L26" t="n">
-        <v>531.8863843299951</v>
+        <v>531.8863843299949</v>
       </c>
       <c r="M26" t="n">
-        <v>524.5618470945371</v>
+        <v>586.3699929274092</v>
       </c>
       <c r="N26" t="n">
-        <v>572.6970492369563</v>
+        <v>572.6970492369562</v>
       </c>
       <c r="O26" t="n">
-        <v>493.7808380329743</v>
+        <v>431.9726922001025</v>
       </c>
       <c r="P26" t="n">
         <v>404.1188140222276</v>
@@ -36616,7 +36616,7 @@
         <v>251.5805579912347</v>
       </c>
       <c r="R26" t="n">
-        <v>44.43556537516803</v>
+        <v>44.43556537516801</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,28 +36671,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>85.51202942381865</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>273.9381420731346</v>
+        <v>273.9381420731345</v>
       </c>
       <c r="L27" t="n">
-        <v>426.1653313764319</v>
+        <v>426.1653313764318</v>
       </c>
       <c r="M27" t="n">
-        <v>133.7481820921304</v>
+        <v>556.0385932188561</v>
       </c>
       <c r="N27" t="n">
-        <v>584.2854852947329</v>
+        <v>584.2854852947328</v>
       </c>
       <c r="O27" t="n">
         <v>458.2361286328929</v>
       </c>
       <c r="P27" t="n">
-        <v>354.9677019507124</v>
+        <v>18.18932024780546</v>
       </c>
       <c r="Q27" t="n">
-        <v>192.6688396344145</v>
+        <v>192.6688396344144</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,16 +36750,16 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>59.54454957985232</v>
+        <v>59.54454957985233</v>
       </c>
       <c r="K28" t="n">
         <v>162.8930389601645</v>
       </c>
       <c r="L28" t="n">
-        <v>237.6794362611321</v>
+        <v>237.679436261132</v>
       </c>
       <c r="M28" t="n">
-        <v>257.0092126399829</v>
+        <v>257.0092126399826</v>
       </c>
       <c r="N28" t="n">
         <v>256.6271167587767</v>
@@ -36832,19 +36832,19 @@
         <v>217.6489297778838</v>
       </c>
       <c r="K29" t="n">
-        <v>408.1300766790581</v>
+        <v>408.130076679058</v>
       </c>
       <c r="L29" t="n">
-        <v>531.8863843299951</v>
+        <v>531.8863843299949</v>
       </c>
       <c r="M29" t="n">
-        <v>586.3699929274093</v>
+        <v>586.3699929274092</v>
       </c>
       <c r="N29" t="n">
-        <v>572.6970492369563</v>
+        <v>572.6970492369562</v>
       </c>
       <c r="O29" t="n">
-        <v>493.7808380329743</v>
+        <v>493.7808380329742</v>
       </c>
       <c r="P29" t="n">
         <v>342.3106681893557</v>
@@ -36853,7 +36853,7 @@
         <v>251.5805579912347</v>
       </c>
       <c r="R29" t="n">
-        <v>44.43556537516803</v>
+        <v>44.43556537516801</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,28 +36908,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>85.5120294238186</v>
       </c>
       <c r="K30" t="n">
-        <v>273.9381420731346</v>
+        <v>273.9381420731345</v>
       </c>
       <c r="L30" t="n">
-        <v>89.38694967352461</v>
+        <v>426.1653313764318</v>
       </c>
       <c r="M30" t="n">
-        <v>556.0385932188562</v>
+        <v>556.0385932188561</v>
       </c>
       <c r="N30" t="n">
-        <v>584.2854852947329</v>
+        <v>584.2854852947328</v>
       </c>
       <c r="O30" t="n">
         <v>458.2361286328929</v>
       </c>
       <c r="P30" t="n">
-        <v>354.9677019507124</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>192.6688396344145</v>
+        <v>125.3461304584015</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,13 +36987,13 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>59.54454957985232</v>
+        <v>59.54454957985233</v>
       </c>
       <c r="K31" t="n">
         <v>162.8930389601645</v>
       </c>
       <c r="L31" t="n">
-        <v>237.6794362611321</v>
+        <v>237.679436261132</v>
       </c>
       <c r="M31" t="n">
         <v>257.0092126399829</v>
@@ -37069,28 +37069,28 @@
         <v>114.1118645369719</v>
       </c>
       <c r="K32" t="n">
-        <v>304.5930114381462</v>
+        <v>304.5930114381461</v>
       </c>
       <c r="L32" t="n">
-        <v>428.3493190890831</v>
+        <v>428.349319089083</v>
       </c>
       <c r="M32" t="n">
-        <v>538.1188371110491</v>
+        <v>482.8329276864973</v>
       </c>
       <c r="N32" t="n">
-        <v>469.1599839960444</v>
+        <v>469.1599839960443</v>
       </c>
       <c r="O32" t="n">
-        <v>390.2437727920624</v>
+        <v>390.2437727920623</v>
       </c>
       <c r="P32" t="n">
-        <v>300.5817487813158</v>
+        <v>439.2347242084591</v>
       </c>
       <c r="Q32" t="n">
-        <v>286.6964681774663</v>
+        <v>282.8808777362734</v>
       </c>
       <c r="R32" t="n">
-        <v>79.55147556139951</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,19 +37145,19 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>85.51202942381863</v>
+        <v>85.5120294238186</v>
       </c>
       <c r="K33" t="n">
-        <v>273.9381420731346</v>
+        <v>273.9381420731345</v>
       </c>
       <c r="L33" t="n">
         <v>426.1653313764318</v>
       </c>
       <c r="M33" t="n">
-        <v>556.0385932188561</v>
+        <v>133.7481820921311</v>
       </c>
       <c r="N33" t="n">
-        <v>161.9950741680073</v>
+        <v>584.2854852947328</v>
       </c>
       <c r="O33" t="n">
         <v>458.2361286328929</v>
@@ -37166,7 +37166,7 @@
         <v>354.9677019507124</v>
       </c>
       <c r="Q33" t="n">
-        <v>192.6688396344145</v>
+        <v>192.6688396344144</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,10 +37224,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>94.66045976608383</v>
       </c>
       <c r="K34" t="n">
-        <v>59.35597371925264</v>
+        <v>59.35597371925262</v>
       </c>
       <c r="L34" t="n">
         <v>134.1423710202201</v>
@@ -37239,16 +37239,16 @@
         <v>153.0900515178647</v>
       </c>
       <c r="O34" t="n">
-        <v>205.2923983880008</v>
+        <v>130.3745991807171</v>
       </c>
       <c r="P34" t="n">
-        <v>90.05882486114609</v>
+        <v>90.05882486114608</v>
       </c>
       <c r="Q34" t="n">
-        <v>118.8165907029743</v>
+        <v>99.07393014417413</v>
       </c>
       <c r="R34" t="n">
-        <v>0.4612695852796076</v>
+        <v>0.4612695852796005</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -37306,22 +37306,22 @@
         <v>114.1118645369719</v>
       </c>
       <c r="K35" t="n">
-        <v>304.5930114381462</v>
+        <v>304.5930114381461</v>
       </c>
       <c r="L35" t="n">
-        <v>428.3493190890831</v>
+        <v>428.349319089083</v>
       </c>
       <c r="M35" t="n">
         <v>482.8329276864973</v>
       </c>
       <c r="N35" t="n">
-        <v>469.1599839960444</v>
+        <v>469.1599839960443</v>
       </c>
       <c r="O35" t="n">
-        <v>390.2437727920624</v>
+        <v>390.2437727920623</v>
       </c>
       <c r="P35" t="n">
-        <v>300.5817487813158</v>
+        <v>300.5817487813157</v>
       </c>
       <c r="Q35" t="n">
         <v>148.0434927503228</v>
@@ -37382,10 +37382,10 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>85.51202942381863</v>
+        <v>85.5120294238186</v>
       </c>
       <c r="K36" t="n">
-        <v>273.9381420731346</v>
+        <v>44.31657058082371</v>
       </c>
       <c r="L36" t="n">
         <v>426.1653313764318</v>
@@ -37394,7 +37394,7 @@
         <v>556.0385932188561</v>
       </c>
       <c r="N36" t="n">
-        <v>161.9950741680073</v>
+        <v>584.2854852947328</v>
       </c>
       <c r="O36" t="n">
         <v>458.2361286328929</v>
@@ -37403,7 +37403,7 @@
         <v>354.9677019507124</v>
       </c>
       <c r="Q36" t="n">
-        <v>192.6688396344145</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37464,7 +37464,7 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>59.35597371925264</v>
+        <v>59.35597371925262</v>
       </c>
       <c r="L37" t="n">
         <v>134.1423710202201</v>
@@ -37479,7 +37479,7 @@
         <v>130.3745991807171</v>
       </c>
       <c r="P37" t="n">
-        <v>90.05882486114609</v>
+        <v>90.05882486114608</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -37543,22 +37543,22 @@
         <v>114.1118645369719</v>
       </c>
       <c r="K38" t="n">
-        <v>304.5930114381462</v>
+        <v>304.5930114381461</v>
       </c>
       <c r="L38" t="n">
-        <v>428.3493190890831</v>
+        <v>428.349319089083</v>
       </c>
       <c r="M38" t="n">
         <v>482.8329276864973</v>
       </c>
       <c r="N38" t="n">
-        <v>469.1599839960444</v>
+        <v>469.1599839960443</v>
       </c>
       <c r="O38" t="n">
-        <v>390.2437727920624</v>
+        <v>390.2437727920623</v>
       </c>
       <c r="P38" t="n">
-        <v>300.5817487813158</v>
+        <v>300.5817487813151</v>
       </c>
       <c r="Q38" t="n">
         <v>148.0434927503228</v>
@@ -37619,10 +37619,10 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>85.51202942381863</v>
+        <v>85.5120294238186</v>
       </c>
       <c r="K39" t="n">
-        <v>273.9381420731346</v>
+        <v>273.9381420731345</v>
       </c>
       <c r="L39" t="n">
         <v>426.1653313764318</v>
@@ -37631,7 +37631,7 @@
         <v>556.0385932188561</v>
       </c>
       <c r="N39" t="n">
-        <v>161.9950741680073</v>
+        <v>161.9950741680076</v>
       </c>
       <c r="O39" t="n">
         <v>458.2361286328929</v>
@@ -37640,7 +37640,7 @@
         <v>354.9677019507124</v>
       </c>
       <c r="Q39" t="n">
-        <v>192.6688396344145</v>
+        <v>192.6688396344144</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37701,7 +37701,7 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>59.35597371925264</v>
+        <v>59.35597371925262</v>
       </c>
       <c r="L40" t="n">
         <v>134.1423710202201</v>
@@ -37716,7 +37716,7 @@
         <v>130.3745991807171</v>
       </c>
       <c r="P40" t="n">
-        <v>90.05882486114609</v>
+        <v>90.05882486114608</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -37780,22 +37780,22 @@
         <v>114.1118645369719</v>
       </c>
       <c r="K41" t="n">
-        <v>304.5930114381462</v>
+        <v>304.5930114381461</v>
       </c>
       <c r="L41" t="n">
-        <v>428.3493190890831</v>
+        <v>428.349319089083</v>
       </c>
       <c r="M41" t="n">
         <v>482.8329276864973</v>
       </c>
       <c r="N41" t="n">
-        <v>469.1599839960444</v>
+        <v>469.1599839960443</v>
       </c>
       <c r="O41" t="n">
-        <v>390.2437727920624</v>
+        <v>390.2437727920623</v>
       </c>
       <c r="P41" t="n">
-        <v>300.5817487813158</v>
+        <v>300.5817487813157</v>
       </c>
       <c r="Q41" t="n">
         <v>148.0434927503228</v>
@@ -37856,13 +37856,13 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>85.51202942381863</v>
+        <v>85.5120294238186</v>
       </c>
       <c r="K42" t="n">
-        <v>273.9381420731346</v>
+        <v>273.9381420731345</v>
       </c>
       <c r="L42" t="n">
-        <v>3.874920249706355</v>
+        <v>3.874920249706584</v>
       </c>
       <c r="M42" t="n">
         <v>556.0385932188561</v>
@@ -37877,7 +37877,7 @@
         <v>354.9677019507124</v>
       </c>
       <c r="Q42" t="n">
-        <v>192.6688396344145</v>
+        <v>192.6688396344144</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37938,7 +37938,7 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>59.35597371925264</v>
+        <v>59.35597371925262</v>
       </c>
       <c r="L43" t="n">
         <v>134.1423710202201</v>
@@ -37953,7 +37953,7 @@
         <v>130.3745991807171</v>
       </c>
       <c r="P43" t="n">
-        <v>90.05882486114609</v>
+        <v>90.05882486114608</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -38017,22 +38017,22 @@
         <v>114.1118645369719</v>
       </c>
       <c r="K44" t="n">
-        <v>304.5930114381462</v>
+        <v>304.5930114381461</v>
       </c>
       <c r="L44" t="n">
-        <v>428.3493190890831</v>
+        <v>428.349319089083</v>
       </c>
       <c r="M44" t="n">
         <v>482.8329276864973</v>
       </c>
       <c r="N44" t="n">
-        <v>469.1599839960444</v>
+        <v>469.1599839960443</v>
       </c>
       <c r="O44" t="n">
-        <v>390.2437727920624</v>
+        <v>390.2437727920623</v>
       </c>
       <c r="P44" t="n">
-        <v>300.5817487813158</v>
+        <v>300.5817487813157</v>
       </c>
       <c r="Q44" t="n">
         <v>148.0434927503228</v>
@@ -38093,10 +38093,10 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>85.51202942381863</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>273.9381420731346</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>426.1653313764318</v>
@@ -38108,13 +38108,13 @@
         <v>584.2854852947328</v>
       </c>
       <c r="O45" t="n">
-        <v>35.94571750616758</v>
+        <v>458.2361286328929</v>
       </c>
       <c r="P45" t="n">
         <v>354.9677019507124</v>
       </c>
       <c r="Q45" t="n">
-        <v>192.6688396344145</v>
+        <v>129.8286000046422</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38175,7 +38175,7 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>59.35597371925264</v>
+        <v>59.35597371925262</v>
       </c>
       <c r="L46" t="n">
         <v>134.1423710202201</v>
@@ -38190,7 +38190,7 @@
         <v>130.3745991807171</v>
       </c>
       <c r="P46" t="n">
-        <v>90.05882486114609</v>
+        <v>90.05882486114608</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>
